--- a/localization/Localization.xlsx
+++ b/localization/Localization.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>Key</t>
   </si>
@@ -82,6 +82,33 @@
   </si>
   <si>
     <t>Alan</t>
+  </si>
+  <si>
+    <t>area_progress</t>
+  </si>
+  <si>
+    <t>Area Progress</t>
+  </si>
+  <si>
+    <t>Alan İlerlemesi</t>
+  </si>
+  <si>
+    <t>frontyard</t>
+  </si>
+  <si>
+    <t>Front Yard</t>
+  </si>
+  <si>
+    <t>Ön Bahçe</t>
+  </si>
+  <si>
+    <t>place_stairs</t>
+  </si>
+  <si>
+    <t>Place the stairs!</t>
+  </si>
+  <si>
+    <t>Merdivenleri yap!</t>
   </si>
 </sst>
 </file>
@@ -399,10 +426,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -488,6 +515,39 @@
         <v>20</v>
       </c>
     </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" t="s">
+        <v>29</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/localization/Localization.xlsx
+++ b/localization/Localization.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>Key</t>
   </si>
@@ -109,6 +109,15 @@
   </si>
   <si>
     <t>Merdivenleri yap!</t>
+  </si>
+  <si>
+    <t>do_it</t>
+  </si>
+  <si>
+    <t>Do It!</t>
+  </si>
+  <si>
+    <t>Yap!</t>
   </si>
 </sst>
 </file>
@@ -144,8 +153,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -426,10 +438,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -548,6 +560,20 @@
         <v>29</v>
       </c>
     </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="1"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/localization/Localization.xlsx
+++ b/localization/Localization.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
   <si>
     <t>Key</t>
   </si>
@@ -118,6 +118,24 @@
   </si>
   <si>
     <t>Yap!</t>
+  </si>
+  <si>
+    <t>Reading Room</t>
+  </si>
+  <si>
+    <t>reading_room</t>
+  </si>
+  <si>
+    <t>Okuma Odası</t>
+  </si>
+  <si>
+    <t>lay_floor</t>
+  </si>
+  <si>
+    <t>Lay the floor!</t>
+  </si>
+  <si>
+    <t>Zemini döşe!</t>
   </si>
 </sst>
 </file>
@@ -438,10 +456,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -572,7 +590,26 @@
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="1"/>
+      <c r="A12" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>36</v>
+      </c>
+      <c r="B13" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" t="s">
+        <v>38</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/localization/Localization.xlsx
+++ b/localization/Localization.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
+  <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Sayfa1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="124519"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
   <si>
     <t>Key</t>
   </si>
@@ -136,13 +136,22 @@
   </si>
   <si>
     <t>Zemini döşe!</t>
+  </si>
+  <si>
+    <t>quit</t>
+  </si>
+  <si>
+    <t>Quit</t>
+  </si>
+  <si>
+    <t>Çıkış</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -236,7 +245,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -271,7 +280,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -448,27 +457,27 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="18.42578125" customWidth="1"/>
     <col min="2" max="3" width="24.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -479,7 +488,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -490,7 +499,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -501,7 +510,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -512,7 +521,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -523,7 +532,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -534,7 +543,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
         <v>18</v>
       </c>
@@ -545,7 +554,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3">
       <c r="A8" t="s">
         <v>21</v>
       </c>
@@ -556,7 +565,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3">
       <c r="A9" t="s">
         <v>24</v>
       </c>
@@ -567,7 +576,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3">
       <c r="A10" t="s">
         <v>27</v>
       </c>
@@ -578,7 +587,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3">
       <c r="A11" s="1" t="s">
         <v>30</v>
       </c>
@@ -589,7 +598,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3">
       <c r="A12" t="s">
         <v>34</v>
       </c>
@@ -600,7 +609,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3">
       <c r="A13" t="s">
         <v>36</v>
       </c>
@@ -609,6 +618,17 @@
       </c>
       <c r="C13" t="s">
         <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>39</v>
+      </c>
+      <c r="B14" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/localization/Localization.xlsx
+++ b/localization/Localization.xlsx
@@ -1,8 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
-  <workbookPr filterPrivacy="1"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
@@ -10,8 +10,8 @@
     <sheet name="Sayfa1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
   <si>
     <t>Key</t>
   </si>
@@ -145,13 +145,22 @@
   </si>
   <si>
     <t>Çıkış</t>
+  </si>
+  <si>
+    <t>hammer_note</t>
+  </si>
+  <si>
+    <t>Harf açmak için bir kutu seç</t>
+  </si>
+  <si>
+    <t>Select a box to open the letters</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -457,27 +466,27 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.42578125" customWidth="1"/>
     <col min="2" max="3" width="24.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -488,7 +497,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -499,7 +508,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -510,7 +519,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -521,7 +530,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -532,7 +541,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -543,7 +552,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>18</v>
       </c>
@@ -554,7 +563,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>21</v>
       </c>
@@ -565,7 +574,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>24</v>
       </c>
@@ -576,7 +585,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>27</v>
       </c>
@@ -587,7 +596,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>30</v>
       </c>
@@ -598,7 +607,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>34</v>
       </c>
@@ -609,7 +618,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>36</v>
       </c>
@@ -620,7 +629,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>39</v>
       </c>
@@ -629,6 +638,17 @@
       </c>
       <c r="C14" t="s">
         <v>41</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>42</v>
+      </c>
+      <c r="B15" t="s">
+        <v>44</v>
+      </c>
+      <c r="C15" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/localization/Localization.xlsx
+++ b/localization/Localization.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
   <si>
     <t>Key</t>
   </si>
@@ -154,6 +154,51 @@
   </si>
   <si>
     <t>Select a box to open the letters</t>
+  </si>
+  <si>
+    <t>Fr</t>
+  </si>
+  <si>
+    <t>Paramètres</t>
+  </si>
+  <si>
+    <t>Niveau terminé !</t>
+  </si>
+  <si>
+    <t>Connexion en cours…</t>
+  </si>
+  <si>
+    <t>Chargement...</t>
+  </si>
+  <si>
+    <t>Jouer</t>
+  </si>
+  <si>
+    <t>Zone</t>
+  </si>
+  <si>
+    <t>Progrès réalisés dans la région</t>
+  </si>
+  <si>
+    <t>Cour avant</t>
+  </si>
+  <si>
+    <t>Placez les escaliers !</t>
+  </si>
+  <si>
+    <t>Faites-le !</t>
+  </si>
+  <si>
+    <t>Salle de lecture</t>
+  </si>
+  <si>
+    <t>Posez le sol !</t>
+  </si>
+  <si>
+    <t>Quitter</t>
+  </si>
+  <si>
+    <t>Sélectionnez une case pour ouvrir les lettres</t>
   </si>
 </sst>
 </file>
@@ -254,7 +299,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -289,7 +334,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -474,19 +519,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.42578125" customWidth="1"/>
-    <col min="2" max="3" width="24.7109375" customWidth="1"/>
+    <col min="2" max="2" width="32.140625" customWidth="1"/>
+    <col min="3" max="3" width="24.7109375" customWidth="1"/>
+    <col min="4" max="4" width="31.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -496,8 +543,11 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -507,8 +557,11 @@
       <c r="C2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -518,8 +571,11 @@
       <c r="C3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -529,8 +585,11 @@
       <c r="C4" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -540,8 +599,11 @@
       <c r="C5" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -551,8 +613,11 @@
       <c r="C6" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>18</v>
       </c>
@@ -562,8 +627,11 @@
       <c r="C7" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>21</v>
       </c>
@@ -573,8 +641,11 @@
       <c r="C8" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>24</v>
       </c>
@@ -584,8 +655,11 @@
       <c r="C9" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D9" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>27</v>
       </c>
@@ -595,8 +669,11 @@
       <c r="C10" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D10" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>30</v>
       </c>
@@ -606,8 +683,11 @@
       <c r="C11" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D11" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>34</v>
       </c>
@@ -617,8 +697,11 @@
       <c r="C12" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D12" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>36</v>
       </c>
@@ -628,8 +711,11 @@
       <c r="C13" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D13" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>39</v>
       </c>
@@ -639,8 +725,11 @@
       <c r="C14" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D14" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>42</v>
       </c>
@@ -649,6 +738,9 @@
       </c>
       <c r="C15" t="s">
         <v>43</v>
+      </c>
+      <c r="D15" t="s">
+        <v>59</v>
       </c>
     </row>
   </sheetData>

--- a/localization/Localization.xlsx
+++ b/localization/Localization.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="75">
   <si>
     <t>Key</t>
   </si>
@@ -199,6 +199,51 @@
   </si>
   <si>
     <t>Sélectionnez une case pour ouvrir les lettres</t>
+  </si>
+  <si>
+    <t>De</t>
+  </si>
+  <si>
+    <t>Einstellungen</t>
+  </si>
+  <si>
+    <t>Level abgeschlossen!</t>
+  </si>
+  <si>
+    <t>Verbinden...</t>
+  </si>
+  <si>
+    <t>Wird geladen...</t>
+  </si>
+  <si>
+    <t>Spielen</t>
+  </si>
+  <si>
+    <t>Fläche</t>
+  </si>
+  <si>
+    <t>Fortschritt im Bereich</t>
+  </si>
+  <si>
+    <t>Vorgarten</t>
+  </si>
+  <si>
+    <t>Die Treppe aufstellen!</t>
+  </si>
+  <si>
+    <t>Mach es!</t>
+  </si>
+  <si>
+    <t>Lesesaal</t>
+  </si>
+  <si>
+    <t>Verlegen Sie den Boden!</t>
+  </si>
+  <si>
+    <t>Beenden</t>
+  </si>
+  <si>
+    <t>Wählen Sie ein Feld aus, um die Buchstaben zu öffnen.</t>
   </si>
 </sst>
 </file>
@@ -519,10 +564,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -530,10 +575,11 @@
     <col min="1" max="1" width="18.42578125" customWidth="1"/>
     <col min="2" max="2" width="32.140625" customWidth="1"/>
     <col min="3" max="3" width="24.7109375" customWidth="1"/>
-    <col min="4" max="4" width="31.7109375" customWidth="1"/>
+    <col min="4" max="4" width="41.42578125" customWidth="1"/>
+    <col min="5" max="5" width="41.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -546,8 +592,11 @@
       <c r="D1" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -560,8 +609,11 @@
       <c r="D2" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -574,8 +626,11 @@
       <c r="D3" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -588,8 +643,11 @@
       <c r="D4" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -602,8 +660,11 @@
       <c r="D5" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -616,8 +677,11 @@
       <c r="D6" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>18</v>
       </c>
@@ -630,8 +694,11 @@
       <c r="D7" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E7" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>21</v>
       </c>
@@ -644,8 +711,11 @@
       <c r="D8" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>24</v>
       </c>
@@ -658,8 +728,11 @@
       <c r="D9" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E9" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>27</v>
       </c>
@@ -672,8 +745,11 @@
       <c r="D10" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E10" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>30</v>
       </c>
@@ -686,8 +762,11 @@
       <c r="D11" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E11" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>34</v>
       </c>
@@ -700,8 +779,11 @@
       <c r="D12" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E12" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>36</v>
       </c>
@@ -714,8 +796,11 @@
       <c r="D13" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E13" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>39</v>
       </c>
@@ -728,8 +813,11 @@
       <c r="D14" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E14" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>42</v>
       </c>
@@ -741,6 +829,9 @@
       </c>
       <c r="D15" t="s">
         <v>59</v>
+      </c>
+      <c r="E15" t="s">
+        <v>74</v>
       </c>
     </row>
   </sheetData>

--- a/localization/Localization.xlsx
+++ b/localization/Localization.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="80">
   <si>
     <t>Key</t>
   </si>
@@ -244,6 +244,21 @@
   </si>
   <si>
     <t>Wählen Sie ein Feld aus, um die Buchstaben zu öffnen.</t>
+  </si>
+  <si>
+    <t>level</t>
+  </si>
+  <si>
+    <t>Level</t>
+  </si>
+  <si>
+    <t>Seviye</t>
+  </si>
+  <si>
+    <t>Stufe</t>
+  </si>
+  <si>
+    <t>Niveau</t>
   </si>
 </sst>
 </file>
@@ -564,10 +579,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -834,6 +849,23 @@
         <v>74</v>
       </c>
     </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>75</v>
+      </c>
+      <c r="B16" t="s">
+        <v>76</v>
+      </c>
+      <c r="C16" t="s">
+        <v>77</v>
+      </c>
+      <c r="D16" t="s">
+        <v>79</v>
+      </c>
+      <c r="E16" t="s">
+        <v>78</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/localization/Localization.xlsx
+++ b/localization/Localization.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="95">
   <si>
     <t>Key</t>
   </si>
@@ -259,6 +259,51 @@
   </si>
   <si>
     <t>Niveau</t>
+  </si>
+  <si>
+    <t>next</t>
+  </si>
+  <si>
+    <t>previous</t>
+  </si>
+  <si>
+    <t>Previous</t>
+  </si>
+  <si>
+    <t>Önceki</t>
+  </si>
+  <si>
+    <t>Précédent</t>
+  </si>
+  <si>
+    <t>Zurück</t>
+  </si>
+  <si>
+    <t>Sonraki</t>
+  </si>
+  <si>
+    <t>Suivant</t>
+  </si>
+  <si>
+    <t>Nächste</t>
+  </si>
+  <si>
+    <t>Next</t>
+  </si>
+  <si>
+    <t>home</t>
+  </si>
+  <si>
+    <t>Home</t>
+  </si>
+  <si>
+    <t>Ana Sayfa</t>
+  </si>
+  <si>
+    <t>Accueil</t>
+  </si>
+  <si>
+    <t>Startseite</t>
   </si>
 </sst>
 </file>
@@ -579,10 +624,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -866,6 +911,57 @@
         <v>78</v>
       </c>
     </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>80</v>
+      </c>
+      <c r="B17" t="s">
+        <v>89</v>
+      </c>
+      <c r="C17" t="s">
+        <v>86</v>
+      </c>
+      <c r="D17" t="s">
+        <v>87</v>
+      </c>
+      <c r="E17" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>81</v>
+      </c>
+      <c r="B18" t="s">
+        <v>82</v>
+      </c>
+      <c r="C18" t="s">
+        <v>83</v>
+      </c>
+      <c r="D18" t="s">
+        <v>84</v>
+      </c>
+      <c r="E18" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>90</v>
+      </c>
+      <c r="B19" t="s">
+        <v>91</v>
+      </c>
+      <c r="C19" t="s">
+        <v>92</v>
+      </c>
+      <c r="D19" t="s">
+        <v>93</v>
+      </c>
+      <c r="E19" t="s">
+        <v>94</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/localization/Localization.xlsx
+++ b/localization/Localization.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="102">
   <si>
     <t>Key</t>
   </si>
@@ -39,9 +39,6 @@
     <t>level_complete</t>
   </si>
   <si>
-    <t>Level Complete!</t>
-  </si>
-  <si>
     <t>connecting</t>
   </si>
   <si>
@@ -72,9 +69,6 @@
     <t>Ayarlar</t>
   </si>
   <si>
-    <t>Seviye Tamamlandı!</t>
-  </si>
-  <si>
     <t>area</t>
   </si>
   <si>
@@ -162,9 +156,6 @@
     <t>Paramètres</t>
   </si>
   <si>
-    <t>Niveau terminé !</t>
-  </si>
-  <si>
     <t>Connexion en cours…</t>
   </si>
   <si>
@@ -207,9 +198,6 @@
     <t>Einstellungen</t>
   </si>
   <si>
-    <t>Level abgeschlossen!</t>
-  </si>
-  <si>
     <t>Verbinden...</t>
   </si>
   <si>
@@ -304,6 +292,39 @@
   </si>
   <si>
     <t>Startseite</t>
+  </si>
+  <si>
+    <t>Complete!</t>
+  </si>
+  <si>
+    <t>Tamamlandı!</t>
+  </si>
+  <si>
+    <t>Abgeschlossen!</t>
+  </si>
+  <si>
+    <t>Terminé !</t>
+  </si>
+  <si>
+    <t>bonus</t>
+  </si>
+  <si>
+    <t>Bonus</t>
+  </si>
+  <si>
+    <t>tap_to_claim</t>
+  </si>
+  <si>
+    <t>Tıklayın ve Talep Edin</t>
+  </si>
+  <si>
+    <t>Tap To Claim</t>
+  </si>
+  <si>
+    <t>Appuyez pour réclamer</t>
+  </si>
+  <si>
+    <t>Zum Einlösen antippen</t>
   </si>
 </sst>
 </file>
@@ -624,10 +645,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -650,10 +671,10 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -664,13 +685,13 @@
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E2" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -678,288 +699,322 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>91</v>
       </c>
       <c r="C3" t="s">
-        <v>17</v>
+        <v>92</v>
       </c>
       <c r="D3" t="s">
-        <v>47</v>
+        <v>94</v>
       </c>
       <c r="E3" t="s">
-        <v>62</v>
+        <v>93</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
         <v>7</v>
       </c>
-      <c r="B4" t="s">
-        <v>8</v>
-      </c>
       <c r="C4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D4" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="E4" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
         <v>9</v>
       </c>
-      <c r="B5" t="s">
-        <v>10</v>
-      </c>
       <c r="C5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D5" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E5" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
         <v>11</v>
       </c>
-      <c r="B6" t="s">
-        <v>12</v>
-      </c>
       <c r="C6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D6" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E6" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" t="s">
         <v>18</v>
       </c>
-      <c r="B7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" t="s">
-        <v>20</v>
-      </c>
       <c r="D7" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E7" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" t="s">
         <v>21</v>
       </c>
-      <c r="B8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" t="s">
-        <v>23</v>
-      </c>
       <c r="D8" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E8" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
         <v>24</v>
       </c>
-      <c r="B9" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" t="s">
-        <v>26</v>
-      </c>
       <c r="D9" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E9" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" t="s">
         <v>27</v>
       </c>
-      <c r="B10" t="s">
-        <v>28</v>
-      </c>
-      <c r="C10" t="s">
-        <v>29</v>
-      </c>
       <c r="D10" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E10" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" t="s">
         <v>30</v>
       </c>
-      <c r="B11" t="s">
-        <v>31</v>
-      </c>
-      <c r="C11" t="s">
-        <v>32</v>
-      </c>
       <c r="D11" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E11" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B12" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" t="s">
         <v>33</v>
       </c>
-      <c r="C12" t="s">
-        <v>35</v>
-      </c>
       <c r="D12" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E12" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>34</v>
+      </c>
+      <c r="B13" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13" t="s">
         <v>36</v>
       </c>
-      <c r="B13" t="s">
-        <v>37</v>
-      </c>
-      <c r="C13" t="s">
-        <v>38</v>
-      </c>
       <c r="D13" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E13" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>37</v>
+      </c>
+      <c r="B14" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14" t="s">
         <v>39</v>
       </c>
-      <c r="B14" t="s">
-        <v>40</v>
-      </c>
-      <c r="C14" t="s">
-        <v>41</v>
-      </c>
       <c r="D14" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="E14" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>40</v>
+      </c>
+      <c r="B15" t="s">
         <v>42</v>
       </c>
-      <c r="B15" t="s">
-        <v>44</v>
-      </c>
       <c r="C15" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E15" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>71</v>
+      </c>
+      <c r="B16" t="s">
+        <v>72</v>
+      </c>
+      <c r="C16" t="s">
+        <v>73</v>
+      </c>
+      <c r="D16" t="s">
         <v>75</v>
       </c>
-      <c r="B16" t="s">
-        <v>76</v>
-      </c>
-      <c r="C16" t="s">
-        <v>77</v>
-      </c>
-      <c r="D16" t="s">
-        <v>79</v>
-      </c>
       <c r="E16" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B17" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C17" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="D17" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="E17" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
+        <v>77</v>
+      </c>
+      <c r="B18" t="s">
+        <v>78</v>
+      </c>
+      <c r="C18" t="s">
+        <v>79</v>
+      </c>
+      <c r="D18" t="s">
+        <v>80</v>
+      </c>
+      <c r="E18" t="s">
         <v>81</v>
-      </c>
-      <c r="B18" t="s">
-        <v>82</v>
-      </c>
-      <c r="C18" t="s">
-        <v>83</v>
-      </c>
-      <c r="D18" t="s">
-        <v>84</v>
-      </c>
-      <c r="E18" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
+        <v>86</v>
+      </c>
+      <c r="B19" t="s">
+        <v>87</v>
+      </c>
+      <c r="C19" t="s">
+        <v>88</v>
+      </c>
+      <c r="D19" t="s">
+        <v>89</v>
+      </c>
+      <c r="E19" t="s">
         <v>90</v>
       </c>
-      <c r="B19" t="s">
-        <v>91</v>
-      </c>
-      <c r="C19" t="s">
-        <v>92</v>
-      </c>
-      <c r="D19" t="s">
-        <v>93</v>
-      </c>
-      <c r="E19" t="s">
-        <v>94</v>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>95</v>
+      </c>
+      <c r="B20" t="s">
+        <v>96</v>
+      </c>
+      <c r="C20" t="s">
+        <v>96</v>
+      </c>
+      <c r="D20" t="s">
+        <v>96</v>
+      </c>
+      <c r="E20" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>97</v>
+      </c>
+      <c r="B21" t="s">
+        <v>99</v>
+      </c>
+      <c r="C21" t="s">
+        <v>98</v>
+      </c>
+      <c r="D21" t="s">
+        <v>100</v>
+      </c>
+      <c r="E21" t="s">
+        <v>101</v>
       </c>
     </row>
   </sheetData>

--- a/localization/Localization.xlsx
+++ b/localization/Localization.xlsx
@@ -2,24 +2,24 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+  <workbookPr defaultThemeVersion="164011"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HATIPOGLU\Documents\GitHub\word-game-levels\localization\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Sayfa1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="129">
   <si>
     <t>Key</t>
   </si>
@@ -30,43 +30,103 @@
     <t>Tr</t>
   </si>
   <si>
+    <t>Fr</t>
+  </si>
+  <si>
+    <t>De</t>
+  </si>
+  <si>
+    <t>Ru</t>
+  </si>
+  <si>
     <t>settings</t>
   </si>
   <si>
     <t>Settings</t>
   </si>
   <si>
+    <t>Ayarlar</t>
+  </si>
+  <si>
+    <t>Paramètres</t>
+  </si>
+  <si>
+    <t>Einstellungen</t>
+  </si>
+  <si>
+    <t>Настройки</t>
+  </si>
+  <si>
     <t>level_complete</t>
   </si>
   <si>
+    <t>Complete!</t>
+  </si>
+  <si>
+    <t>Tamamlandı!</t>
+  </si>
+  <si>
+    <t>Terminé !</t>
+  </si>
+  <si>
+    <t>Abgeschlossen!</t>
+  </si>
+  <si>
+    <t>Завершено!</t>
+  </si>
+  <si>
     <t>connecting</t>
   </si>
   <si>
     <t>Connecting…</t>
   </si>
   <si>
+    <t>Bağlanıyor…</t>
+  </si>
+  <si>
+    <t>Connexion en cours…</t>
+  </si>
+  <si>
+    <t>Verbinden...</t>
+  </si>
+  <si>
+    <t>Подключение...</t>
+  </si>
+  <si>
     <t>loading</t>
   </si>
   <si>
     <t>Loading...</t>
   </si>
   <si>
+    <t>Yükleniyor...</t>
+  </si>
+  <si>
+    <t>Chargement...</t>
+  </si>
+  <si>
+    <t>Wird geladen...</t>
+  </si>
+  <si>
+    <t>Загрузка...</t>
+  </si>
+  <si>
     <t>play</t>
   </si>
   <si>
     <t>Play</t>
   </si>
   <si>
-    <t>Bağlanıyor…</t>
-  </si>
-  <si>
-    <t>Yükleniyor...</t>
-  </si>
-  <si>
     <t>Başla</t>
   </si>
   <si>
-    <t>Ayarlar</t>
+    <t>Jouer</t>
+  </si>
+  <si>
+    <t>Spielen</t>
+  </si>
+  <si>
+    <t>Играть</t>
   </si>
   <si>
     <t>area</t>
@@ -78,6 +138,15 @@
     <t>Alan</t>
   </si>
   <si>
+    <t>Zone</t>
+  </si>
+  <si>
+    <t>Fläche</t>
+  </si>
+  <si>
+    <t>Область</t>
+  </si>
+  <si>
     <t>area_progress</t>
   </si>
   <si>
@@ -87,6 +156,15 @@
     <t>Alan İlerlemesi</t>
   </si>
   <si>
+    <t>Progrès réalisés dans la région</t>
+  </si>
+  <si>
+    <t>Fortschritt im Bereich</t>
+  </si>
+  <si>
+    <t>Прогресс в области</t>
+  </si>
+  <si>
     <t>frontyard</t>
   </si>
   <si>
@@ -96,6 +174,15 @@
     <t>Ön Bahçe</t>
   </si>
   <si>
+    <t>Cour avant</t>
+  </si>
+  <si>
+    <t>Vorgarten</t>
+  </si>
+  <si>
+    <t>Передний двор</t>
+  </si>
+  <si>
     <t>place_stairs</t>
   </si>
   <si>
@@ -105,6 +192,15 @@
     <t>Merdivenleri yap!</t>
   </si>
   <si>
+    <t>Placez les escaliers !</t>
+  </si>
+  <si>
+    <t>Die Treppe aufstellen!</t>
+  </si>
+  <si>
+    <t>Поставьте лестницу!</t>
+  </si>
+  <si>
     <t>do_it</t>
   </si>
   <si>
@@ -114,15 +210,33 @@
     <t>Yap!</t>
   </si>
   <si>
+    <t>Faites-le !</t>
+  </si>
+  <si>
+    <t>Mach es!</t>
+  </si>
+  <si>
+    <t>Сделай это!</t>
+  </si>
+  <si>
+    <t>reading_room</t>
+  </si>
+  <si>
     <t>Reading Room</t>
   </si>
   <si>
-    <t>reading_room</t>
-  </si>
-  <si>
     <t>Okuma Odası</t>
   </si>
   <si>
+    <t>Salle de lecture</t>
+  </si>
+  <si>
+    <t>Lesesaal</t>
+  </si>
+  <si>
+    <t>Читальный зал</t>
+  </si>
+  <si>
     <t>lay_floor</t>
   </si>
   <si>
@@ -132,6 +246,15 @@
     <t>Zemini döşe!</t>
   </si>
   <si>
+    <t>Posez le sol !</t>
+  </si>
+  <si>
+    <t>Verlegen Sie den Boden!</t>
+  </si>
+  <si>
+    <t>Настелите пол!</t>
+  </si>
+  <si>
     <t>quit</t>
   </si>
   <si>
@@ -141,99 +264,33 @@
     <t>Çıkış</t>
   </si>
   <si>
+    <t>Quitter</t>
+  </si>
+  <si>
+    <t>Beenden</t>
+  </si>
+  <si>
+    <t>Увольнение</t>
+  </si>
+  <si>
     <t>hammer_note</t>
   </si>
   <si>
+    <t>Select a box to open the letters</t>
+  </si>
+  <si>
     <t>Harf açmak için bir kutu seç</t>
   </si>
   <si>
-    <t>Select a box to open the letters</t>
-  </si>
-  <si>
-    <t>Fr</t>
-  </si>
-  <si>
-    <t>Paramètres</t>
-  </si>
-  <si>
-    <t>Connexion en cours…</t>
-  </si>
-  <si>
-    <t>Chargement...</t>
-  </si>
-  <si>
-    <t>Jouer</t>
-  </si>
-  <si>
-    <t>Zone</t>
-  </si>
-  <si>
-    <t>Progrès réalisés dans la région</t>
-  </si>
-  <si>
-    <t>Cour avant</t>
-  </si>
-  <si>
-    <t>Placez les escaliers !</t>
-  </si>
-  <si>
-    <t>Faites-le !</t>
-  </si>
-  <si>
-    <t>Salle de lecture</t>
-  </si>
-  <si>
-    <t>Posez le sol !</t>
-  </si>
-  <si>
-    <t>Quitter</t>
-  </si>
-  <si>
     <t>Sélectionnez une case pour ouvrir les lettres</t>
   </si>
   <si>
-    <t>De</t>
-  </si>
-  <si>
-    <t>Einstellungen</t>
-  </si>
-  <si>
-    <t>Verbinden...</t>
-  </si>
-  <si>
-    <t>Wird geladen...</t>
-  </si>
-  <si>
-    <t>Spielen</t>
-  </si>
-  <si>
-    <t>Fläche</t>
-  </si>
-  <si>
-    <t>Fortschritt im Bereich</t>
-  </si>
-  <si>
-    <t>Vorgarten</t>
-  </si>
-  <si>
-    <t>Die Treppe aufstellen!</t>
-  </si>
-  <si>
-    <t>Mach es!</t>
-  </si>
-  <si>
-    <t>Lesesaal</t>
-  </si>
-  <si>
-    <t>Verlegen Sie den Boden!</t>
-  </si>
-  <si>
-    <t>Beenden</t>
-  </si>
-  <si>
     <t>Wählen Sie ein Feld aus, um die Buchstaben zu öffnen.</t>
   </si>
   <si>
+    <t>Выберите ящик, чтобы открыть письма</t>
+  </si>
+  <si>
     <t>level</t>
   </si>
   <si>
@@ -243,15 +300,33 @@
     <t>Seviye</t>
   </si>
   <si>
+    <t>Niveau</t>
+  </si>
+  <si>
     <t>Stufe</t>
   </si>
   <si>
-    <t>Niveau</t>
+    <t>Уровень</t>
   </si>
   <si>
     <t>next</t>
   </si>
   <si>
+    <t>Next</t>
+  </si>
+  <si>
+    <t>Sonraki</t>
+  </si>
+  <si>
+    <t>Suivant</t>
+  </si>
+  <si>
+    <t>Nächste</t>
+  </si>
+  <si>
+    <t>Следующий</t>
+  </si>
+  <si>
     <t>previous</t>
   </si>
   <si>
@@ -267,16 +342,7 @@
     <t>Zurück</t>
   </si>
   <si>
-    <t>Sonraki</t>
-  </si>
-  <si>
-    <t>Suivant</t>
-  </si>
-  <si>
-    <t>Nächste</t>
-  </si>
-  <si>
-    <t>Next</t>
+    <t>Предыдущий</t>
   </si>
   <si>
     <t>home</t>
@@ -294,16 +360,7 @@
     <t>Startseite</t>
   </si>
   <si>
-    <t>Complete!</t>
-  </si>
-  <si>
-    <t>Tamamlandı!</t>
-  </si>
-  <si>
-    <t>Abgeschlossen!</t>
-  </si>
-  <si>
-    <t>Terminé !</t>
+    <t>Главная</t>
   </si>
   <si>
     <t>bonus</t>
@@ -312,19 +369,43 @@
     <t>Bonus</t>
   </si>
   <si>
+    <t>Бонус</t>
+  </si>
+  <si>
     <t>tap_to_claim</t>
   </si>
   <si>
+    <t>Tap To Claim</t>
+  </si>
+  <si>
     <t>Tıklayın ve Talep Edin</t>
   </si>
   <si>
-    <t>Tap To Claim</t>
-  </si>
-  <si>
     <t>Appuyez pour réclamer</t>
   </si>
   <si>
     <t>Zum Einlösen antippen</t>
+  </si>
+  <si>
+    <t>Нажмите, чтобы заявить о себе</t>
+  </si>
+  <si>
+    <t>claim</t>
+  </si>
+  <si>
+    <t>Claim</t>
+  </si>
+  <si>
+    <t>Réclamation</t>
+  </si>
+  <si>
+    <t>Anspruch</t>
+  </si>
+  <si>
+    <t>Talep Et</t>
+  </si>
+  <si>
+    <t>Претензия</t>
   </si>
 </sst>
 </file>
@@ -645,7 +726,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F21" sqref="F21"/>
@@ -657,10 +738,11 @@
     <col min="2" max="2" width="32.140625" customWidth="1"/>
     <col min="3" max="3" width="24.7109375" customWidth="1"/>
     <col min="4" max="4" width="41.42578125" customWidth="1"/>
-    <col min="5" max="5" width="41.85546875" customWidth="1"/>
+    <col min="5" max="5" width="49.85546875" customWidth="1"/>
+    <col min="6" max="6" width="75.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -671,350 +753,433 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D7" t="s">
+        <v>39</v>
+      </c>
+      <c r="E7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>42</v>
+      </c>
+      <c r="B8" t="s">
         <v>43</v>
       </c>
-      <c r="E1" t="s">
+      <c r="C8" t="s">
+        <v>44</v>
+      </c>
+      <c r="D8" t="s">
+        <v>45</v>
+      </c>
+      <c r="E8" t="s">
+        <v>46</v>
+      </c>
+      <c r="F8" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>48</v>
+      </c>
+      <c r="B9" t="s">
+        <v>49</v>
+      </c>
+      <c r="C9" t="s">
+        <v>50</v>
+      </c>
+      <c r="D9" t="s">
+        <v>51</v>
+      </c>
+      <c r="E9" t="s">
+        <v>52</v>
+      </c>
+      <c r="F9" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>54</v>
+      </c>
+      <c r="B10" t="s">
+        <v>55</v>
+      </c>
+      <c r="C10" t="s">
+        <v>56</v>
+      </c>
+      <c r="D10" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="E10" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="F10" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B11" t="s">
+        <v>61</v>
+      </c>
+      <c r="C11" t="s">
+        <v>62</v>
+      </c>
+      <c r="D11" t="s">
+        <v>63</v>
+      </c>
+      <c r="E11" t="s">
+        <v>64</v>
+      </c>
+      <c r="F11" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>66</v>
+      </c>
+      <c r="B12" t="s">
+        <v>67</v>
+      </c>
+      <c r="C12" t="s">
+        <v>68</v>
+      </c>
+      <c r="D12" t="s">
+        <v>69</v>
+      </c>
+      <c r="E12" t="s">
+        <v>70</v>
+      </c>
+      <c r="F12" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>72</v>
+      </c>
+      <c r="B13" t="s">
+        <v>73</v>
+      </c>
+      <c r="C13" t="s">
+        <v>74</v>
+      </c>
+      <c r="D13" t="s">
+        <v>75</v>
+      </c>
+      <c r="E13" t="s">
+        <v>76</v>
+      </c>
+      <c r="F13" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>78</v>
+      </c>
+      <c r="B14" t="s">
+        <v>79</v>
+      </c>
+      <c r="C14" t="s">
+        <v>80</v>
+      </c>
+      <c r="D14" t="s">
+        <v>81</v>
+      </c>
+      <c r="E14" t="s">
+        <v>82</v>
+      </c>
+      <c r="F14" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>84</v>
+      </c>
+      <c r="B15" t="s">
+        <v>85</v>
+      </c>
+      <c r="C15" t="s">
+        <v>86</v>
+      </c>
+      <c r="D15" t="s">
+        <v>87</v>
+      </c>
+      <c r="E15" t="s">
+        <v>88</v>
+      </c>
+      <c r="F15" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>90</v>
+      </c>
+      <c r="B16" t="s">
         <v>91</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C16" t="s">
         <v>92</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D16" t="s">
+        <v>93</v>
+      </c>
+      <c r="E16" t="s">
         <v>94</v>
       </c>
-      <c r="E3" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" t="s">
-        <v>45</v>
-      </c>
-      <c r="E4" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" t="s">
-        <v>46</v>
-      </c>
-      <c r="E5" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" t="s">
-        <v>47</v>
-      </c>
-      <c r="E6" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" t="s">
-        <v>48</v>
-      </c>
-      <c r="E7" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" t="s">
-        <v>21</v>
-      </c>
-      <c r="D8" t="s">
-        <v>49</v>
-      </c>
-      <c r="E8" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>50</v>
-      </c>
-      <c r="E9" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>25</v>
-      </c>
-      <c r="B10" t="s">
-        <v>26</v>
-      </c>
-      <c r="C10" t="s">
-        <v>27</v>
-      </c>
-      <c r="D10" t="s">
-        <v>51</v>
-      </c>
-      <c r="E10" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B11" t="s">
-        <v>29</v>
-      </c>
-      <c r="C11" t="s">
-        <v>30</v>
-      </c>
-      <c r="D11" t="s">
-        <v>52</v>
-      </c>
-      <c r="E11" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>32</v>
-      </c>
-      <c r="B12" t="s">
-        <v>31</v>
-      </c>
-      <c r="C12" t="s">
-        <v>33</v>
-      </c>
-      <c r="D12" t="s">
-        <v>53</v>
-      </c>
-      <c r="E12" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>34</v>
-      </c>
-      <c r="B13" t="s">
-        <v>35</v>
-      </c>
-      <c r="C13" t="s">
-        <v>36</v>
-      </c>
-      <c r="D13" t="s">
-        <v>54</v>
-      </c>
-      <c r="E13" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>37</v>
-      </c>
-      <c r="B14" t="s">
-        <v>38</v>
-      </c>
-      <c r="C14" t="s">
-        <v>39</v>
-      </c>
-      <c r="D14" t="s">
-        <v>55</v>
-      </c>
-      <c r="E14" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>40</v>
-      </c>
-      <c r="B15" t="s">
-        <v>42</v>
-      </c>
-      <c r="C15" t="s">
-        <v>41</v>
-      </c>
-      <c r="D15" t="s">
-        <v>56</v>
-      </c>
-      <c r="E15" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>71</v>
-      </c>
-      <c r="B16" t="s">
-        <v>72</v>
-      </c>
-      <c r="C16" t="s">
-        <v>73</v>
-      </c>
-      <c r="D16" t="s">
-        <v>75</v>
-      </c>
-      <c r="E16" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F16" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>76</v>
+        <v>96</v>
       </c>
       <c r="B17" t="s">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="C17" t="s">
-        <v>82</v>
+        <v>98</v>
       </c>
       <c r="D17" t="s">
-        <v>83</v>
+        <v>99</v>
       </c>
       <c r="E17" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+      <c r="F17" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>77</v>
+        <v>102</v>
       </c>
       <c r="B18" t="s">
-        <v>78</v>
+        <v>103</v>
       </c>
       <c r="C18" t="s">
-        <v>79</v>
+        <v>104</v>
       </c>
       <c r="D18" t="s">
-        <v>80</v>
+        <v>105</v>
       </c>
       <c r="E18" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+        <v>106</v>
+      </c>
+      <c r="F18" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>86</v>
+        <v>108</v>
       </c>
       <c r="B19" t="s">
-        <v>87</v>
+        <v>109</v>
       </c>
       <c r="C19" t="s">
-        <v>88</v>
+        <v>110</v>
       </c>
       <c r="D19" t="s">
-        <v>89</v>
+        <v>111</v>
       </c>
       <c r="E19" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+        <v>112</v>
+      </c>
+      <c r="F19" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>95</v>
+        <v>114</v>
       </c>
       <c r="B20" t="s">
-        <v>96</v>
+        <v>115</v>
       </c>
       <c r="C20" t="s">
-        <v>96</v>
+        <v>115</v>
       </c>
       <c r="D20" t="s">
-        <v>96</v>
+        <v>115</v>
       </c>
       <c r="E20" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+        <v>115</v>
+      </c>
+      <c r="F20" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>97</v>
+        <v>117</v>
       </c>
       <c r="B21" t="s">
-        <v>99</v>
+        <v>118</v>
       </c>
       <c r="C21" t="s">
-        <v>98</v>
+        <v>119</v>
       </c>
       <c r="D21" t="s">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="E21" t="s">
-        <v>101</v>
+        <v>121</v>
+      </c>
+      <c r="F21" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>123</v>
+      </c>
+      <c r="B22" t="s">
+        <v>124</v>
+      </c>
+      <c r="C22" t="s">
+        <v>127</v>
+      </c>
+      <c r="D22" t="s">
+        <v>125</v>
+      </c>
+      <c r="E22" t="s">
+        <v>126</v>
+      </c>
+      <c r="F22" t="s">
+        <v>128</v>
       </c>
     </row>
   </sheetData>

--- a/localization/Localization.xlsx
+++ b/localization/Localization.xlsx
@@ -393,20 +393,21 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F23"/>
+  <dimension ref="A1:G60"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="C63" sqref="C63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="18.42578125" customWidth="1" min="1" max="1"/>
     <col width="32.140625" customWidth="1" min="2" max="2"/>
-    <col width="24.7109375" customWidth="1" min="3" max="3"/>
+    <col width="37.28515625" customWidth="1" min="3" max="3"/>
     <col width="41.42578125" customWidth="1" min="4" max="4"/>
     <col width="49.85546875" customWidth="1" min="5" max="5"/>
-    <col width="75.5703125" customWidth="1" min="6" max="6"/>
+    <col width="38.28515625" customWidth="1" min="6" max="6"/>
+    <col width="39.140625" customWidth="1" min="7" max="7"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -440,6 +441,11 @@
           <t>Ru</t>
         </is>
       </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>Pt</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -472,6 +478,11 @@
           <t>Настройки</t>
         </is>
       </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Definições</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -491,17 +502,22 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Terminé !</t>
+          <t>Complétez !</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Abgeschlossen!</t>
+          <t>Vollständig!</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
           <t>Завершено!</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Completo!</t>
         </is>
       </c>
     </row>
@@ -523,7 +539,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Connexion en cours…</t>
+          <t>Connexion...</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -534,6 +550,11 @@
       <c r="F4" t="inlineStr">
         <is>
           <t>Подключение...</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Ligar...</t>
         </is>
       </c>
     </row>
@@ -560,12 +581,17 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Wird geladen...</t>
+          <t>Laden...</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
           <t>Загрузка...</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Carregando...</t>
         </is>
       </c>
     </row>
@@ -600,6 +626,11 @@
           <t>Играть</t>
         </is>
       </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Jogar</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -624,12 +655,17 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Fläche</t>
+          <t>Bereich</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
           <t>Область</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Área</t>
         </is>
       </c>
     </row>
@@ -651,81 +687,96 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Progrès réalisés dans la région</t>
+          <t>Progrès dans le domaine</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Fortschritt im Bereich</t>
+          <t>Bereich Fortschritt</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
           <t>Прогресс в области</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Progresso da área</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>frontyard</t>
+          <t>no_thanks</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Front Yard</t>
+          <t>No Thanks</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Ön Bahçe</t>
+          <t>Hayır, teşekkürler.</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Cour avant</t>
+          <t>Pas de remerciement</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Vorgarten</t>
+          <t>Nein Danke</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Передний двор</t>
+          <t>Нет, спасибо</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Não obrigado</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>place_stairs</t>
+          <t>claim</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Place the stairs!</t>
+          <t>Claim</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Merdivenleri yap!</t>
+          <t>Talep Et</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Placez les escaliers !</t>
+          <t>Réclamation</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Die Treppe aufstellen!</t>
+          <t>Anspruch</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Поставьте лестницу!</t>
+          <t>Заявление</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Reclamação</t>
         </is>
       </c>
     </row>
@@ -752,396 +803,1830 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Mach es!</t>
+          <t>Tu es!</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
           <t>Сделай это!</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Faça-o!</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>reading_room</t>
+          <t>tap_to_claim</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Reading Room</t>
+          <t>Tap To Claim</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Okuma Odası</t>
+          <t>Tıklayın ve Talep Edin</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Salle de lecture</t>
+          <t>Tapez pour réclamer</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Lesesaal</t>
+          <t>Tippen Sie zum Beantragen</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Читальный зал</t>
+          <t>Нажмите, чтобы заявить о себе</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Toque para reclamar</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>lay_floor</t>
+          <t>quit</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Lay the floor!</t>
+          <t>Quit</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Zemini döşe!</t>
+          <t>Çıkış</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Posez le sol !</t>
+          <t>Démissionner</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Verlegen Sie den Boden!</t>
+          <t>Beenden Sie</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Настелите пол!</t>
+          <t>Увольнение</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Desistir</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>quit</t>
+          <t>hammer_note</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Quit</t>
+          <t>Select a box to open the letters</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Çıkış</t>
+          <t>Harf açmak için bir kutu seç</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Quitter</t>
+          <t>Sélectionnez une boîte pour ouvrir les lettres</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Beenden</t>
+          <t>Wählen Sie ein Feld, um die Buchstaben zu öffnen</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Увольнение</t>
+          <t>Выберите ящик, чтобы открыть письма</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Selecionar uma caixa para abrir as cartas</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>hammer_note</t>
+          <t>level</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Select a box to open the letters</t>
+          <t>Level</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Harf açmak için bir kutu seç</t>
+          <t>Seviye</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Sélectionnez une case pour ouvrir les lettres</t>
+          <t>Niveau</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Wählen Sie ein Feld aus, um die Buchstaben zu öffnen.</t>
+          <t>Ebene</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Выберите ящик, чтобы открыть письма</t>
+          <t>Уровень</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Nível</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>level</t>
+          <t>next</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Level</t>
+          <t>Next</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Seviye</t>
+          <t>Sonraki</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Niveau</t>
+          <t>Suivant</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Stufe</t>
+          <t>Weiter</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Уровень</t>
+          <t>Следующий</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Seguinte</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>next</t>
+          <t>previous</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Next</t>
+          <t>Previous</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Sonraki</t>
+          <t>Önceki</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Suivant</t>
+          <t>Précédent</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Nächste</t>
+          <t>Vorherige</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Следующий</t>
+          <t>Предыдущий</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>Anterior</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>previous</t>
+          <t>home</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Previous</t>
+          <t>Home</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Önceki</t>
+          <t>Ana Sayfa</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Précédent</t>
+          <t>Accueil</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Zurück</t>
+          <t>Startseite</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Предыдущий</t>
+          <t>Главная</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>Início</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>home</t>
+          <t>bonus</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Home</t>
+          <t>Bonus</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Ana Sayfa</t>
+          <t>Bonus</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Accueil</t>
+          <t>Bonus</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Startseite</t>
+          <t>Bonus</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Главная</t>
+          <t>Бонус</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>Bónus</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>bonus</t>
+          <t>bedroom</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Bonus</t>
+          <t>Bedroom</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Bonus</t>
+          <t>Yatak Odası</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Bonus</t>
+          <t>Chambre à coucher</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Bonus</t>
+          <t>Schlafzimmer</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Бонус</t>
+          <t>Спальня</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>Quarto de dormir</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>tap_to_claim</t>
+          <t>bathroom</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Tap To Claim</t>
+          <t>Bathroom</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Tıklayın ve Talep Edin</t>
+          <t>Banyo</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Appuyez pour réclamer</t>
+          <t>Salle de bains</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Zum Einlösen antippen</t>
+          <t>Badezimmer</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Нажмите, чтобы заявить о себе</t>
+          <t>Ванная комната</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>Casa de banho</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>claim</t>
+          <t>reading_room</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Claim</t>
+          <t>Reading Room</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Talep Et</t>
+          <t>Okuma Odası</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Réclamation</t>
+          <t>Salle de lecture</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Anspruch</t>
+          <t>Lesesaal</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Претензия</t>
+          <t>Читальный зал</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>Sala de leitura</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>no_thanks</t>
+          <t>frontyard</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>No Thanks</t>
+          <t>Front Yard</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Hayır, teşekkürler.</t>
+          <t>Ön Bahçe</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Pas de remerciement</t>
+          <t>Cour avant</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Nein Danke</t>
+          <t>Vorgarten</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Нет, спасибо</t>
+          <t>Передний двор</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>Pátio da frente</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>place_stairs</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Place the stairs</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Merdivenleri yap</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Placer l'escalier</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Platzieren Sie die Treppe</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Установите лестницу</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>Colocar as escadas</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>boy_room</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Boy Room</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Erkek Çocuk Odası</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Chambre de garçon</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Jungenzimmer</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Комната для мальчика</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>Quarto de menino</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>girl_room</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Girl Room</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Kız Çocuk Odası</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Chambre de fille</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Mädchenzimmer</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Комната для девочки</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>Quarto de menina</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>kitchen</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Kitchen</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Mutfak</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Cuisine</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Küche</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Кухня</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>Cozinha</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>laundry</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Laundry</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Çamaşır Odası</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Blanchisserie</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Wäscherei</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Прачечная</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>Lavandaria</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>living_room</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Living Room</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Oturma Odası</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Salle de séjour</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>Wohnbereich</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Гостиная</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>Sala de estar</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>reading_room</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Reading Room</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Okuma Odası</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Salle de lecture</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>Lesesaal</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Читальный зал</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>Sala de leitura</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>study_room</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Study Room</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Çalışma Odası</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Salle d'étude</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>Arbeitszimmer</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Учебный класс</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>Sala de estudo</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>lay_floor</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Lay Floor</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Zemini Döşe</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Plancher de pose</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>Boden verlegen</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Укладка пола</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>Pavimento</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>install_window</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Install Window</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Pencereyi Tak</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Installer une fenêtre</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>Fenster installieren</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Установите окно</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>Instalar a janela</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>arrange_furniture</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Arrange Furniture</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Mobilyaları Diz</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>Disposer des meubles</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>Möbel arrangieren</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>Расставьте мебель</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>Organizar o mobiliário</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>add_bathtub</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Add Bathtub</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Küvet Ekle</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>Ajouter une baignoire</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>Badewanne hinzufügen</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>Добавить ванну</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>Adicionar banheira</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>add_decoration</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Add Decoration</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Dekorasyon Ekle</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>Ajouter une décoration</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>Dekoration hinzufügen</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>Добавить украшение</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>Adicionar decoração</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>place_bed</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Place Bed</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Yatağı Yerleştir</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>Lit d'appoint</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>Ort Bett</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>Место Кровать</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>Local Cama</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>hang_paintings</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Hang Paintings</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Tabloları As</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>Accrocher les peintures</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>Gemälde aufhängen</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>Повесьте картины</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>Pendurar quadros</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>place_pet_food</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Place Pet Food</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Pet Maması Koy</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>Place Pet Food</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>Ort Tiernahrung</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>Корм для домашних животных</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>Place Pet Food</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>place_coffee_table</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Place Coffee Table</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Sehba Koy</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>Table basse Place</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>Platz Couchtisch</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>Кофейный столик</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>Mesa de centro Place</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>paint_floor</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Paint Floor</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Zemini Boya</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>Peinture au sol</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>Boden streichen</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>Малярный пол</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>Piso pintado</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>build_stairs</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Build Stairs</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Merdiven Yap</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>Construire un escalier</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>Treppe bauen</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>Постройте лестницу</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>Construir escadas</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>install_doors_windows</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Install Doors and Windows</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Kapı ve Pencere Tak</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>Installer des portes et des fenêtres</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>Türen und Fenster einbauen</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>Установка дверей и окон</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>Instalar portas e janelas</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>arrange_floor</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Arrange Floor</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>Zemini Düzenle</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>Disposer de l'étage</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>Boden arrangieren</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>Устроить пол</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>Dispor o pavimento</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>place_plants</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Place Plants</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Bitkileri Yerleştir</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>Placer les plantes</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>Ort Pflanzen</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>Разместить растения</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>Colocar plantas</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>place_bookshelf</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Place Bookshelf</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Kitaplığı Koy</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>Place Bookshelf</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>Platz Bücherregal</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>Книжная полка</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>Estante Place</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>place_toys</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Place Toys</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>Oyuncakları Yerleştir</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>Place Toys</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>Platz Spielzeug</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>Место для игрушек</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>Local Brinquedos</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>arrange_books</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Arrange Books</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>Kitapları Diz</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>Classer les livres</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>Bücher ordnen</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>Упорядочить книги</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>Organizar livros</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>scatter_clouds</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Scatter Clouds</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>Bulutları Serp</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>Disperser les nuages</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>Streuwolken</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>Разбросанные облака</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>Dispersão de nuvens</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>scatter_stars</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Scatter Stars</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>Yıldızları Serp</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>Étoiles de dispersion</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>Sterne verstreuen</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>Разбросанные звезды</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>Estrelas de dispersão</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>build_kitchen_counter</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Build Kitchen Counter</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>Tezgahı Yap</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>Construire un comptoir de cuisine</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>Küchentheke bauen</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>Построить кухонную стойку</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>Construir balcão de cozinha</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>place_fridge</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Place Fridge</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>Buzdolabını Yerleştir</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>Placez le réfrigérateur</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>Platz Kühlschrank</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>Место для холодильника</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>Colocar o frigorífico</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>arrange_plates</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Arrange Plates</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>Tabakları Diz</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>Disposer les assiettes</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>Teller anordnen</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>Разложить тарелки</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>Dispor os pratos</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>place_washing_machine</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Place Washing Machine</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>Yıkama Makinesini Yerleştir</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>Place Machine à laver</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>Platz Waschmaschine</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>Место Стиральная машина</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>Local Máquina de lavar roupa</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>place_dryer</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Place Dryer</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>Kurutma Makinesini Yerleştir</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>Place Dryer</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>Ort Trockner</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>Сушилка для белья</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>Local Secador</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>place_shelves</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Place Shelves</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>Rafları Yerleştir</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>Placer des étagères</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>Regale platzieren</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>Поместите полки</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>Colocar prateleiras</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>place_coat_racks</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>Place Coat Racks</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>Askılıkları Koy</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>Placez les porte-manteaux</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>Garderobenständer platzieren</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>Разместите вешалки для одежды</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>Colocar cabides</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>place_ironing_board</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>Place Ironing Board</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>Ütü Masasını Koy</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>Placez la table à repasser</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>Platz Bügelbrett</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>Поместите гладильную доску</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>Colocar a tábua de engomar</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>place_sofas</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>Place Sofas</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>Koltukları Yerleştir</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>Place Sofas</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>Platz Sofas</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>Место диванов</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>Sofás Place</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>place_desk</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>Place Desk</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>Çalışma Masasını Yerleştir</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>Place Desk</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>Platz Schreibtisch</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>Стол</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>Local de trabalho</t>
         </is>
       </c>
     </row>

--- a/localization/Localization.xlsx
+++ b/localization/Localization.xlsx
@@ -393,10 +393,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G60"/>
+  <dimension ref="A1:H60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="C63" sqref="C63"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
@@ -446,6 +446,11 @@
           <t>Pt</t>
         </is>
       </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>Pl</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -483,6 +488,11 @@
           <t>Definições</t>
         </is>
       </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Ustawienia</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -520,6 +530,11 @@
           <t>Completo!</t>
         </is>
       </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Kompletny!</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -557,6 +572,11 @@
           <t>Ligar...</t>
         </is>
       </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Łączenie...</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -594,6 +614,11 @@
           <t>Carregando...</t>
         </is>
       </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Ładowanie...</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -631,6 +656,11 @@
           <t>Jogar</t>
         </is>
       </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Grać</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -668,6 +698,11 @@
           <t>Área</t>
         </is>
       </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Obszar</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -705,6 +740,11 @@
           <t>Progresso da área</t>
         </is>
       </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Postęp w obszarze</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -742,6 +782,11 @@
           <t>Não obrigado</t>
         </is>
       </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Nie, dzięki</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -779,6 +824,11 @@
           <t>Reclamação</t>
         </is>
       </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Roszczenie</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -816,6 +866,11 @@
           <t>Faça-o!</t>
         </is>
       </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Zrób to!</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -853,6 +908,11 @@
           <t>Toque para reclamar</t>
         </is>
       </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Dotknij, aby zgłosić roszczenie</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -890,6 +950,11 @@
           <t>Desistir</t>
         </is>
       </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Odejdź</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -927,6 +992,11 @@
           <t>Selecionar uma caixa para abrir as cartas</t>
         </is>
       </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Wybierz pole, aby otworzyć listy</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -964,6 +1034,11 @@
           <t>Nível</t>
         </is>
       </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Poziom</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1001,6 +1076,11 @@
           <t>Seguinte</t>
         </is>
       </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Następny</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1038,6 +1118,11 @@
           <t>Anterior</t>
         </is>
       </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Poprzedni</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1075,6 +1160,11 @@
           <t>Início</t>
         </is>
       </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Strona główna</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1112,6 +1202,11 @@
           <t>Bónus</t>
         </is>
       </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Bonus</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1149,6 +1244,11 @@
           <t>Quarto de dormir</t>
         </is>
       </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Sypialnia</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1186,6 +1286,11 @@
           <t>Casa de banho</t>
         </is>
       </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>Łazienka</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1223,6 +1328,11 @@
           <t>Sala de leitura</t>
         </is>
       </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>Czytelnia</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1260,6 +1370,11 @@
           <t>Pátio da frente</t>
         </is>
       </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>Front Yard</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1297,6 +1412,11 @@
           <t>Colocar as escadas</t>
         </is>
       </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>Umieść schody</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -1334,6 +1454,11 @@
           <t>Quarto de menino</t>
         </is>
       </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>Pokój chłopca</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1371,6 +1496,11 @@
           <t>Quarto de menina</t>
         </is>
       </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>Pokój dziewczynki</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1408,6 +1538,11 @@
           <t>Cozinha</t>
         </is>
       </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>Kuchnia</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -1445,6 +1580,11 @@
           <t>Lavandaria</t>
         </is>
       </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>Pranie</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -1482,6 +1622,11 @@
           <t>Sala de estar</t>
         </is>
       </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>Pokój dzienny</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -1519,6 +1664,11 @@
           <t>Sala de leitura</t>
         </is>
       </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>Czytelnia</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -1556,6 +1706,11 @@
           <t>Sala de estudo</t>
         </is>
       </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>Pokój do nauki</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -1593,6 +1748,11 @@
           <t>Pavimento</t>
         </is>
       </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>Lay Floor</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -1630,6 +1790,11 @@
           <t>Instalar a janela</t>
         </is>
       </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>Instalacja okna</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -1667,6 +1832,11 @@
           <t>Organizar o mobiliário</t>
         </is>
       </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>Rozmieść meble</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -1704,6 +1874,11 @@
           <t>Adicionar banheira</t>
         </is>
       </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>Dodaj wannę</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -1741,6 +1916,11 @@
           <t>Adicionar decoração</t>
         </is>
       </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>Dodaj dekorację</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -1778,6 +1958,11 @@
           <t>Local Cama</t>
         </is>
       </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>Miejsce Łóżko</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -1815,6 +2000,11 @@
           <t>Pendurar quadros</t>
         </is>
       </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>Wieszanie obrazów</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -1852,6 +2042,11 @@
           <t>Place Pet Food</t>
         </is>
       </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>Umieść karmę dla zwierząt</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -1889,6 +2084,11 @@
           <t>Mesa de centro Place</t>
         </is>
       </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>Stolik kawowy Place</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -1926,6 +2126,11 @@
           <t>Piso pintado</t>
         </is>
       </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>Farba podłogowa</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -1963,6 +2168,11 @@
           <t>Construir escadas</t>
         </is>
       </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>Budowa schodów</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -2000,6 +2210,11 @@
           <t>Instalar portas e janelas</t>
         </is>
       </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>Montaż drzwi i okien</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -2037,6 +2252,11 @@
           <t>Dispor o pavimento</t>
         </is>
       </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>Ułóż podłogę</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -2074,6 +2294,11 @@
           <t>Colocar plantas</t>
         </is>
       </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>Miejsce Rośliny</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -2111,6 +2336,11 @@
           <t>Estante Place</t>
         </is>
       </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>Miejsce Półka na książki</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -2148,6 +2378,11 @@
           <t>Local Brinquedos</t>
         </is>
       </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>Miejsce Zabawki</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -2185,6 +2420,11 @@
           <t>Organizar livros</t>
         </is>
       </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>Układanie książek</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -2222,6 +2462,11 @@
           <t>Dispersão de nuvens</t>
         </is>
       </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>Rozproszone chmury</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -2259,6 +2504,11 @@
           <t>Estrelas de dispersão</t>
         </is>
       </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>Gwiazdy rozproszone</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -2296,6 +2546,11 @@
           <t>Construir balcão de cozinha</t>
         </is>
       </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>Budowa blatu kuchennego</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -2333,6 +2588,11 @@
           <t>Colocar o frigorífico</t>
         </is>
       </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>Miejsce Lodówka</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -2370,6 +2630,11 @@
           <t>Dispor os pratos</t>
         </is>
       </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>Układanie płyt</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -2407,6 +2672,11 @@
           <t>Local Máquina de lavar roupa</t>
         </is>
       </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>Miejsce Pralka</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -2444,6 +2714,11 @@
           <t>Local Secador</t>
         </is>
       </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>Miejsce Suszarka</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -2481,6 +2756,11 @@
           <t>Colocar prateleiras</t>
         </is>
       </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>Umieść półki</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -2518,6 +2798,11 @@
           <t>Colocar cabides</t>
         </is>
       </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>Umieść wieszaki na ubrania</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -2555,6 +2840,11 @@
           <t>Colocar a tábua de engomar</t>
         </is>
       </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>Miejsce na deskę do prasowania</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -2592,6 +2882,11 @@
           <t>Sofás Place</t>
         </is>
       </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>Sofy Place</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -2627,6 +2922,11 @@
       <c r="G60" t="inlineStr">
         <is>
           <t>Local de trabalho</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>Miejsce Biurko</t>
         </is>
       </c>
     </row>

--- a/localization/Localization.xlsx
+++ b/localization/Localization.xlsx
@@ -393,10 +393,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H60"/>
+  <dimension ref="A1:H61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="B63" sqref="B63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
@@ -1389,7 +1389,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Merdivenleri yap</t>
+          <t>Merdivenleri Yap</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -2927,6 +2927,48 @@
       <c r="H60" t="inlineStr">
         <is>
           <t>Miejsce Biurko</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>next_area</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>Next Area</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>Sonraki Bölge</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>Domaine suivant</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>Nächster Bereich</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>Следующая область</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>Próxima área</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>Następny obszar</t>
         </is>
       </c>
     </row>

--- a/localization/Localization.xlsx
+++ b/localization/Localization.xlsx
@@ -393,10 +393,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H61"/>
+  <dimension ref="A1:H63"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="B63" sqref="B63"/>
+      <selection activeCell="A63" sqref="A63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
@@ -2972,6 +2972,90 @@
         </is>
       </c>
     </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>loading_ad</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>Loading Ad</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>Reklam Yükleniyor</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>Chargement de l'annonce</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>Anzeige laden</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>Загрузка объявления</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>Carregando anúncio</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>Ładowanie reklamy</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>ad_not_ready</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>Ad Not Ready</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>Reklam Hazır Değil</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>L'annonce n'est pas prête</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>Anzeige nicht bereit</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>Объявление не готово</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>Anúncio não pronto</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>Reklama nie jest gotowa</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/localization/Localization.xlsx
+++ b/localization/Localization.xlsx
@@ -1494,99 +1494,15 @@
     <t>task_find_words</t>
   </si>
   <si>
-    <t>Find 5 words</t>
-  </si>
-  <si>
-    <t>5 kelime bulun</t>
-  </si>
-  <si>
-    <t>Trouvez 5 mots</t>
-  </si>
-  <si>
-    <t>5 Wörter finden</t>
-  </si>
-  <si>
-    <t>Найдите 5 слов</t>
-  </si>
-  <si>
-    <t>Encontrar 5 palavras</t>
-  </si>
-  <si>
-    <t>Znajdź 5 słów</t>
-  </si>
-  <si>
     <t>task_find_extra</t>
   </si>
   <si>
-    <t>Find 5 extra words</t>
-  </si>
-  <si>
-    <t>Fazladan 5 kelime bulun</t>
-  </si>
-  <si>
-    <t>Trouvez 5 mots supplémentaires</t>
-  </si>
-  <si>
-    <t>5 zusätzliche Wörter finden</t>
-  </si>
-  <si>
-    <t>Найдите 5 лишних слов</t>
-  </si>
-  <si>
-    <t>Encontrar 5 palavras extra</t>
-  </si>
-  <si>
-    <t>Znajdź 5 dodatkowych słów</t>
-  </si>
-  <si>
     <t>task_reveal</t>
   </si>
   <si>
-    <t>Reveal 5 letters</t>
-  </si>
-  <si>
-    <t>5 harfi açığa çıkar</t>
-  </si>
-  <si>
-    <t>Révéler 5 lettres</t>
-  </si>
-  <si>
-    <t>5 Buchstaben aufdecken</t>
-  </si>
-  <si>
-    <t>Откровение 5 букв</t>
-  </si>
-  <si>
-    <t>Revelar 5 letras</t>
-  </si>
-  <si>
-    <t>Ujawnij 5 liter</t>
-  </si>
-  <si>
     <t>task_complete</t>
   </si>
   <si>
-    <t>Complete 5 levels</t>
-  </si>
-  <si>
-    <t>5 seviyeyi tamamlayın</t>
-  </si>
-  <si>
-    <t>Terminer 5 niveaux</t>
-  </si>
-  <si>
-    <t>5 Level abschließen</t>
-  </si>
-  <si>
-    <t>Пройдите 5 уровней</t>
-  </si>
-  <si>
-    <t>Completar 5 níveis</t>
-  </si>
-  <si>
-    <t>Ukończ 5 poziomów</t>
-  </si>
-  <si>
     <t>task_complete_flawless_levels</t>
   </si>
   <si>
@@ -1614,804 +1530,69 @@
     <t>task_find_correct_words_in_a_row</t>
   </si>
   <si>
-    <t>Find 5 correct words in a row</t>
-  </si>
-  <si>
-    <t>Arka arkaya 5 doğru kelime bulun</t>
-  </si>
-  <si>
-    <t>Trouver 5 mots corrects à la suite</t>
-  </si>
-  <si>
-    <t>Finde 5 richtige Wörter in einer Reihe</t>
-  </si>
-  <si>
-    <t>Найдите 5 правильных слов подряд</t>
-  </si>
-  <si>
-    <t>Encontrar 5 palavras corretas numa fila</t>
-  </si>
-  <si>
-    <t>Znajdź 5 poprawnych słów w rzędzie</t>
-  </si>
-  <si>
     <t>task_complete_flawless_levels_in_a_row</t>
   </si>
   <si>
-    <t>Complete 5 flawless levels in a row</t>
-  </si>
-  <si>
-    <t>5 kusursuz seviyeyi arka arkaya tamamlayın</t>
-  </si>
-  <si>
-    <t>Terminer 5 niveaux sans faute d'affilée</t>
-  </si>
-  <si>
-    <t>Schließe 5 fehlerfreie Level in Folge ab</t>
-  </si>
-  <si>
-    <t>Пройдите 5 безупречных уровней подряд</t>
-  </si>
-  <si>
-    <t>Completar 5 níveis sem falhas seguidos</t>
-  </si>
-  <si>
-    <t>Ukończ 5 bezbłędnych poziomów z rzędu</t>
-  </si>
-  <si>
     <t>task_use</t>
   </si>
   <si>
-    <t>Use 5 hints</t>
-  </si>
-  <si>
-    <t>5 ipucu kullanın</t>
-  </si>
-  <si>
-    <t>Utiliser 5 indices</t>
-  </si>
-  <si>
-    <t>5 Hinweise verwenden</t>
-  </si>
-  <si>
-    <t>Используйте 5 подсказок</t>
-  </si>
-  <si>
-    <t>Utilizar 5 dicas</t>
-  </si>
-  <si>
-    <t>Użyj 5 wskazówek</t>
-  </si>
-  <si>
     <t>task_complete_level_without_using_a_hint</t>
   </si>
   <si>
-    <t>Complete 5 level without using a hint</t>
-  </si>
-  <si>
-    <t>İpucu kullanmadan 5 seviyeyi tamamlayın</t>
-  </si>
-  <si>
-    <t>Terminer 5 niveaux sans utiliser d'indice</t>
-  </si>
-  <si>
-    <t>Schließe 5 Level ab, ohne einen Hinweis zu benutzen</t>
-  </si>
-  <si>
-    <t>Пройдите 5 уровней без использования подсказок</t>
-  </si>
-  <si>
-    <t>Completar 5 níveis sem utilizar uma pista</t>
-  </si>
-  <si>
-    <t>Ukończ 5 poziomów bez korzystania z podpowiedzi</t>
-  </si>
-  <si>
-    <t>Earn 5 gold</t>
-  </si>
-  <si>
-    <t>5 altın kazanın</t>
-  </si>
-  <si>
-    <t>Gagner 5 pièces d'or</t>
-  </si>
-  <si>
-    <t>Verdiene 5 Gold</t>
-  </si>
-  <si>
-    <t>Заработать 5 золотых</t>
-  </si>
-  <si>
-    <t>Ganhar 5 de ouro</t>
-  </si>
-  <si>
-    <t>Zdobądź 5 sztuk złota</t>
-  </si>
-  <si>
-    <t>Spend 5 gold</t>
-  </si>
-  <si>
-    <t>5 altın harcayın</t>
-  </si>
-  <si>
-    <t>Dépenser 5 pièces d'or</t>
-  </si>
-  <si>
-    <t>5 Gold ausgeben</t>
-  </si>
-  <si>
-    <t>Потратьте 5 золотых</t>
-  </si>
-  <si>
-    <t>Gastar 5 ouro</t>
-  </si>
-  <si>
-    <t>Wydaj 5 sztuk złota</t>
-  </si>
-  <si>
-    <t>Earn 5 energy</t>
-  </si>
-  <si>
-    <t>5 enerji kazanın</t>
-  </si>
-  <si>
-    <t>Gagnez 5 euros d'énergie</t>
-  </si>
-  <si>
-    <t>5 Energie verdienen</t>
-  </si>
-  <si>
-    <t>Заработать 5 энергии</t>
-  </si>
-  <si>
-    <t>Ganhar 5 de energia</t>
-  </si>
-  <si>
-    <t>Zdobądź 5 energii</t>
-  </si>
-  <si>
-    <t>Spend 5 energy</t>
-  </si>
-  <si>
-    <t>5 enerji harcayın</t>
-  </si>
-  <si>
-    <t>Dépenser 5 énergies</t>
-  </si>
-  <si>
-    <t>5 Energie ausgeben</t>
-  </si>
-  <si>
-    <t>Потратьте 5 энергии</t>
-  </si>
-  <si>
-    <t>Gastar 5 de energia</t>
-  </si>
-  <si>
-    <t>Wydać 5 energii</t>
-  </si>
-  <si>
-    <t>Collect 5 keys</t>
-  </si>
-  <si>
-    <t>5 anahtar toplayın</t>
-  </si>
-  <si>
-    <t>Collecter 5 clés</t>
-  </si>
-  <si>
-    <t>5 Schlüssel sammeln</t>
-  </si>
-  <si>
-    <t>Соберите 5 ключей</t>
-  </si>
-  <si>
-    <t>Recolher 5 chaves</t>
-  </si>
-  <si>
-    <t>Zbierz 5 kluczy</t>
-  </si>
-  <si>
-    <t>Open 5 chests</t>
-  </si>
-  <si>
-    <t>5 sandık aç</t>
-  </si>
-  <si>
-    <t>Ouvrir 5 coffres</t>
-  </si>
-  <si>
-    <t>5 Truhen öffnen</t>
-  </si>
-  <si>
-    <t>Откройте 5 сундуков</t>
-  </si>
-  <si>
-    <t>Abrir 5 baús</t>
-  </si>
-  <si>
-    <t>Otwórz 5 skrzyń</t>
-  </si>
-  <si>
     <t>task_open_premium_chests</t>
   </si>
   <si>
-    <t>Open 5 premium chests</t>
-  </si>
-  <si>
-    <t>5 premium sandığı açın</t>
-  </si>
-  <si>
-    <t>Ouvrez 5 coffres à primes</t>
-  </si>
-  <si>
-    <t>5 Prämientruhen öffnen</t>
-  </si>
-  <si>
-    <t>Откройте 5 премиальных сундуков</t>
-  </si>
-  <si>
-    <t>Abrir 5 baús de prémio</t>
-  </si>
-  <si>
-    <t>Otwórz 5 skrzyń premium</t>
-  </si>
-  <si>
-    <t>Complete 5 rooms</t>
-  </si>
-  <si>
-    <t>5 odayı tamamlayın</t>
-  </si>
-  <si>
-    <t>Compléter 5 pièces</t>
-  </si>
-  <si>
-    <t>5 Räume vervollständigen</t>
-  </si>
-  <si>
-    <t>Завершите 5 комнат</t>
-  </si>
-  <si>
-    <t>Completar 5 quartos</t>
-  </si>
-  <si>
-    <t>Ukończono 5 pokoi</t>
-  </si>
-  <si>
     <t>task_place_furniture_items</t>
   </si>
   <si>
-    <t>Place 5 furniture items</t>
-  </si>
-  <si>
-    <t>5 mobilya öğesi yerleştirin</t>
-  </si>
-  <si>
-    <t>Placer 5 meubles</t>
-  </si>
-  <si>
-    <t>5 Möbelstücke platzieren</t>
-  </si>
-  <si>
-    <t>Разместите 5 предметов мебели</t>
-  </si>
-  <si>
-    <t>Colocar 5 peças de mobiliário</t>
-  </si>
-  <si>
-    <t>Umieść 5 mebli</t>
-  </si>
-  <si>
     <t>task_add_decoration_objects</t>
   </si>
   <si>
-    <t>Add 5 decoration objects</t>
-  </si>
-  <si>
-    <t>5 dekorasyon nesnesi ekleyin</t>
-  </si>
-  <si>
-    <t>Ajouter 5 objets de décoration</t>
-  </si>
-  <si>
-    <t>5 Dekorationsobjekte hinzufügen</t>
-  </si>
-  <si>
-    <t>Добавьте 5 предметов декора</t>
-  </si>
-  <si>
-    <t>Adicionar 5 objectos de decoração</t>
-  </si>
-  <si>
-    <t>Dodaj 5 obiektów dekoracyjnych</t>
-  </si>
-  <si>
-    <t>Earn 5 stars</t>
-  </si>
-  <si>
-    <t>5 yıldız kazanın</t>
-  </si>
-  <si>
-    <t>Gagner 5 étoiles</t>
-  </si>
-  <si>
-    <t>5 Sterne verdienen</t>
-  </si>
-  <si>
-    <t>Заработайте 5 звезд</t>
-  </si>
-  <si>
-    <t>Ganhar 5 estrelas</t>
-  </si>
-  <si>
-    <t>Zdobądź 5 gwiazdek</t>
-  </si>
-  <si>
     <t>task_log_in_for_days</t>
   </si>
   <si>
-    <t>Log in for 5 days</t>
-  </si>
-  <si>
-    <t>5 gün boyunca oturum açın</t>
-  </si>
-  <si>
-    <t>Se connecter pendant 5 jours</t>
-  </si>
-  <si>
-    <t>Anmeldung für 5 Tage</t>
-  </si>
-  <si>
-    <t>Войдите в систему на 5 дней</t>
-  </si>
-  <si>
-    <t>Iniciar sessão durante 5 dias</t>
-  </si>
-  <si>
-    <t>Zaloguj się na 5 dni</t>
-  </si>
-  <si>
-    <t>Invite 5 friends</t>
-  </si>
-  <si>
-    <t>5 arkadaşınızı davet edin</t>
-  </si>
-  <si>
-    <t>Inviter 5 amis</t>
-  </si>
-  <si>
-    <t>5 Freunde einladen</t>
-  </si>
-  <si>
-    <t>Пригласите 5 друзей</t>
-  </si>
-  <si>
-    <t>Convidar 5 amigos</t>
-  </si>
-  <si>
-    <t>Zaproś 5 znajomych</t>
-  </si>
-  <si>
     <t>task_share</t>
   </si>
   <si>
-    <t>Share 5 scores</t>
-  </si>
-  <si>
-    <t>5 skoru paylaşın</t>
-  </si>
-  <si>
-    <t>Partager 5 notes</t>
-  </si>
-  <si>
-    <t>Teilen Sie 5 Partituren</t>
-  </si>
-  <si>
-    <t>Поделиться 5 баллов</t>
-  </si>
-  <si>
-    <t>Partilhar 5 resultados</t>
-  </si>
-  <si>
-    <t>Udostępnij 5 wyników</t>
-  </si>
-  <si>
-    <t>Spin the slot 5 times</t>
-  </si>
-  <si>
-    <t>Slotu 5 kez döndürün</t>
-  </si>
-  <si>
-    <t>Faire tourner la machine à sous 5 fois</t>
-  </si>
-  <si>
-    <t>Drehen Sie den Schlitz 5 Mal</t>
-  </si>
-  <si>
-    <t>Вращайте слот 5 раз</t>
-  </si>
-  <si>
-    <t>Rodar a slot 5 vezes</t>
-  </si>
-  <si>
-    <t>Zakręć slotem 5 razy</t>
-  </si>
-  <si>
     <t>task_earn_rewards_from_the_slot</t>
   </si>
   <si>
-    <t>Earn 5 rewards from the slot</t>
-  </si>
-  <si>
-    <t>Slottan 5 ödül kazanın</t>
-  </si>
-  <si>
-    <t>Gagnez 5 récompenses grâce à la machine à sous</t>
-  </si>
-  <si>
-    <t>Verdiene 5 Belohnungen am Spielautomaten</t>
-  </si>
-  <si>
-    <t>Заработайте 5 вознаграждений от слота</t>
-  </si>
-  <si>
-    <t>Ganhar 5 prémios na slot</t>
-  </si>
-  <si>
-    <t>Zdobądź 5 nagród z automatu</t>
-  </si>
-  <si>
-    <t>Throw 5 darts</t>
-  </si>
-  <si>
-    <t>5 dart atın</t>
-  </si>
-  <si>
-    <t>Lancer 5 fléchettes</t>
-  </si>
-  <si>
-    <t>Wirf 5 Darts</t>
-  </si>
-  <si>
-    <t>Бросьте 5 дротиков</t>
-  </si>
-  <si>
-    <t>Atirar 5 dardos</t>
-  </si>
-  <si>
-    <t>Rzut 5 rzutkami</t>
-  </si>
-  <si>
     <t>task_earn_rewards_from_darts</t>
   </si>
   <si>
-    <t>Earn 5 rewards from darts</t>
-  </si>
-  <si>
-    <t>Darttan 5 ödül kazanın</t>
-  </si>
-  <si>
-    <t>Obtenez 5 récompenses grâce aux fléchettes</t>
-  </si>
-  <si>
-    <t>Verdiene 5 Belohnungen mit Darts</t>
-  </si>
-  <si>
-    <t>Заработайте 5 наград в дартсе</t>
-  </si>
-  <si>
-    <t>Ganhar 5 recompensas com dardos</t>
-  </si>
-  <si>
-    <t>Zdobądź 5 nagród za rzutki</t>
-  </si>
-  <si>
     <t>task_hit_consecutive_shots_in_darts</t>
   </si>
   <si>
-    <t>Hit 5 consecutive shots in darts</t>
-  </si>
-  <si>
-    <t>Dartta art arda 5 atış yapmak</t>
-  </si>
-  <si>
-    <t>Réussir 5 tirs consécutifs aux fléchettes</t>
-  </si>
-  <si>
-    <t>5 aufeinanderfolgende Schüsse im Darts treffen</t>
-  </si>
-  <si>
-    <t>Попадите 5 раз подряд в дартс</t>
-  </si>
-  <si>
-    <t>Acertar 5 tiros consecutivos em dardos</t>
-  </si>
-  <si>
-    <t>Trafienie 5 kolejnych strzałów w rzutki</t>
-  </si>
-  <si>
     <t>task_spin_the_wheel_times</t>
   </si>
   <si>
-    <t>Spin the wheel 5 times</t>
-  </si>
-  <si>
-    <t>Çarkı 5 kez çevirin</t>
-  </si>
-  <si>
-    <t>Faire tourner la roue 5 fois</t>
-  </si>
-  <si>
-    <t>Drehen Sie das Rad 5 Mal</t>
-  </si>
-  <si>
-    <t>Вращайте колесо 5 раз</t>
-  </si>
-  <si>
-    <t>Girar a roda 5 vezes</t>
-  </si>
-  <si>
-    <t>Zakręć kołem 5 razy</t>
-  </si>
-  <si>
     <t>task_earn_rewards_from_the_wheel</t>
   </si>
   <si>
-    <t>Earn 5 rewards from the wheel</t>
-  </si>
-  <si>
-    <t>Çarktan 5 ödül kazanın</t>
-  </si>
-  <si>
-    <t>Obtenez 5 récompenses grâce à la roue</t>
-  </si>
-  <si>
-    <t>Verdiene 5 Belohnungen mit dem Rad</t>
-  </si>
-  <si>
-    <t>Заработайте 5 вознаграждений на колесе</t>
-  </si>
-  <si>
-    <t>Ganhar 5 prémios da roda</t>
-  </si>
-  <si>
-    <t>Zdobądź 5 nagród z koła</t>
-  </si>
-  <si>
     <t>task_complete_mini_games</t>
   </si>
   <si>
-    <t>Complete 5 mini games</t>
-  </si>
-  <si>
-    <t>5 mini oyunu tamamlayın</t>
-  </si>
-  <si>
-    <t>Terminez 5 mini-jeux</t>
-  </si>
-  <si>
-    <t>Schließe 5 Minispiele ab</t>
-  </si>
-  <si>
-    <t>Пройдите 5 мини-игр</t>
-  </si>
-  <si>
-    <t>Completar 5 minijogos</t>
-  </si>
-  <si>
-    <t>Ukończ 5 minigier</t>
-  </si>
-  <si>
     <t>task_spend_mini_game_tokens</t>
   </si>
   <si>
-    <t>Spend 5 mini game tokens</t>
-  </si>
-  <si>
-    <t>5 mini oyun jetonu harcayın</t>
-  </si>
-  <si>
-    <t>Dépenser 5 jetons de mini-jeu</t>
-  </si>
-  <si>
-    <t>5 Minispielmarken ausgeben</t>
-  </si>
-  <si>
-    <t>Потратьте 5 жетонов мини-игр</t>
-  </si>
-  <si>
-    <t>Gastar 5 fichas de minijogos</t>
-  </si>
-  <si>
-    <t>Wydaj 5 żetonów minigry</t>
-  </si>
-  <si>
     <t>task_earn_rewards_from_mini_games</t>
   </si>
   <si>
-    <t>Earn 5 rewards from mini games</t>
-  </si>
-  <si>
-    <t>Mini oyunlardan 5 ödül kazanın</t>
-  </si>
-  <si>
-    <t>Gagnez 5 récompenses grâce aux mini-jeux</t>
-  </si>
-  <si>
-    <t>Verdiene 5 Belohnungen aus Minispielen</t>
-  </si>
-  <si>
-    <t>Заработайте 5 наград в мини-играх</t>
-  </si>
-  <si>
-    <t>Ganhe 5 recompensas de mini-jogos</t>
-  </si>
-  <si>
-    <t>Zdobądź 5 nagród w minigrach</t>
-  </si>
-  <si>
     <t>task_claim_daily_reward_times</t>
   </si>
   <si>
-    <t>Claim daily reward 5 times</t>
-  </si>
-  <si>
-    <t>Günlük ödülü 5 kez talep edin</t>
-  </si>
-  <si>
-    <t>Réclamer 5 fois la récompense quotidienne</t>
-  </si>
-  <si>
-    <t>Tägliche Belohnung 5 Mal beanspruchen</t>
-  </si>
-  <si>
-    <t>Получите ежедневное вознаграждение 5 раз</t>
-  </si>
-  <si>
-    <t>Pedir recompensa diária 5 vezes</t>
-  </si>
-  <si>
-    <t>Odbierz nagrodę dzienną 5 razy</t>
-  </si>
-  <si>
     <t>task_claim_weekly_reward_times</t>
   </si>
   <si>
-    <t>Claim weekly reward 5 times</t>
-  </si>
-  <si>
-    <t>Haftalık ödülü 5 kez talep edin</t>
-  </si>
-  <si>
-    <t>Réclamer 5 fois la récompense hebdomadaire</t>
-  </si>
-  <si>
-    <t>Wöchentliche Belohnung 5 Mal beanspruchen</t>
-  </si>
-  <si>
-    <t>Получите еженедельное вознаграждение 5 раз</t>
-  </si>
-  <si>
-    <t>Pedir recompensa semanal 5 vezes</t>
-  </si>
-  <si>
-    <t>Odbierz nagrodę tygodniową 5 razy</t>
-  </si>
-  <si>
     <t>task_claim_hourly_reward_times</t>
   </si>
   <si>
-    <t>Claim hourly reward 5 times</t>
-  </si>
-  <si>
-    <t>Saatlik ödülü 5 kez talep edin</t>
-  </si>
-  <si>
-    <t>Réclamer la récompense horaire 5 fois</t>
-  </si>
-  <si>
-    <t>5 Mal stündliche Belohnung beanspruchen</t>
-  </si>
-  <si>
-    <t>Получите почасовую награду 5 раз</t>
-  </si>
-  <si>
-    <t>Reivindicar a recompensa horária 5 vezes</t>
-  </si>
-  <si>
-    <t>Odbierz nagrodę godzinową 5 razy</t>
-  </si>
-  <si>
     <t>task_open_different_types_of_chests</t>
   </si>
   <si>
-    <t>Open 5 different types of chests</t>
-  </si>
-  <si>
-    <t>5 farklı türde sandık açın</t>
-  </si>
-  <si>
-    <t>Ouvrez 5 types de coffres différents</t>
-  </si>
-  <si>
-    <t>Öffne 5 verschiedene Arten von Truhen</t>
-  </si>
-  <si>
-    <t>Откройте 5 различных типов сундуков</t>
-  </si>
-  <si>
-    <t>Abra 5 tipos diferentes de baús</t>
-  </si>
-  <si>
-    <t>Otwórz 5 różnych rodzajów skrzyń</t>
-  </si>
-  <si>
     <t>task_play_different_mini_games</t>
   </si>
   <si>
-    <t>Play 5 different mini games</t>
-  </si>
-  <si>
-    <t>5 farklı mini oyun oynayın</t>
-  </si>
-  <si>
-    <t>Jouez à 5 mini-jeux différents</t>
-  </si>
-  <si>
-    <t>Spiele 5 verschiedene Minispiele</t>
-  </si>
-  <si>
-    <t>Играйте в 5 различных мини-игр</t>
-  </si>
-  <si>
-    <t>Joga 5 mini-jogos diferentes</t>
-  </si>
-  <si>
-    <t>Zagraj w 5 różnych minigier</t>
-  </si>
-  <si>
-    <t>Complete 5 tasks</t>
-  </si>
-  <si>
-    <t>5 görevi tamamlayın</t>
-  </si>
-  <si>
-    <t>Effectuer 5 tâches</t>
-  </si>
-  <si>
-    <t>5 Aufgaben erledigen</t>
-  </si>
-  <si>
-    <t>Выполните 5 заданий</t>
-  </si>
-  <si>
-    <t>Completar 5 tarefas</t>
-  </si>
-  <si>
-    <t>Ukończ 5 zadań</t>
-  </si>
-  <si>
-    <t>Spend 5 stars for rooms</t>
-  </si>
-  <si>
-    <t>Odalar için 5 yıldız harcayın</t>
-  </si>
-  <si>
-    <t>Dépenser 5 étoiles pour les chambres</t>
-  </si>
-  <si>
-    <t>Geben Sie 5 Sterne für Zimmer aus</t>
-  </si>
-  <si>
-    <t>Потратьте 5 звезд на номера</t>
-  </si>
-  <si>
-    <t>Gastar 5 estrelas nos quartos</t>
-  </si>
-  <si>
-    <t>Wydać 5 gwiazdek na pokoje</t>
-  </si>
-  <si>
     <t>task_earn_gold</t>
   </si>
   <si>
@@ -2449,6 +1630,825 @@
   </si>
   <si>
     <t>task_spend_stars</t>
+  </si>
+  <si>
+    <t>Find * words</t>
+  </si>
+  <si>
+    <t>* kelime bulun</t>
+  </si>
+  <si>
+    <t>Trouvez * mots</t>
+  </si>
+  <si>
+    <t>* Wörter finden</t>
+  </si>
+  <si>
+    <t>Найдите * слов</t>
+  </si>
+  <si>
+    <t>Encontrar * palavras</t>
+  </si>
+  <si>
+    <t>Znajdź * słów</t>
+  </si>
+  <si>
+    <t>Find * extra words</t>
+  </si>
+  <si>
+    <t>Fazladan * kelime bulun</t>
+  </si>
+  <si>
+    <t>Trouvez * mots supplémentaires</t>
+  </si>
+  <si>
+    <t>* zusätzliche Wörter finden</t>
+  </si>
+  <si>
+    <t>Найдите * лишних слов</t>
+  </si>
+  <si>
+    <t>Encontrar * palavras extra</t>
+  </si>
+  <si>
+    <t>Znajdź * dodatkowych słów</t>
+  </si>
+  <si>
+    <t>Reveal * letters</t>
+  </si>
+  <si>
+    <t>* harfi açığa çıkar</t>
+  </si>
+  <si>
+    <t>Révéler * lettres</t>
+  </si>
+  <si>
+    <t>* Buchstaben aufdecken</t>
+  </si>
+  <si>
+    <t>Откровение * букв</t>
+  </si>
+  <si>
+    <t>Revelar * letras</t>
+  </si>
+  <si>
+    <t>Ujawnij * liter</t>
+  </si>
+  <si>
+    <t>Complete * levels</t>
+  </si>
+  <si>
+    <t>* seviyeyi tamamlayın</t>
+  </si>
+  <si>
+    <t>Terminer * niveaux</t>
+  </si>
+  <si>
+    <t>* Level abschließen</t>
+  </si>
+  <si>
+    <t>Пройдите * уровней</t>
+  </si>
+  <si>
+    <t>Completar * níveis</t>
+  </si>
+  <si>
+    <t>Ukończ * poziomów</t>
+  </si>
+  <si>
+    <t>Find * correct words in a row</t>
+  </si>
+  <si>
+    <t>Arka arkaya * doğru kelime bulun</t>
+  </si>
+  <si>
+    <t>Trouver * mots corrects à la suite</t>
+  </si>
+  <si>
+    <t>Finde * richtige Wörter in einer Reihe</t>
+  </si>
+  <si>
+    <t>Найдите * правильных слов подряд</t>
+  </si>
+  <si>
+    <t>Encontrar * palavras corretas numa fila</t>
+  </si>
+  <si>
+    <t>Znajdź * poprawnych słów w rzędzie</t>
+  </si>
+  <si>
+    <t>Complete * flawless levels in a row</t>
+  </si>
+  <si>
+    <t>* kusursuz seviyeyi arka arkaya tamamlayın</t>
+  </si>
+  <si>
+    <t>Terminer * niveaux sans faute d'affilée</t>
+  </si>
+  <si>
+    <t>Schließe * fehlerfreie Level in Folge ab</t>
+  </si>
+  <si>
+    <t>Пройдите * безупречных уровней подряд</t>
+  </si>
+  <si>
+    <t>Completar * níveis sem falhas seguidos</t>
+  </si>
+  <si>
+    <t>Ukończ * bezbłędnych poziomów z rzędu</t>
+  </si>
+  <si>
+    <t>Use * hints</t>
+  </si>
+  <si>
+    <t>* ipucu kullanın</t>
+  </si>
+  <si>
+    <t>Utiliser * indices</t>
+  </si>
+  <si>
+    <t>* Hinweise verwenden</t>
+  </si>
+  <si>
+    <t>Используйте * подсказок</t>
+  </si>
+  <si>
+    <t>Utilizar * dicas</t>
+  </si>
+  <si>
+    <t>Użyj * wskazówek</t>
+  </si>
+  <si>
+    <t>Complete * level without using a hint</t>
+  </si>
+  <si>
+    <t>İpucu kullanmadan * seviyeyi tamamlayın</t>
+  </si>
+  <si>
+    <t>Terminer * niveaux sans utiliser d'indice</t>
+  </si>
+  <si>
+    <t>Schließe * Level ab, ohne einen Hinweis zu benutzen</t>
+  </si>
+  <si>
+    <t>Пройдите * уровней без использования подсказок</t>
+  </si>
+  <si>
+    <t>Completar * níveis sem utilizar uma pista</t>
+  </si>
+  <si>
+    <t>Ukończ * poziomów bez korzystania z podpowiedzi</t>
+  </si>
+  <si>
+    <t>Earn * gold</t>
+  </si>
+  <si>
+    <t>* altın kazanın</t>
+  </si>
+  <si>
+    <t>Gagner * pièces d'or</t>
+  </si>
+  <si>
+    <t>Verdiene * Gold</t>
+  </si>
+  <si>
+    <t>Заработать * золотых</t>
+  </si>
+  <si>
+    <t>Ganhar * de ouro</t>
+  </si>
+  <si>
+    <t>Zdobądź * sztuk złota</t>
+  </si>
+  <si>
+    <t>Spend * gold</t>
+  </si>
+  <si>
+    <t>* altın harcayın</t>
+  </si>
+  <si>
+    <t>Dépenser * pièces d'or</t>
+  </si>
+  <si>
+    <t>* Gold ausgeben</t>
+  </si>
+  <si>
+    <t>Потратьте * золотых</t>
+  </si>
+  <si>
+    <t>Gastar * ouro</t>
+  </si>
+  <si>
+    <t>Wydaj * sztuk złota</t>
+  </si>
+  <si>
+    <t>Earn * energy</t>
+  </si>
+  <si>
+    <t>* enerji kazanın</t>
+  </si>
+  <si>
+    <t>Gagnez * euros d'énergie</t>
+  </si>
+  <si>
+    <t>* Energie verdienen</t>
+  </si>
+  <si>
+    <t>Заработать * энергии</t>
+  </si>
+  <si>
+    <t>Ganhar * de energia</t>
+  </si>
+  <si>
+    <t>Zdobądź * energii</t>
+  </si>
+  <si>
+    <t>Spend * energy</t>
+  </si>
+  <si>
+    <t>* enerji harcayın</t>
+  </si>
+  <si>
+    <t>Dépenser * énergies</t>
+  </si>
+  <si>
+    <t>* Energie ausgeben</t>
+  </si>
+  <si>
+    <t>Потратьте * энергии</t>
+  </si>
+  <si>
+    <t>Gastar * de energia</t>
+  </si>
+  <si>
+    <t>Wydać * energii</t>
+  </si>
+  <si>
+    <t>Collect * keys</t>
+  </si>
+  <si>
+    <t>* anahtar toplayın</t>
+  </si>
+  <si>
+    <t>Collecter * clés</t>
+  </si>
+  <si>
+    <t>* Schlüssel sammeln</t>
+  </si>
+  <si>
+    <t>Соберите * ключей</t>
+  </si>
+  <si>
+    <t>Recolher * chaves</t>
+  </si>
+  <si>
+    <t>Zbierz * kluczy</t>
+  </si>
+  <si>
+    <t>Open * chests</t>
+  </si>
+  <si>
+    <t>* sandık aç</t>
+  </si>
+  <si>
+    <t>Ouvrir * coffres</t>
+  </si>
+  <si>
+    <t>* Truhen öffnen</t>
+  </si>
+  <si>
+    <t>Откройте * сундуков</t>
+  </si>
+  <si>
+    <t>Abrir * baús</t>
+  </si>
+  <si>
+    <t>Otwórz * skrzyń</t>
+  </si>
+  <si>
+    <t>Open * premium chests</t>
+  </si>
+  <si>
+    <t>* premium sandığı açın</t>
+  </si>
+  <si>
+    <t>Ouvrez * coffres à primes</t>
+  </si>
+  <si>
+    <t>* Prämientruhen öffnen</t>
+  </si>
+  <si>
+    <t>Откройте * премиальных сундуков</t>
+  </si>
+  <si>
+    <t>Abrir * baús de prémio</t>
+  </si>
+  <si>
+    <t>Otwórz * skrzyń premium</t>
+  </si>
+  <si>
+    <t>Complete * rooms</t>
+  </si>
+  <si>
+    <t>* odayı tamamlayın</t>
+  </si>
+  <si>
+    <t>Compléter * pièces</t>
+  </si>
+  <si>
+    <t>* Räume vervollständigen</t>
+  </si>
+  <si>
+    <t>Завершите * комнат</t>
+  </si>
+  <si>
+    <t>Completar * quartos</t>
+  </si>
+  <si>
+    <t>Ukończono * pokoi</t>
+  </si>
+  <si>
+    <t>Place * furniture items</t>
+  </si>
+  <si>
+    <t>* mobilya öğesi yerleştirin</t>
+  </si>
+  <si>
+    <t>Placer * meubles</t>
+  </si>
+  <si>
+    <t>* Möbelstücke platzieren</t>
+  </si>
+  <si>
+    <t>Разместите * предметов мебели</t>
+  </si>
+  <si>
+    <t>Colocar * peças de mobiliário</t>
+  </si>
+  <si>
+    <t>Umieść * mebli</t>
+  </si>
+  <si>
+    <t>Add * decoration objects</t>
+  </si>
+  <si>
+    <t>* dekorasyon nesnesi ekleyin</t>
+  </si>
+  <si>
+    <t>Ajouter * objets de décoration</t>
+  </si>
+  <si>
+    <t>* Dekorationsobjekte hinzufügen</t>
+  </si>
+  <si>
+    <t>Добавьте * предметов декора</t>
+  </si>
+  <si>
+    <t>Adicionar * objectos de decoração</t>
+  </si>
+  <si>
+    <t>Dodaj * obiektów dekoracyjnych</t>
+  </si>
+  <si>
+    <t>Earn * stars</t>
+  </si>
+  <si>
+    <t>* yıldız kazanın</t>
+  </si>
+  <si>
+    <t>Gagner * étoiles</t>
+  </si>
+  <si>
+    <t>* Sterne verdienen</t>
+  </si>
+  <si>
+    <t>Заработайте * звезд</t>
+  </si>
+  <si>
+    <t>Ganhar * estrelas</t>
+  </si>
+  <si>
+    <t>Zdobądź * gwiazdek</t>
+  </si>
+  <si>
+    <t>Log in for * days</t>
+  </si>
+  <si>
+    <t>* gün boyunca oturum açın</t>
+  </si>
+  <si>
+    <t>Se connecter pendant * jours</t>
+  </si>
+  <si>
+    <t>Anmeldung für * Tage</t>
+  </si>
+  <si>
+    <t>Войдите в систему на * дней</t>
+  </si>
+  <si>
+    <t>Iniciar sessão durante * dias</t>
+  </si>
+  <si>
+    <t>Zaloguj się na * dni</t>
+  </si>
+  <si>
+    <t>Invite * friends</t>
+  </si>
+  <si>
+    <t>* arkadaşınızı davet edin</t>
+  </si>
+  <si>
+    <t>Inviter * amis</t>
+  </si>
+  <si>
+    <t>* Freunde einladen</t>
+  </si>
+  <si>
+    <t>Пригласите * друзей</t>
+  </si>
+  <si>
+    <t>Convidar * amigos</t>
+  </si>
+  <si>
+    <t>Zaproś * znajomych</t>
+  </si>
+  <si>
+    <t>Share * scores</t>
+  </si>
+  <si>
+    <t>* skoru paylaşın</t>
+  </si>
+  <si>
+    <t>Partager * notes</t>
+  </si>
+  <si>
+    <t>Teilen Sie * Partituren</t>
+  </si>
+  <si>
+    <t>Поделиться * баллов</t>
+  </si>
+  <si>
+    <t>Partilhar * resultados</t>
+  </si>
+  <si>
+    <t>Udostępnij * wyników</t>
+  </si>
+  <si>
+    <t>Spin the slot * times</t>
+  </si>
+  <si>
+    <t>Slotu * kez döndürün</t>
+  </si>
+  <si>
+    <t>Faire tourner la machine à sous * fois</t>
+  </si>
+  <si>
+    <t>Drehen Sie den Schlitz * Mal</t>
+  </si>
+  <si>
+    <t>Вращайте слот * раз</t>
+  </si>
+  <si>
+    <t>Rodar a slot * vezes</t>
+  </si>
+  <si>
+    <t>Zakręć slotem * razy</t>
+  </si>
+  <si>
+    <t>Earn * rewards from the slot</t>
+  </si>
+  <si>
+    <t>Slottan * ödül kazanın</t>
+  </si>
+  <si>
+    <t>Gagnez * récompenses grâce à la machine à sous</t>
+  </si>
+  <si>
+    <t>Verdiene * Belohnungen am Spielautomaten</t>
+  </si>
+  <si>
+    <t>Заработайте * вознаграждений от слота</t>
+  </si>
+  <si>
+    <t>Ganhar * prémios na slot</t>
+  </si>
+  <si>
+    <t>Zdobądź * nagród z automatu</t>
+  </si>
+  <si>
+    <t>Throw * darts</t>
+  </si>
+  <si>
+    <t>* dart atın</t>
+  </si>
+  <si>
+    <t>Lancer * fléchettes</t>
+  </si>
+  <si>
+    <t>Wirf * Darts</t>
+  </si>
+  <si>
+    <t>Бросьте * дротиков</t>
+  </si>
+  <si>
+    <t>Atirar * dardos</t>
+  </si>
+  <si>
+    <t>Rzut * rzutkami</t>
+  </si>
+  <si>
+    <t>Earn * rewards from darts</t>
+  </si>
+  <si>
+    <t>Darttan * ödül kazanın</t>
+  </si>
+  <si>
+    <t>Obtenez * récompenses grâce aux fléchettes</t>
+  </si>
+  <si>
+    <t>Verdiene * Belohnungen mit Darts</t>
+  </si>
+  <si>
+    <t>Заработайте * наград в дартсе</t>
+  </si>
+  <si>
+    <t>Ganhar * recompensas com dardos</t>
+  </si>
+  <si>
+    <t>Zdobądź * nagród za rzutki</t>
+  </si>
+  <si>
+    <t>Hit * consecutive shots in darts</t>
+  </si>
+  <si>
+    <t>Dartta art arda * atış yapmak</t>
+  </si>
+  <si>
+    <t>Réussir * tirs consécutifs aux fléchettes</t>
+  </si>
+  <si>
+    <t>* aufeinanderfolgende Schüsse im Darts treffen</t>
+  </si>
+  <si>
+    <t>Попадите * раз подряд в дартс</t>
+  </si>
+  <si>
+    <t>Acertar * tiros consecutivos em dardos</t>
+  </si>
+  <si>
+    <t>Trafienie * kolejnych strzałów w rzutki</t>
+  </si>
+  <si>
+    <t>Spin the wheel * times</t>
+  </si>
+  <si>
+    <t>Çarkı * kez çevirin</t>
+  </si>
+  <si>
+    <t>Faire tourner la roue * fois</t>
+  </si>
+  <si>
+    <t>Drehen Sie das Rad * Mal</t>
+  </si>
+  <si>
+    <t>Вращайте колесо * раз</t>
+  </si>
+  <si>
+    <t>Girar a roda * vezes</t>
+  </si>
+  <si>
+    <t>Zakręć kołem * razy</t>
+  </si>
+  <si>
+    <t>Earn * rewards from the wheel</t>
+  </si>
+  <si>
+    <t>Çarktan * ödül kazanın</t>
+  </si>
+  <si>
+    <t>Obtenez * récompenses grâce à la roue</t>
+  </si>
+  <si>
+    <t>Verdiene * Belohnungen mit dem Rad</t>
+  </si>
+  <si>
+    <t>Заработайте * вознаграждений на колесе</t>
+  </si>
+  <si>
+    <t>Ganhar * prémios da roda</t>
+  </si>
+  <si>
+    <t>Zdobądź * nagród z koła</t>
+  </si>
+  <si>
+    <t>Complete * mini games</t>
+  </si>
+  <si>
+    <t>* mini oyunu tamamlayın</t>
+  </si>
+  <si>
+    <t>Terminez * mini-jeux</t>
+  </si>
+  <si>
+    <t>Schließe * Minispiele ab</t>
+  </si>
+  <si>
+    <t>Пройдите * мини-игр</t>
+  </si>
+  <si>
+    <t>Completar * minijogos</t>
+  </si>
+  <si>
+    <t>Ukończ * minigier</t>
+  </si>
+  <si>
+    <t>Spend * mini game tokens</t>
+  </si>
+  <si>
+    <t>* mini oyun jetonu harcayın</t>
+  </si>
+  <si>
+    <t>Dépenser * jetons de mini-jeu</t>
+  </si>
+  <si>
+    <t>* Minispielmarken ausgeben</t>
+  </si>
+  <si>
+    <t>Потратьте * жетонов мини-игр</t>
+  </si>
+  <si>
+    <t>Gastar * fichas de minijogos</t>
+  </si>
+  <si>
+    <t>Wydaj * żetonów minigry</t>
+  </si>
+  <si>
+    <t>Earn * rewards from mini games</t>
+  </si>
+  <si>
+    <t>Mini oyunlardan * ödül kazanın</t>
+  </si>
+  <si>
+    <t>Gagnez * récompenses grâce aux mini-jeux</t>
+  </si>
+  <si>
+    <t>Verdiene * Belohnungen aus Minispielen</t>
+  </si>
+  <si>
+    <t>Заработайте * наград в мини-играх</t>
+  </si>
+  <si>
+    <t>Ganhe * recompensas de mini-jogos</t>
+  </si>
+  <si>
+    <t>Zdobądź * nagród w minigrach</t>
+  </si>
+  <si>
+    <t>Claim daily reward * times</t>
+  </si>
+  <si>
+    <t>Günlük ödülü * kez talep edin</t>
+  </si>
+  <si>
+    <t>Réclamer * fois la récompense quotidienne</t>
+  </si>
+  <si>
+    <t>Tägliche Belohnung * Mal beanspruchen</t>
+  </si>
+  <si>
+    <t>Получите ежедневное вознаграждение * раз</t>
+  </si>
+  <si>
+    <t>Pedir recompensa diária * vezes</t>
+  </si>
+  <si>
+    <t>Odbierz nagrodę dzienną * razy</t>
+  </si>
+  <si>
+    <t>Claim weekly reward * times</t>
+  </si>
+  <si>
+    <t>Haftalık ödülü * kez talep edin</t>
+  </si>
+  <si>
+    <t>Réclamer * fois la récompense hebdomadaire</t>
+  </si>
+  <si>
+    <t>Wöchentliche Belohnung * Mal beanspruchen</t>
+  </si>
+  <si>
+    <t>Получите еженедельное вознаграждение * раз</t>
+  </si>
+  <si>
+    <t>Pedir recompensa semanal * vezes</t>
+  </si>
+  <si>
+    <t>Odbierz nagrodę tygodniową * razy</t>
+  </si>
+  <si>
+    <t>Claim hourly reward * times</t>
+  </si>
+  <si>
+    <t>Saatlik ödülü * kez talep edin</t>
+  </si>
+  <si>
+    <t>Réclamer la récompense horaire * fois</t>
+  </si>
+  <si>
+    <t>* Mal stündliche Belohnung beanspruchen</t>
+  </si>
+  <si>
+    <t>Получите почасовую награду * раз</t>
+  </si>
+  <si>
+    <t>Reivindicar a recompensa horária * vezes</t>
+  </si>
+  <si>
+    <t>Odbierz nagrodę godzinową * razy</t>
+  </si>
+  <si>
+    <t>Open * different types of chests</t>
+  </si>
+  <si>
+    <t>* farklı türde sandık açın</t>
+  </si>
+  <si>
+    <t>Ouvrez * types de coffres différents</t>
+  </si>
+  <si>
+    <t>Öffne * verschiedene Arten von Truhen</t>
+  </si>
+  <si>
+    <t>Откройте * различных типов сундуков</t>
+  </si>
+  <si>
+    <t>Abra * tipos diferentes de baús</t>
+  </si>
+  <si>
+    <t>Otwórz * różnych rodzajów skrzyń</t>
+  </si>
+  <si>
+    <t>Play * different mini games</t>
+  </si>
+  <si>
+    <t>* farklı mini oyun oynayın</t>
+  </si>
+  <si>
+    <t>Jouez à * mini-jeux différents</t>
+  </si>
+  <si>
+    <t>Spiele * verschiedene Minispiele</t>
+  </si>
+  <si>
+    <t>Играйте в * различных мини-игр</t>
+  </si>
+  <si>
+    <t>Joga * mini-jogos diferentes</t>
+  </si>
+  <si>
+    <t>Zagraj w * różnych minigier</t>
+  </si>
+  <si>
+    <t>Complete * tasks</t>
+  </si>
+  <si>
+    <t>* görevi tamamlayın</t>
+  </si>
+  <si>
+    <t>Effectuer * tâches</t>
+  </si>
+  <si>
+    <t>* Aufgaben erledigen</t>
+  </si>
+  <si>
+    <t>Выполните * заданий</t>
+  </si>
+  <si>
+    <t>Completar * tarefas</t>
+  </si>
+  <si>
+    <t>Ukończ * zadań</t>
+  </si>
+  <si>
+    <t>Spend * stars for rooms</t>
+  </si>
+  <si>
+    <t>Odalar için * yıldız harcayın</t>
+  </si>
+  <si>
+    <t>Dépenser * étoiles pour les chambres</t>
+  </si>
+  <si>
+    <t>Geben Sie * Sterne für Zimmer aus</t>
+  </si>
+  <si>
+    <t>Потратьте * звезд на номера</t>
+  </si>
+  <si>
+    <t>Gastar * estrelas nos quartos</t>
+  </si>
+  <si>
+    <t>Wydać * gwiazdek na pokoje</t>
   </si>
 </sst>
 </file>
@@ -2771,8 +2771,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="B113" sqref="B113"/>
+    <sheetView tabSelected="1" topLeftCell="A84" workbookViewId="0">
+      <selection activeCell="B109" sqref="B109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4455,1039 +4455,1039 @@
         <v>490</v>
       </c>
       <c r="B65" t="s">
-        <v>491</v>
+        <v>537</v>
       </c>
       <c r="C65" t="s">
-        <v>492</v>
+        <v>538</v>
       </c>
       <c r="D65" t="s">
-        <v>493</v>
+        <v>539</v>
       </c>
       <c r="E65" t="s">
-        <v>494</v>
+        <v>540</v>
       </c>
       <c r="F65" t="s">
-        <v>495</v>
+        <v>541</v>
       </c>
       <c r="G65" t="s">
-        <v>496</v>
+        <v>542</v>
       </c>
       <c r="H65" t="s">
-        <v>497</v>
+        <v>543</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>498</v>
+        <v>491</v>
       </c>
       <c r="B66" t="s">
-        <v>499</v>
+        <v>544</v>
       </c>
       <c r="C66" t="s">
-        <v>500</v>
+        <v>545</v>
       </c>
       <c r="D66" t="s">
-        <v>501</v>
+        <v>546</v>
       </c>
       <c r="E66" t="s">
-        <v>502</v>
+        <v>547</v>
       </c>
       <c r="F66" t="s">
-        <v>503</v>
+        <v>548</v>
       </c>
       <c r="G66" t="s">
-        <v>504</v>
+        <v>549</v>
       </c>
       <c r="H66" t="s">
-        <v>505</v>
+        <v>550</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>506</v>
+        <v>492</v>
       </c>
       <c r="B67" t="s">
-        <v>507</v>
+        <v>551</v>
       </c>
       <c r="C67" t="s">
-        <v>508</v>
+        <v>552</v>
       </c>
       <c r="D67" t="s">
-        <v>509</v>
+        <v>553</v>
       </c>
       <c r="E67" t="s">
-        <v>510</v>
+        <v>554</v>
       </c>
       <c r="F67" t="s">
-        <v>511</v>
+        <v>555</v>
       </c>
       <c r="G67" t="s">
-        <v>512</v>
+        <v>556</v>
       </c>
       <c r="H67" t="s">
-        <v>513</v>
+        <v>557</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>514</v>
+        <v>493</v>
       </c>
       <c r="B68" t="s">
-        <v>515</v>
+        <v>558</v>
       </c>
       <c r="C68" t="s">
-        <v>516</v>
+        <v>559</v>
       </c>
       <c r="D68" t="s">
-        <v>517</v>
+        <v>560</v>
       </c>
       <c r="E68" t="s">
-        <v>518</v>
+        <v>561</v>
       </c>
       <c r="F68" t="s">
-        <v>519</v>
+        <v>562</v>
       </c>
       <c r="G68" t="s">
-        <v>520</v>
+        <v>563</v>
       </c>
       <c r="H68" t="s">
-        <v>521</v>
+        <v>564</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>522</v>
+        <v>494</v>
       </c>
       <c r="B69" t="s">
-        <v>523</v>
+        <v>495</v>
       </c>
       <c r="C69" t="s">
-        <v>524</v>
+        <v>496</v>
       </c>
       <c r="D69" t="s">
-        <v>525</v>
+        <v>497</v>
       </c>
       <c r="E69" t="s">
-        <v>526</v>
+        <v>498</v>
       </c>
       <c r="F69" t="s">
-        <v>527</v>
+        <v>499</v>
       </c>
       <c r="G69" t="s">
-        <v>528</v>
+        <v>500</v>
       </c>
       <c r="H69" t="s">
-        <v>529</v>
+        <v>501</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>530</v>
+        <v>502</v>
       </c>
       <c r="B70" t="s">
-        <v>531</v>
+        <v>565</v>
       </c>
       <c r="C70" t="s">
-        <v>532</v>
+        <v>566</v>
       </c>
       <c r="D70" t="s">
-        <v>533</v>
+        <v>567</v>
       </c>
       <c r="E70" t="s">
-        <v>534</v>
+        <v>568</v>
       </c>
       <c r="F70" t="s">
-        <v>535</v>
+        <v>569</v>
       </c>
       <c r="G70" t="s">
-        <v>536</v>
+        <v>570</v>
       </c>
       <c r="H70" t="s">
-        <v>537</v>
+        <v>571</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>538</v>
+        <v>503</v>
       </c>
       <c r="B71" t="s">
-        <v>539</v>
+        <v>572</v>
       </c>
       <c r="C71" t="s">
-        <v>540</v>
+        <v>573</v>
       </c>
       <c r="D71" t="s">
-        <v>541</v>
+        <v>574</v>
       </c>
       <c r="E71" t="s">
-        <v>542</v>
+        <v>575</v>
       </c>
       <c r="F71" t="s">
-        <v>543</v>
+        <v>576</v>
       </c>
       <c r="G71" t="s">
-        <v>544</v>
+        <v>577</v>
       </c>
       <c r="H71" t="s">
-        <v>545</v>
+        <v>578</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>546</v>
+        <v>504</v>
       </c>
       <c r="B72" t="s">
-        <v>547</v>
+        <v>579</v>
       </c>
       <c r="C72" t="s">
-        <v>548</v>
+        <v>580</v>
       </c>
       <c r="D72" t="s">
-        <v>549</v>
+        <v>581</v>
       </c>
       <c r="E72" t="s">
-        <v>550</v>
+        <v>582</v>
       </c>
       <c r="F72" t="s">
-        <v>551</v>
+        <v>583</v>
       </c>
       <c r="G72" t="s">
-        <v>552</v>
+        <v>584</v>
       </c>
       <c r="H72" t="s">
-        <v>553</v>
+        <v>585</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>554</v>
+        <v>505</v>
       </c>
       <c r="B73" t="s">
-        <v>555</v>
+        <v>586</v>
       </c>
       <c r="C73" t="s">
-        <v>556</v>
+        <v>587</v>
       </c>
       <c r="D73" t="s">
-        <v>557</v>
+        <v>588</v>
       </c>
       <c r="E73" t="s">
-        <v>558</v>
+        <v>589</v>
       </c>
       <c r="F73" t="s">
-        <v>559</v>
+        <v>590</v>
       </c>
       <c r="G73" t="s">
-        <v>560</v>
+        <v>591</v>
       </c>
       <c r="H73" t="s">
-        <v>561</v>
+        <v>592</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>797</v>
+        <v>524</v>
       </c>
       <c r="B74" t="s">
-        <v>562</v>
+        <v>593</v>
       </c>
       <c r="C74" t="s">
-        <v>563</v>
+        <v>594</v>
       </c>
       <c r="D74" t="s">
-        <v>564</v>
+        <v>595</v>
       </c>
       <c r="E74" t="s">
-        <v>565</v>
+        <v>596</v>
       </c>
       <c r="F74" t="s">
-        <v>566</v>
+        <v>597</v>
       </c>
       <c r="G74" t="s">
-        <v>567</v>
+        <v>598</v>
       </c>
       <c r="H74" t="s">
-        <v>568</v>
+        <v>599</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>798</v>
+        <v>525</v>
       </c>
       <c r="B75" t="s">
-        <v>569</v>
+        <v>600</v>
       </c>
       <c r="C75" t="s">
-        <v>570</v>
+        <v>601</v>
       </c>
       <c r="D75" t="s">
-        <v>571</v>
+        <v>602</v>
       </c>
       <c r="E75" t="s">
-        <v>572</v>
+        <v>603</v>
       </c>
       <c r="F75" t="s">
-        <v>573</v>
+        <v>604</v>
       </c>
       <c r="G75" t="s">
-        <v>574</v>
+        <v>605</v>
       </c>
       <c r="H75" t="s">
-        <v>575</v>
+        <v>606</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>799</v>
+        <v>526</v>
       </c>
       <c r="B76" t="s">
-        <v>576</v>
+        <v>607</v>
       </c>
       <c r="C76" t="s">
-        <v>577</v>
+        <v>608</v>
       </c>
       <c r="D76" t="s">
-        <v>578</v>
+        <v>609</v>
       </c>
       <c r="E76" t="s">
-        <v>579</v>
+        <v>610</v>
       </c>
       <c r="F76" t="s">
-        <v>580</v>
+        <v>611</v>
       </c>
       <c r="G76" t="s">
-        <v>581</v>
+        <v>612</v>
       </c>
       <c r="H76" t="s">
-        <v>582</v>
+        <v>613</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>800</v>
+        <v>527</v>
       </c>
       <c r="B77" t="s">
-        <v>583</v>
+        <v>614</v>
       </c>
       <c r="C77" t="s">
-        <v>584</v>
+        <v>615</v>
       </c>
       <c r="D77" t="s">
-        <v>585</v>
+        <v>616</v>
       </c>
       <c r="E77" t="s">
-        <v>586</v>
+        <v>617</v>
       </c>
       <c r="F77" t="s">
-        <v>587</v>
+        <v>618</v>
       </c>
       <c r="G77" t="s">
-        <v>588</v>
+        <v>619</v>
       </c>
       <c r="H77" t="s">
-        <v>589</v>
+        <v>620</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>801</v>
+        <v>528</v>
       </c>
       <c r="B78" t="s">
-        <v>590</v>
+        <v>621</v>
       </c>
       <c r="C78" t="s">
-        <v>591</v>
+        <v>622</v>
       </c>
       <c r="D78" t="s">
-        <v>592</v>
+        <v>623</v>
       </c>
       <c r="E78" t="s">
-        <v>593</v>
+        <v>624</v>
       </c>
       <c r="F78" t="s">
-        <v>594</v>
+        <v>625</v>
       </c>
       <c r="G78" t="s">
-        <v>595</v>
+        <v>626</v>
       </c>
       <c r="H78" t="s">
-        <v>596</v>
+        <v>627</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>802</v>
+        <v>529</v>
       </c>
       <c r="B79" t="s">
-        <v>597</v>
+        <v>628</v>
       </c>
       <c r="C79" t="s">
-        <v>598</v>
+        <v>629</v>
       </c>
       <c r="D79" t="s">
-        <v>599</v>
+        <v>630</v>
       </c>
       <c r="E79" t="s">
-        <v>600</v>
+        <v>631</v>
       </c>
       <c r="F79" t="s">
-        <v>601</v>
+        <v>632</v>
       </c>
       <c r="G79" t="s">
-        <v>602</v>
+        <v>633</v>
       </c>
       <c r="H79" t="s">
-        <v>603</v>
+        <v>634</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>604</v>
+        <v>506</v>
       </c>
       <c r="B80" t="s">
-        <v>605</v>
+        <v>635</v>
       </c>
       <c r="C80" t="s">
-        <v>606</v>
+        <v>636</v>
       </c>
       <c r="D80" t="s">
-        <v>607</v>
+        <v>637</v>
       </c>
       <c r="E80" t="s">
-        <v>608</v>
+        <v>638</v>
       </c>
       <c r="F80" t="s">
-        <v>609</v>
+        <v>639</v>
       </c>
       <c r="G80" t="s">
-        <v>610</v>
+        <v>640</v>
       </c>
       <c r="H80" t="s">
-        <v>611</v>
+        <v>641</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>803</v>
+        <v>530</v>
       </c>
       <c r="B81" t="s">
-        <v>612</v>
+        <v>642</v>
       </c>
       <c r="C81" t="s">
-        <v>613</v>
+        <v>643</v>
       </c>
       <c r="D81" t="s">
-        <v>614</v>
+        <v>644</v>
       </c>
       <c r="E81" t="s">
-        <v>615</v>
+        <v>645</v>
       </c>
       <c r="F81" t="s">
-        <v>616</v>
+        <v>646</v>
       </c>
       <c r="G81" t="s">
-        <v>617</v>
+        <v>647</v>
       </c>
       <c r="H81" t="s">
-        <v>618</v>
+        <v>648</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>619</v>
+        <v>507</v>
       </c>
       <c r="B82" t="s">
-        <v>620</v>
+        <v>649</v>
       </c>
       <c r="C82" t="s">
-        <v>621</v>
+        <v>650</v>
       </c>
       <c r="D82" t="s">
-        <v>622</v>
+        <v>651</v>
       </c>
       <c r="E82" t="s">
-        <v>623</v>
+        <v>652</v>
       </c>
       <c r="F82" t="s">
-        <v>624</v>
+        <v>653</v>
       </c>
       <c r="G82" t="s">
-        <v>625</v>
+        <v>654</v>
       </c>
       <c r="H82" t="s">
-        <v>626</v>
+        <v>655</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>627</v>
+        <v>508</v>
       </c>
       <c r="B83" t="s">
-        <v>628</v>
+        <v>656</v>
       </c>
       <c r="C83" t="s">
-        <v>629</v>
+        <v>657</v>
       </c>
       <c r="D83" t="s">
-        <v>630</v>
+        <v>658</v>
       </c>
       <c r="E83" t="s">
-        <v>631</v>
+        <v>659</v>
       </c>
       <c r="F83" t="s">
-        <v>632</v>
+        <v>660</v>
       </c>
       <c r="G83" t="s">
-        <v>633</v>
+        <v>661</v>
       </c>
       <c r="H83" t="s">
-        <v>634</v>
+        <v>662</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>804</v>
+        <v>531</v>
       </c>
       <c r="B84" t="s">
-        <v>635</v>
+        <v>663</v>
       </c>
       <c r="C84" t="s">
-        <v>636</v>
+        <v>664</v>
       </c>
       <c r="D84" t="s">
-        <v>637</v>
+        <v>665</v>
       </c>
       <c r="E84" t="s">
-        <v>638</v>
+        <v>666</v>
       </c>
       <c r="F84" t="s">
-        <v>639</v>
+        <v>667</v>
       </c>
       <c r="G84" t="s">
-        <v>640</v>
+        <v>668</v>
       </c>
       <c r="H84" t="s">
-        <v>641</v>
+        <v>669</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>642</v>
+        <v>509</v>
       </c>
       <c r="B85" t="s">
-        <v>643</v>
+        <v>670</v>
       </c>
       <c r="C85" t="s">
-        <v>644</v>
+        <v>671</v>
       </c>
       <c r="D85" t="s">
-        <v>645</v>
+        <v>672</v>
       </c>
       <c r="E85" t="s">
-        <v>646</v>
+        <v>673</v>
       </c>
       <c r="F85" t="s">
-        <v>647</v>
+        <v>674</v>
       </c>
       <c r="G85" t="s">
-        <v>648</v>
+        <v>675</v>
       </c>
       <c r="H85" t="s">
-        <v>649</v>
+        <v>676</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>805</v>
+        <v>532</v>
       </c>
       <c r="B86" t="s">
-        <v>650</v>
+        <v>677</v>
       </c>
       <c r="C86" t="s">
-        <v>651</v>
+        <v>678</v>
       </c>
       <c r="D86" t="s">
-        <v>652</v>
+        <v>679</v>
       </c>
       <c r="E86" t="s">
-        <v>653</v>
+        <v>680</v>
       </c>
       <c r="F86" t="s">
-        <v>654</v>
+        <v>681</v>
       </c>
       <c r="G86" t="s">
-        <v>655</v>
+        <v>682</v>
       </c>
       <c r="H86" t="s">
-        <v>656</v>
+        <v>683</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>657</v>
+        <v>510</v>
       </c>
       <c r="B87" t="s">
-        <v>658</v>
+        <v>684</v>
       </c>
       <c r="C87" t="s">
-        <v>659</v>
+        <v>685</v>
       </c>
       <c r="D87" t="s">
-        <v>660</v>
+        <v>686</v>
       </c>
       <c r="E87" t="s">
-        <v>661</v>
+        <v>687</v>
       </c>
       <c r="F87" t="s">
-        <v>662</v>
+        <v>688</v>
       </c>
       <c r="G87" t="s">
-        <v>663</v>
+        <v>689</v>
       </c>
       <c r="H87" t="s">
-        <v>664</v>
+        <v>690</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>808</v>
+        <v>535</v>
       </c>
       <c r="B88" t="s">
-        <v>665</v>
+        <v>691</v>
       </c>
       <c r="C88" t="s">
-        <v>666</v>
+        <v>692</v>
       </c>
       <c r="D88" t="s">
-        <v>667</v>
+        <v>693</v>
       </c>
       <c r="E88" t="s">
-        <v>668</v>
+        <v>694</v>
       </c>
       <c r="F88" t="s">
-        <v>669</v>
+        <v>695</v>
       </c>
       <c r="G88" t="s">
-        <v>670</v>
+        <v>696</v>
       </c>
       <c r="H88" t="s">
-        <v>671</v>
+        <v>697</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>672</v>
+        <v>511</v>
       </c>
       <c r="B89" t="s">
-        <v>673</v>
+        <v>698</v>
       </c>
       <c r="C89" t="s">
-        <v>674</v>
+        <v>699</v>
       </c>
       <c r="D89" t="s">
-        <v>675</v>
+        <v>700</v>
       </c>
       <c r="E89" t="s">
-        <v>676</v>
+        <v>701</v>
       </c>
       <c r="F89" t="s">
-        <v>677</v>
+        <v>702</v>
       </c>
       <c r="G89" t="s">
-        <v>678</v>
+        <v>703</v>
       </c>
       <c r="H89" t="s">
-        <v>679</v>
+        <v>704</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>806</v>
+        <v>533</v>
       </c>
       <c r="B90" t="s">
-        <v>680</v>
+        <v>705</v>
       </c>
       <c r="C90" t="s">
-        <v>681</v>
+        <v>706</v>
       </c>
       <c r="D90" t="s">
-        <v>682</v>
+        <v>707</v>
       </c>
       <c r="E90" t="s">
-        <v>683</v>
+        <v>708</v>
       </c>
       <c r="F90" t="s">
-        <v>684</v>
+        <v>709</v>
       </c>
       <c r="G90" t="s">
-        <v>685</v>
+        <v>710</v>
       </c>
       <c r="H90" t="s">
-        <v>686</v>
+        <v>711</v>
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>687</v>
+        <v>512</v>
       </c>
       <c r="B91" t="s">
-        <v>688</v>
+        <v>712</v>
       </c>
       <c r="C91" t="s">
-        <v>689</v>
+        <v>713</v>
       </c>
       <c r="D91" t="s">
-        <v>690</v>
+        <v>714</v>
       </c>
       <c r="E91" t="s">
-        <v>691</v>
+        <v>715</v>
       </c>
       <c r="F91" t="s">
-        <v>692</v>
+        <v>716</v>
       </c>
       <c r="G91" t="s">
-        <v>693</v>
+        <v>717</v>
       </c>
       <c r="H91" t="s">
-        <v>694</v>
+        <v>718</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>695</v>
+        <v>513</v>
       </c>
       <c r="B92" t="s">
-        <v>696</v>
+        <v>719</v>
       </c>
       <c r="C92" t="s">
-        <v>697</v>
+        <v>720</v>
       </c>
       <c r="D92" t="s">
-        <v>698</v>
+        <v>721</v>
       </c>
       <c r="E92" t="s">
-        <v>699</v>
+        <v>722</v>
       </c>
       <c r="F92" t="s">
-        <v>700</v>
+        <v>723</v>
       </c>
       <c r="G92" t="s">
-        <v>701</v>
+        <v>724</v>
       </c>
       <c r="H92" t="s">
-        <v>702</v>
+        <v>725</v>
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>703</v>
+        <v>514</v>
       </c>
       <c r="B93" t="s">
-        <v>704</v>
+        <v>726</v>
       </c>
       <c r="C93" t="s">
-        <v>705</v>
+        <v>727</v>
       </c>
       <c r="D93" t="s">
-        <v>706</v>
+        <v>728</v>
       </c>
       <c r="E93" t="s">
-        <v>707</v>
+        <v>729</v>
       </c>
       <c r="F93" t="s">
-        <v>708</v>
+        <v>730</v>
       </c>
       <c r="G93" t="s">
-        <v>709</v>
+        <v>731</v>
       </c>
       <c r="H93" t="s">
-        <v>710</v>
+        <v>732</v>
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>711</v>
+        <v>515</v>
       </c>
       <c r="B94" t="s">
-        <v>712</v>
+        <v>733</v>
       </c>
       <c r="C94" t="s">
-        <v>713</v>
+        <v>734</v>
       </c>
       <c r="D94" t="s">
-        <v>714</v>
+        <v>735</v>
       </c>
       <c r="E94" t="s">
-        <v>715</v>
+        <v>736</v>
       </c>
       <c r="F94" t="s">
-        <v>716</v>
+        <v>737</v>
       </c>
       <c r="G94" t="s">
-        <v>717</v>
+        <v>738</v>
       </c>
       <c r="H94" t="s">
-        <v>718</v>
+        <v>739</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>719</v>
+        <v>516</v>
       </c>
       <c r="B95" t="s">
-        <v>720</v>
+        <v>740</v>
       </c>
       <c r="C95" t="s">
-        <v>721</v>
+        <v>741</v>
       </c>
       <c r="D95" t="s">
-        <v>722</v>
+        <v>742</v>
       </c>
       <c r="E95" t="s">
-        <v>723</v>
+        <v>743</v>
       </c>
       <c r="F95" t="s">
-        <v>724</v>
+        <v>744</v>
       </c>
       <c r="G95" t="s">
-        <v>725</v>
+        <v>745</v>
       </c>
       <c r="H95" t="s">
-        <v>726</v>
+        <v>746</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>727</v>
+        <v>517</v>
       </c>
       <c r="B96" t="s">
-        <v>728</v>
+        <v>747</v>
       </c>
       <c r="C96" t="s">
-        <v>729</v>
+        <v>748</v>
       </c>
       <c r="D96" t="s">
-        <v>730</v>
+        <v>749</v>
       </c>
       <c r="E96" t="s">
-        <v>731</v>
+        <v>750</v>
       </c>
       <c r="F96" t="s">
-        <v>732</v>
+        <v>751</v>
       </c>
       <c r="G96" t="s">
-        <v>733</v>
+        <v>752</v>
       </c>
       <c r="H96" t="s">
-        <v>734</v>
+        <v>753</v>
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>735</v>
+        <v>518</v>
       </c>
       <c r="B97" t="s">
-        <v>736</v>
+        <v>754</v>
       </c>
       <c r="C97" t="s">
-        <v>737</v>
+        <v>755</v>
       </c>
       <c r="D97" t="s">
-        <v>738</v>
+        <v>756</v>
       </c>
       <c r="E97" t="s">
-        <v>739</v>
+        <v>757</v>
       </c>
       <c r="F97" t="s">
-        <v>740</v>
+        <v>758</v>
       </c>
       <c r="G97" t="s">
-        <v>741</v>
+        <v>759</v>
       </c>
       <c r="H97" t="s">
-        <v>742</v>
+        <v>760</v>
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>743</v>
+        <v>519</v>
       </c>
       <c r="B98" t="s">
-        <v>744</v>
+        <v>761</v>
       </c>
       <c r="C98" t="s">
-        <v>745</v>
+        <v>762</v>
       </c>
       <c r="D98" t="s">
-        <v>746</v>
+        <v>763</v>
       </c>
       <c r="E98" t="s">
-        <v>747</v>
+        <v>764</v>
       </c>
       <c r="F98" t="s">
-        <v>748</v>
+        <v>765</v>
       </c>
       <c r="G98" t="s">
-        <v>749</v>
+        <v>766</v>
       </c>
       <c r="H98" t="s">
-        <v>750</v>
+        <v>767</v>
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>751</v>
+        <v>520</v>
       </c>
       <c r="B99" t="s">
-        <v>752</v>
+        <v>768</v>
       </c>
       <c r="C99" t="s">
-        <v>753</v>
+        <v>769</v>
       </c>
       <c r="D99" t="s">
-        <v>754</v>
+        <v>770</v>
       </c>
       <c r="E99" t="s">
-        <v>755</v>
+        <v>771</v>
       </c>
       <c r="F99" t="s">
-        <v>756</v>
+        <v>772</v>
       </c>
       <c r="G99" t="s">
-        <v>757</v>
+        <v>773</v>
       </c>
       <c r="H99" t="s">
-        <v>758</v>
+        <v>774</v>
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>759</v>
+        <v>521</v>
       </c>
       <c r="B100" t="s">
-        <v>760</v>
+        <v>775</v>
       </c>
       <c r="C100" t="s">
-        <v>761</v>
+        <v>776</v>
       </c>
       <c r="D100" t="s">
-        <v>762</v>
+        <v>777</v>
       </c>
       <c r="E100" t="s">
-        <v>763</v>
+        <v>778</v>
       </c>
       <c r="F100" t="s">
-        <v>764</v>
+        <v>779</v>
       </c>
       <c r="G100" t="s">
-        <v>765</v>
+        <v>780</v>
       </c>
       <c r="H100" t="s">
-        <v>766</v>
+        <v>781</v>
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>767</v>
+        <v>522</v>
       </c>
       <c r="B101" t="s">
-        <v>768</v>
+        <v>782</v>
       </c>
       <c r="C101" t="s">
-        <v>769</v>
+        <v>783</v>
       </c>
       <c r="D101" t="s">
-        <v>770</v>
+        <v>784</v>
       </c>
       <c r="E101" t="s">
-        <v>771</v>
+        <v>785</v>
       </c>
       <c r="F101" t="s">
-        <v>772</v>
+        <v>786</v>
       </c>
       <c r="G101" t="s">
-        <v>773</v>
+        <v>787</v>
       </c>
       <c r="H101" t="s">
-        <v>774</v>
+        <v>788</v>
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>775</v>
+        <v>523</v>
       </c>
       <c r="B102" t="s">
-        <v>776</v>
+        <v>789</v>
       </c>
       <c r="C102" t="s">
-        <v>777</v>
+        <v>790</v>
       </c>
       <c r="D102" t="s">
-        <v>778</v>
+        <v>791</v>
       </c>
       <c r="E102" t="s">
-        <v>779</v>
+        <v>792</v>
       </c>
       <c r="F102" t="s">
-        <v>780</v>
+        <v>793</v>
       </c>
       <c r="G102" t="s">
-        <v>781</v>
+        <v>794</v>
       </c>
       <c r="H102" t="s">
-        <v>782</v>
+        <v>795</v>
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>807</v>
+        <v>534</v>
       </c>
       <c r="B103" t="s">
-        <v>783</v>
+        <v>796</v>
       </c>
       <c r="C103" t="s">
-        <v>784</v>
+        <v>797</v>
       </c>
       <c r="D103" t="s">
-        <v>785</v>
+        <v>798</v>
       </c>
       <c r="E103" t="s">
-        <v>786</v>
+        <v>799</v>
       </c>
       <c r="F103" t="s">
-        <v>787</v>
+        <v>800</v>
       </c>
       <c r="G103" t="s">
-        <v>788</v>
+        <v>801</v>
       </c>
       <c r="H103" t="s">
-        <v>789</v>
+        <v>802</v>
       </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
+        <v>536</v>
+      </c>
+      <c r="B104" t="s">
+        <v>803</v>
+      </c>
+      <c r="C104" t="s">
+        <v>804</v>
+      </c>
+      <c r="D104" t="s">
+        <v>805</v>
+      </c>
+      <c r="E104" t="s">
+        <v>806</v>
+      </c>
+      <c r="F104" t="s">
+        <v>807</v>
+      </c>
+      <c r="G104" t="s">
+        <v>808</v>
+      </c>
+      <c r="H104" t="s">
         <v>809</v>
-      </c>
-      <c r="B104" t="s">
-        <v>790</v>
-      </c>
-      <c r="C104" t="s">
-        <v>791</v>
-      </c>
-      <c r="D104" t="s">
-        <v>792</v>
-      </c>
-      <c r="E104" t="s">
-        <v>793</v>
-      </c>
-      <c r="F104" t="s">
-        <v>794</v>
-      </c>
-      <c r="G104" t="s">
-        <v>795</v>
-      </c>
-      <c r="H104" t="s">
-        <v>796</v>
       </c>
     </row>
   </sheetData>

--- a/localization/Localization.xlsx
+++ b/localization/Localization.xlsx
@@ -393,10 +393,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H104"/>
+  <dimension ref="A1:H107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A75" workbookViewId="0">
-      <selection activeCell="C105" sqref="C105"/>
+    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="C111" sqref="C111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
@@ -4778,6 +4778,132 @@
         </is>
       </c>
     </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>congratulations</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>Congratulations!</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>Tebrikler!</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>Félicitations !</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>Herzlichen Glückwunsch!</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>Поздравляю!</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>Parabéns!</t>
+        </is>
+      </c>
+      <c r="H105" t="inlineStr">
+        <is>
+          <t>Gratulacje!</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>spin</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>Spin</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>Spin</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>La rotation</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>Spin</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>Спин</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>Giro</t>
+        </is>
+      </c>
+      <c r="H106" t="inlineStr">
+        <is>
+          <t>Spin</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>drop</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>Drop</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>Bırak</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>Chute</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>Ablegen</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>Капля</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>Gota</t>
+        </is>
+      </c>
+      <c r="H107" t="inlineStr">
+        <is>
+          <t>Spadek</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/localization/Localization.xlsx
+++ b/localization/Localization.xlsx
@@ -393,10 +393,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H107"/>
+  <dimension ref="A1:I107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="C111" sqref="C111"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
@@ -405,9 +405,10 @@
     <col width="44.140625" customWidth="1" min="2" max="2"/>
     <col width="37.28515625" customWidth="1" min="3" max="3"/>
     <col width="41.42578125" customWidth="1" min="4" max="4"/>
-    <col width="49.85546875" customWidth="1" min="5" max="5"/>
-    <col width="38.28515625" customWidth="1" min="6" max="6"/>
-    <col width="39.140625" customWidth="1" min="7" max="7"/>
+    <col width="39" customWidth="1" min="5" max="5"/>
+    <col width="27" customWidth="1" min="6" max="6"/>
+    <col width="20.7109375" customWidth="1" min="7" max="7"/>
+    <col width="33" customWidth="1" min="8" max="8"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -451,6 +452,11 @@
           <t>Pl</t>
         </is>
       </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>Uk</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -493,6 +499,11 @@
           <t>Ustawienia</t>
         </is>
       </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>Налаштування</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -535,6 +546,11 @@
           <t>Kompletny!</t>
         </is>
       </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>Готово!</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -577,6 +593,11 @@
           <t>Łączenie...</t>
         </is>
       </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>З'єднання...</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -619,6 +640,11 @@
           <t>Ładowanie...</t>
         </is>
       </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>Завантаження...</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -661,6 +687,11 @@
           <t>Grać</t>
         </is>
       </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>Грай.</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -703,6 +734,11 @@
           <t>Obszar</t>
         </is>
       </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>Площа</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -745,6 +781,11 @@
           <t>Postęp w obszarze</t>
         </is>
       </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>Прогрес у регіоні</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -787,6 +828,11 @@
           <t>Nie, dzięki</t>
         </is>
       </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>Ні, дякую.</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -829,6 +875,11 @@
           <t>Roszczenie</t>
         </is>
       </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>Претензія</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -871,6 +922,11 @@
           <t>Zrób to!</t>
         </is>
       </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>Зробіть це!</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -913,6 +969,11 @@
           <t>Dotknij, aby zgłosić roszczenie</t>
         </is>
       </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>Натисніть, щоб заявити претензію</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -955,6 +1016,11 @@
           <t>Odejdź</t>
         </is>
       </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>Звільнися.</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -997,6 +1063,11 @@
           <t>Wybierz pole, aby otworzyć listy</t>
         </is>
       </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>Виберіть поле, щоб відкрити листи</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1039,6 +1110,11 @@
           <t>Poziom</t>
         </is>
       </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>Рівень</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1081,6 +1157,11 @@
           <t>Następny</t>
         </is>
       </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>Далі</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1123,6 +1204,11 @@
           <t>Poprzedni</t>
         </is>
       </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>Попередні</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1165,6 +1251,11 @@
           <t>Strona główna</t>
         </is>
       </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>Головна</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1207,6 +1298,11 @@
           <t>Bonus</t>
         </is>
       </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>Бонус</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1249,6 +1345,11 @@
           <t>Sypialnia</t>
         </is>
       </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>Спальня</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1291,6 +1392,11 @@
           <t>Łazienka</t>
         </is>
       </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>Ванна кімната</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1333,6 +1439,11 @@
           <t>Czytelnia</t>
         </is>
       </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>Читальний зал</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1375,6 +1486,11 @@
           <t>Front Yard</t>
         </is>
       </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>Передній двір</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1417,6 +1533,11 @@
           <t>Umieść schody</t>
         </is>
       </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>Встановіть сходи</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -1459,6 +1580,11 @@
           <t>Pokój chłopca</t>
         </is>
       </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>Кімната для хлопчиків.</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1501,6 +1627,11 @@
           <t>Pokój dziewczynki</t>
         </is>
       </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>Дівоча кімната</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1543,6 +1674,11 @@
           <t>Kuchnia</t>
         </is>
       </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>Кухня</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -1585,6 +1721,11 @@
           <t>Pranie</t>
         </is>
       </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>Пральня</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -1627,6 +1768,11 @@
           <t>Pokój dzienny</t>
         </is>
       </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>Вітальня</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -1669,6 +1815,11 @@
           <t>Czytelnia</t>
         </is>
       </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>Читальний зал</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -1711,6 +1862,11 @@
           <t>Pokój do nauki</t>
         </is>
       </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>Навчальна кімната</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -1753,6 +1909,11 @@
           <t>Lay Floor</t>
         </is>
       </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>Настил підлоги</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -1795,6 +1956,11 @@
           <t>Instalacja okna</t>
         </is>
       </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>Встановити вікно</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -1837,6 +2003,11 @@
           <t>Rozmieść meble</t>
         </is>
       </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>Розставити меблі</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -1879,6 +2050,11 @@
           <t>Dodaj wannę</t>
         </is>
       </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>Додати ванну</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -1921,6 +2097,11 @@
           <t>Dodaj dekorację</t>
         </is>
       </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>Додати прикрасу</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -1963,6 +2144,11 @@
           <t>Miejsce Łóżko</t>
         </is>
       </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>Помістити ліжко</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -2005,6 +2191,11 @@
           <t>Wieszanie obrazów</t>
         </is>
       </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>Повісити картини</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -2047,6 +2238,11 @@
           <t>Umieść karmę dla zwierząt</t>
         </is>
       </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>Помістити корм для домашніх тварин</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -2089,6 +2285,11 @@
           <t>Stolik kawowy Place</t>
         </is>
       </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>Розмістити кавовий столик</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -2131,6 +2332,11 @@
           <t>Farba podłogowa</t>
         </is>
       </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>Фарбована підлога</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -2173,6 +2379,11 @@
           <t>Budowa schodów</t>
         </is>
       </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>Побудувати сходи</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -2215,6 +2426,11 @@
           <t>Montaż drzwi i okien</t>
         </is>
       </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>Встановлення дверей та вікон</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -2257,6 +2473,11 @@
           <t>Ułóż podłogę</t>
         </is>
       </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>Облаштувати підлогу</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -2299,6 +2520,11 @@
           <t>Miejsce Rośliny</t>
         </is>
       </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>Розмістити рослини</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -2341,6 +2567,11 @@
           <t>Miejsce Półka na książki</t>
         </is>
       </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>Місце Книжкова полиця</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -2383,6 +2614,11 @@
           <t>Miejsce Zabawki</t>
         </is>
       </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>Розмістити іграшки</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -2425,6 +2661,11 @@
           <t>Układanie książek</t>
         </is>
       </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>Впорядкувати книги</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -2467,6 +2708,11 @@
           <t>Rozproszone chmury</t>
         </is>
       </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>Розсіяти хмари</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -2509,6 +2755,11 @@
           <t>Gwiazdy rozproszone</t>
         </is>
       </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>Розсип зірок</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -2551,6 +2802,11 @@
           <t>Budowa blatu kuchennego</t>
         </is>
       </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>Побудуйте кухонну стійку</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -2593,6 +2849,11 @@
           <t>Miejsce Lodówka</t>
         </is>
       </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>Місце Холодильник</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -2635,6 +2896,11 @@
           <t>Układanie płyt</t>
         </is>
       </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>Розставити тарілки</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -2677,6 +2943,11 @@
           <t>Miejsce Pralka</t>
         </is>
       </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>Розмістити пральну машину</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -2719,6 +2990,11 @@
           <t>Miejsce Suszarka</t>
         </is>
       </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>Розмістити сушарку</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -2761,6 +3037,11 @@
           <t>Umieść półki</t>
         </is>
       </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>Розмістити полиці</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -2803,6 +3084,11 @@
           <t>Umieść wieszaki na ubrania</t>
         </is>
       </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>Розмістіть вішалки для одягу</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -2845,6 +3131,11 @@
           <t>Miejsce na deskę do prasowania</t>
         </is>
       </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>Покладіть прасувальну дошку</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -2887,6 +3178,11 @@
           <t>Sofy Place</t>
         </is>
       </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>Місце Дивани</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -2929,6 +3225,11 @@
           <t>Miejsce Biurko</t>
         </is>
       </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>Місце Робочий стіл</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -2971,6 +3272,11 @@
           <t>Następny obszar</t>
         </is>
       </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>Наступна область</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -3013,6 +3319,11 @@
           <t>Ładowanie reklamy</t>
         </is>
       </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>Завантаження оголошення</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -3055,6 +3366,11 @@
           <t>Reklama nie jest gotowa</t>
         </is>
       </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>Оголошення не готове</t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -3097,6 +3413,11 @@
           <t>Misja</t>
         </is>
       </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>Місія</t>
+        </is>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -3139,6 +3460,11 @@
           <t>Znajdź * słów</t>
         </is>
       </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>Знайдіть * слова</t>
+        </is>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -3181,6 +3507,11 @@
           <t>Znajdź * dodatkowych słów</t>
         </is>
       </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>Знайдіть * зайві слова</t>
+        </is>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -3223,6 +3554,11 @@
           <t>Ujawnij * liter</t>
         </is>
       </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>Розкрити * літери</t>
+        </is>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -3265,6 +3601,11 @@
           <t>Ukończ * poziomów</t>
         </is>
       </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>Пройдіть * рівні</t>
+        </is>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -3307,6 +3648,11 @@
           <t>Ukończ * bezbłędnych poziomów</t>
         </is>
       </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>Повні * бездоганні рівні</t>
+        </is>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -3349,6 +3695,11 @@
           <t>Znajdź * poprawnych słów w rzędzie</t>
         </is>
       </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>Знайдіть * правильні слова в рядку</t>
+        </is>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -3391,6 +3742,11 @@
           <t>Użyj * wskazówek</t>
         </is>
       </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>Використовуйте * підказки</t>
+        </is>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -3433,6 +3789,11 @@
           <t>Ukończ * poziomów bez korzystania z podpowiedzi</t>
         </is>
       </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>Пройдіть * рівень без використання підказки</t>
+        </is>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -3475,6 +3836,11 @@
           <t>Zdobądź * sztuk złota</t>
         </is>
       </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>Заробляйте * золото</t>
+        </is>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -3517,6 +3883,11 @@
           <t>Wydaj * sztuk złota</t>
         </is>
       </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>Витратити * золото</t>
+        </is>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -3559,6 +3930,11 @@
           <t>Zdobądź * energii</t>
         </is>
       </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>Заробляйте * енергію</t>
+        </is>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -3601,6 +3977,11 @@
           <t>Wydać * energii</t>
         </is>
       </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>Витрачайте * енергію</t>
+        </is>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -3643,6 +4024,11 @@
           <t>Zbierz * kluczy</t>
         </is>
       </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>Зберіть * ключі</t>
+        </is>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -3685,6 +4071,11 @@
           <t>Otwórz * skrzyń</t>
         </is>
       </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>Відкрийте скрині</t>
+        </is>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -3727,6 +4118,11 @@
           <t>Otwórz * skrzyń premium</t>
         </is>
       </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>Відкрийте * преміум-скрині</t>
+        </is>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -3769,6 +4165,11 @@
           <t>Ukończono * pokoi</t>
         </is>
       </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>Повні * номери</t>
+        </is>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -3811,6 +4212,11 @@
           <t>Umieść * mebli</t>
         </is>
       </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>Розмістити * предмети меблів</t>
+        </is>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -3853,6 +4259,11 @@
           <t>Dodaj * obiektów dekoracyjnych</t>
         </is>
       </c>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>Додати * об'єкти декору</t>
+        </is>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -3895,6 +4306,11 @@
           <t>Zdobądź * gwiazdek</t>
         </is>
       </c>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>Заробляйте * зірки</t>
+        </is>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -3937,6 +4353,11 @@
           <t>Zaloguj się na * dni</t>
         </is>
       </c>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>Увійдіть на * днів</t>
+        </is>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -3979,6 +4400,11 @@
           <t>Zaproś * znajomych</t>
         </is>
       </c>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>Запросити * друзів</t>
+        </is>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -4021,6 +4447,11 @@
           <t>Udostępnij * wyników</t>
         </is>
       </c>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>Поділіться * балами</t>
+        </is>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -4063,6 +4494,11 @@
           <t>Zakręć slotem * razy</t>
         </is>
       </c>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>Обертайте слот * разів</t>
+        </is>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -4105,6 +4541,11 @@
           <t>Zdobądź * nagród z automatu</t>
         </is>
       </c>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>Заробляйте * винагороди від слоту</t>
+        </is>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -4147,6 +4588,11 @@
           <t>Rzut * rzutkami</t>
         </is>
       </c>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>Кидайте * дартс</t>
+        </is>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -4189,6 +4635,11 @@
           <t>Zdobądź * nagród za rzutki</t>
         </is>
       </c>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>Заробляйте * винагороди від дартсу</t>
+        </is>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -4231,6 +4682,11 @@
           <t>Trafienie * kolejnych strzałów w rzutki</t>
         </is>
       </c>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>Потрапляння * послідовних пострілів у дартс</t>
+        </is>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -4273,6 +4729,11 @@
           <t>Zakręć kołem * razy</t>
         </is>
       </c>
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>Прокрутіть колесо * разів</t>
+        </is>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -4315,6 +4776,11 @@
           <t>Zdobądź * nagród z koła</t>
         </is>
       </c>
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>Заробляйте * винагороди з колеса</t>
+        </is>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -4357,6 +4823,11 @@
           <t>Ukończ * minigier</t>
         </is>
       </c>
+      <c r="I94" t="inlineStr">
+        <is>
+          <t>Повні * міні-ігри</t>
+        </is>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -4399,6 +4870,11 @@
           <t>Wydaj * żetonów minigry</t>
         </is>
       </c>
+      <c r="I95" t="inlineStr">
+        <is>
+          <t>Витратьте * жетони міні-ігор</t>
+        </is>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -4441,6 +4917,11 @@
           <t>Zdobądź * nagród w minigrach</t>
         </is>
       </c>
+      <c r="I96" t="inlineStr">
+        <is>
+          <t>Заробляйте * винагороди в міні-іграх</t>
+        </is>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -4483,6 +4964,11 @@
           <t>Odbierz nagrodę dzienną * razy</t>
         </is>
       </c>
+      <c r="I97" t="inlineStr">
+        <is>
+          <t>Отримати щоденну винагороду * разів</t>
+        </is>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -4525,6 +5011,11 @@
           <t>Odbierz nagrodę tygodniową * razy</t>
         </is>
       </c>
+      <c r="I98" t="inlineStr">
+        <is>
+          <t>Отримайте щотижневу винагороду * разів</t>
+        </is>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -4567,6 +5058,11 @@
           <t>Odbierz nagrodę godzinową * razy</t>
         </is>
       </c>
+      <c r="I99" t="inlineStr">
+        <is>
+          <t>Претендуйте на погодинну винагороду * разів</t>
+        </is>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -4609,6 +5105,11 @@
           <t>Otwórz * różnych rodzajów skrzyń</t>
         </is>
       </c>
+      <c r="I100" t="inlineStr">
+        <is>
+          <t>Відкривайте * різні типи скринь</t>
+        </is>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -4651,6 +5152,11 @@
           <t>Zagraj w * różnych minigier</t>
         </is>
       </c>
+      <c r="I101" t="inlineStr">
+        <is>
+          <t>Грайте * в різні міні-ігри</t>
+        </is>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -4693,6 +5199,11 @@
           <t>Ukończ * zadań</t>
         </is>
       </c>
+      <c r="I102" t="inlineStr">
+        <is>
+          <t>Виконайте * завдання</t>
+        </is>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -4735,6 +5246,11 @@
           <t>Wydać * gwiazdek na pokoje</t>
         </is>
       </c>
+      <c r="I103" t="inlineStr">
+        <is>
+          <t>Витратьте * зірок на номери</t>
+        </is>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -4777,6 +5293,11 @@
           <t>Rzut</t>
         </is>
       </c>
+      <c r="I104" t="inlineStr">
+        <is>
+          <t>Кидай!</t>
+        </is>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -4819,6 +5340,11 @@
           <t>Gratulacje!</t>
         </is>
       </c>
+      <c r="I105" t="inlineStr">
+        <is>
+          <t>Вітаю!</t>
+        </is>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -4861,6 +5387,11 @@
           <t>Spin</t>
         </is>
       </c>
+      <c r="I106" t="inlineStr">
+        <is>
+          <t>Спінінг.</t>
+        </is>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -4901,6 +5432,11 @@
       <c r="H107" t="inlineStr">
         <is>
           <t>Spadek</t>
+        </is>
+      </c>
+      <c r="I107" t="inlineStr">
+        <is>
+          <t>Падай!</t>
         </is>
       </c>
     </row>

--- a/localization/Localization.xlsx
+++ b/localization/Localization.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11415" windowHeight="3375"/>
   </bookViews>
   <sheets>
     <sheet name="Sayfa1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="777" uniqueCount="752">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="952" uniqueCount="916">
   <si>
     <t>Key</t>
   </si>
@@ -1308,825 +1308,6 @@
     <t>Misión</t>
   </si>
   <si>
-    <t>task_find_words</t>
-  </si>
-  <si>
-    <t>Find * words</t>
-  </si>
-  <si>
-    <t>* kelime bulun</t>
-  </si>
-  <si>
-    <t>Trouvez * mots</t>
-  </si>
-  <si>
-    <t>* Wörter finden</t>
-  </si>
-  <si>
-    <t>Trova * parole</t>
-  </si>
-  <si>
-    <t>Buscar * palabras</t>
-  </si>
-  <si>
-    <t>task_find_extra</t>
-  </si>
-  <si>
-    <t>Find * extra words</t>
-  </si>
-  <si>
-    <t>Fazladan * kelime bulun</t>
-  </si>
-  <si>
-    <t>Trouvez * mots supplémentaires</t>
-  </si>
-  <si>
-    <t>* zusätzliche Wörter finden</t>
-  </si>
-  <si>
-    <t>Trova * parole extra</t>
-  </si>
-  <si>
-    <t>Buscar * palabras adicionales</t>
-  </si>
-  <si>
-    <t>task_reveal</t>
-  </si>
-  <si>
-    <t>Reveal * letters</t>
-  </si>
-  <si>
-    <t>* harfi açığa çıkar</t>
-  </si>
-  <si>
-    <t>Révéler * lettres</t>
-  </si>
-  <si>
-    <t>* Buchstaben aufdecken</t>
-  </si>
-  <si>
-    <t>Rivela * lettere</t>
-  </si>
-  <si>
-    <t>Revelar * letras</t>
-  </si>
-  <si>
-    <t>task_complete</t>
-  </si>
-  <si>
-    <t>Complete * levels</t>
-  </si>
-  <si>
-    <t>* seviyeyi tamamlayın</t>
-  </si>
-  <si>
-    <t>Terminer * niveaux</t>
-  </si>
-  <si>
-    <t>* Level abschließen</t>
-  </si>
-  <si>
-    <t>Completare * livelli</t>
-  </si>
-  <si>
-    <t>Completa * niveles</t>
-  </si>
-  <si>
-    <t>task_complete_flawless_levels</t>
-  </si>
-  <si>
-    <t>Complete * flawless levels</t>
-  </si>
-  <si>
-    <t>* kusursuz seviyeyi tamamlayın</t>
-  </si>
-  <si>
-    <t>Terminez * niveaux sans faute</t>
-  </si>
-  <si>
-    <t>Schließe * makellose Level ab</t>
-  </si>
-  <si>
-    <t>Completa * livelli impeccabili</t>
-  </si>
-  <si>
-    <t>Completa * niveles impecables</t>
-  </si>
-  <si>
-    <t>task_find_correct_words_in_a_row</t>
-  </si>
-  <si>
-    <t>Find * correct words in a row</t>
-  </si>
-  <si>
-    <t>Arka arkaya * doğru kelime bulun</t>
-  </si>
-  <si>
-    <t>Trouver * mots corrects à la suite</t>
-  </si>
-  <si>
-    <t>Finde * richtige Wörter in einer Reihe</t>
-  </si>
-  <si>
-    <t>Trova * parole corrette in fila</t>
-  </si>
-  <si>
-    <t>Encuentra * palabras correctas seguidas</t>
-  </si>
-  <si>
-    <t>task_use_hint</t>
-  </si>
-  <si>
-    <t>Use * hints</t>
-  </si>
-  <si>
-    <t>* ipucu kullanın</t>
-  </si>
-  <si>
-    <t>Utiliser * indices</t>
-  </si>
-  <si>
-    <t>* Hinweise verwenden</t>
-  </si>
-  <si>
-    <t>Utilizzare * suggerimenti</t>
-  </si>
-  <si>
-    <t>Utilizar * sugerencias</t>
-  </si>
-  <si>
-    <t>task_complete_level_without_using_a_hint</t>
-  </si>
-  <si>
-    <t>Complete * level without using a hint</t>
-  </si>
-  <si>
-    <t>İpucu kullanmadan * seviyeyi tamamlayın</t>
-  </si>
-  <si>
-    <t>Terminer * niveaux sans utiliser d'indice</t>
-  </si>
-  <si>
-    <t>Schließe * Level ab, ohne einen Hinweis zu benutzen</t>
-  </si>
-  <si>
-    <t>Completate * il livello senza usare un suggerimento</t>
-  </si>
-  <si>
-    <t>Completa * un nivel sin usar una pista</t>
-  </si>
-  <si>
-    <t>task_earn_gold</t>
-  </si>
-  <si>
-    <t>Earn * gold</t>
-  </si>
-  <si>
-    <t>* altın kazanın</t>
-  </si>
-  <si>
-    <t>Gagner * pièces d'or</t>
-  </si>
-  <si>
-    <t>Verdiene * Gold</t>
-  </si>
-  <si>
-    <t>Guadagnare * oro</t>
-  </si>
-  <si>
-    <t>Gana * oro</t>
-  </si>
-  <si>
-    <t>task_spend_gold</t>
-  </si>
-  <si>
-    <t>Spend * gold</t>
-  </si>
-  <si>
-    <t>* altın harcayın</t>
-  </si>
-  <si>
-    <t>Dépenser * pièces d'or</t>
-  </si>
-  <si>
-    <t>* Gold ausgeben</t>
-  </si>
-  <si>
-    <t>Spendere * oro</t>
-  </si>
-  <si>
-    <t>Gastar * oro</t>
-  </si>
-  <si>
-    <t>task_earn_energy</t>
-  </si>
-  <si>
-    <t>Earn * energy</t>
-  </si>
-  <si>
-    <t>* enerji kazanın</t>
-  </si>
-  <si>
-    <t>Gagnez * euros d'énergie</t>
-  </si>
-  <si>
-    <t>* Energie verdienen</t>
-  </si>
-  <si>
-    <t>Guadagnare * energia</t>
-  </si>
-  <si>
-    <t>Gana * energía</t>
-  </si>
-  <si>
-    <t>task_spend_energy</t>
-  </si>
-  <si>
-    <t>Spend * energy</t>
-  </si>
-  <si>
-    <t>* enerji harcayın</t>
-  </si>
-  <si>
-    <t>Dépenser * énergies</t>
-  </si>
-  <si>
-    <t>* Energie ausgeben</t>
-  </si>
-  <si>
-    <t>Spesa * energia</t>
-  </si>
-  <si>
-    <t>Gasto * energía</t>
-  </si>
-  <si>
-    <t>task_collect_keys</t>
-  </si>
-  <si>
-    <t>Collect * keys</t>
-  </si>
-  <si>
-    <t>* anahtar toplayın</t>
-  </si>
-  <si>
-    <t>Collecter * clés</t>
-  </si>
-  <si>
-    <t>* Schlüssel sammeln</t>
-  </si>
-  <si>
-    <t>Raccogliere * chiavi</t>
-  </si>
-  <si>
-    <t>Recoger * llaves</t>
-  </si>
-  <si>
-    <t>task_open_chest</t>
-  </si>
-  <si>
-    <t>Open * chests</t>
-  </si>
-  <si>
-    <t>* sandık aç</t>
-  </si>
-  <si>
-    <t>Ouvrir * coffres</t>
-  </si>
-  <si>
-    <t>* Truhen öffnen</t>
-  </si>
-  <si>
-    <t>Aprire * forzieri</t>
-  </si>
-  <si>
-    <t>Abrir * cofres</t>
-  </si>
-  <si>
-    <t>task_open_premium_chests</t>
-  </si>
-  <si>
-    <t>Open * premium chests</t>
-  </si>
-  <si>
-    <t>* premium sandığı açın</t>
-  </si>
-  <si>
-    <t>Ouvrez * coffres à primes</t>
-  </si>
-  <si>
-    <t>* Prämientruhen öffnen</t>
-  </si>
-  <si>
-    <t>Forzieri aperti * premium</t>
-  </si>
-  <si>
-    <t>Abrir * cofres premium</t>
-  </si>
-  <si>
-    <t>task_complete_rooms</t>
-  </si>
-  <si>
-    <t>Complete * rooms</t>
-  </si>
-  <si>
-    <t>* odayı tamamlayın</t>
-  </si>
-  <si>
-    <t>Compléter * pièces</t>
-  </si>
-  <si>
-    <t>* Räume vervollständigen</t>
-  </si>
-  <si>
-    <t>Camere complete *</t>
-  </si>
-  <si>
-    <t>Habitaciones * completas</t>
-  </si>
-  <si>
-    <t>task_place_furniture_items</t>
-  </si>
-  <si>
-    <t>Place * furniture items</t>
-  </si>
-  <si>
-    <t>* mobilya öğesi yerleştirin</t>
-  </si>
-  <si>
-    <t>Placer * meubles</t>
-  </si>
-  <si>
-    <t>* Möbelstücke platzieren</t>
-  </si>
-  <si>
-    <t>Posizionare * elementi di arredo</t>
-  </si>
-  <si>
-    <t>Colocar * muebles</t>
-  </si>
-  <si>
-    <t>task_add_decoration_objects</t>
-  </si>
-  <si>
-    <t>Add * decoration objects</t>
-  </si>
-  <si>
-    <t>* dekorasyon nesnesi ekleyin</t>
-  </si>
-  <si>
-    <t>Ajouter * objets de décoration</t>
-  </si>
-  <si>
-    <t>* Dekorationsobjekte hinzufügen</t>
-  </si>
-  <si>
-    <t>Aggiungere * oggetti di decorazione</t>
-  </si>
-  <si>
-    <t>Añadir * objetos de decoración</t>
-  </si>
-  <si>
-    <t>task_earn_stars</t>
-  </si>
-  <si>
-    <t>Earn * stars</t>
-  </si>
-  <si>
-    <t>* yıldız kazanın</t>
-  </si>
-  <si>
-    <t>Gagner * étoiles</t>
-  </si>
-  <si>
-    <t>* Sterne verdienen</t>
-  </si>
-  <si>
-    <t>Guadagnare * stelle</t>
-  </si>
-  <si>
-    <t>Gana * estrellas</t>
-  </si>
-  <si>
-    <t>task_log_in_for_days</t>
-  </si>
-  <si>
-    <t>Log in for * days</t>
-  </si>
-  <si>
-    <t>* gün boyunca oturum açın</t>
-  </si>
-  <si>
-    <t>Se connecter pendant * jours</t>
-  </si>
-  <si>
-    <t>Anmeldung für * Tage</t>
-  </si>
-  <si>
-    <t>Accesso per * giorni</t>
-  </si>
-  <si>
-    <t>Inicio de sesión durante * días</t>
-  </si>
-  <si>
-    <t>task_invite</t>
-  </si>
-  <si>
-    <t>Invite * friends</t>
-  </si>
-  <si>
-    <t>* arkadaşınızı davet edin</t>
-  </si>
-  <si>
-    <t>Inviter * amis</t>
-  </si>
-  <si>
-    <t>* Freunde einladen</t>
-  </si>
-  <si>
-    <t>Invitare * amici</t>
-  </si>
-  <si>
-    <t>Invitar a * amigos</t>
-  </si>
-  <si>
-    <t>task_share</t>
-  </si>
-  <si>
-    <t>Share * scores</t>
-  </si>
-  <si>
-    <t>* skoru paylaşın</t>
-  </si>
-  <si>
-    <t>Partager * notes</t>
-  </si>
-  <si>
-    <t>Teilen Sie * Partituren</t>
-  </si>
-  <si>
-    <t>Condividi * punteggi</t>
-  </si>
-  <si>
-    <t>Compartir * resultados</t>
-  </si>
-  <si>
-    <t>task_spin_the_slot</t>
-  </si>
-  <si>
-    <t>Spin the slot * times</t>
-  </si>
-  <si>
-    <t>Slotu * kez döndürün</t>
-  </si>
-  <si>
-    <t>Faire tourner la machine à sous * fois</t>
-  </si>
-  <si>
-    <t>Drehen Sie den Schlitz * Mal</t>
-  </si>
-  <si>
-    <t>Far girare la slot * volte</t>
-  </si>
-  <si>
-    <t>Gira la tragaperras * veces</t>
-  </si>
-  <si>
-    <t>task_earn_rewards_from_the_slot</t>
-  </si>
-  <si>
-    <t>Earn * rewards from the slot</t>
-  </si>
-  <si>
-    <t>Slottan * ödül kazanın</t>
-  </si>
-  <si>
-    <t>Gagnez * récompenses grâce à la machine à sous</t>
-  </si>
-  <si>
-    <t>Verdiene * Belohnungen am Spielautomaten</t>
-  </si>
-  <si>
-    <t>Guadagnare * premi dalla slot</t>
-  </si>
-  <si>
-    <t>Gana * premios con la tragaperras</t>
-  </si>
-  <si>
-    <t>task_throw_darts</t>
-  </si>
-  <si>
-    <t>Throw * darts</t>
-  </si>
-  <si>
-    <t>* dart atın</t>
-  </si>
-  <si>
-    <t>Lancer * fléchettes</t>
-  </si>
-  <si>
-    <t>Wirf * Darts</t>
-  </si>
-  <si>
-    <t>Lancia * freccette</t>
-  </si>
-  <si>
-    <t>Lanzar * dardos</t>
-  </si>
-  <si>
-    <t>task_earn_rewards_from_darts</t>
-  </si>
-  <si>
-    <t>Earn * rewards from darts</t>
-  </si>
-  <si>
-    <t>Darttan * ödül kazanın</t>
-  </si>
-  <si>
-    <t>Obtenez * récompenses grâce aux fléchettes</t>
-  </si>
-  <si>
-    <t>Verdiene * Belohnungen mit Darts</t>
-  </si>
-  <si>
-    <t>Guadagnare * premi con le freccette</t>
-  </si>
-  <si>
-    <t>Gana * recompensas con los dardos</t>
-  </si>
-  <si>
-    <t>task_hit_consecutive_shots_in_darts</t>
-  </si>
-  <si>
-    <t>Hit * consecutive shots in darts</t>
-  </si>
-  <si>
-    <t>Dartta art arda * atış yapmak</t>
-  </si>
-  <si>
-    <t>Réussir * tirs consécutifs aux fléchettes</t>
-  </si>
-  <si>
-    <t>* aufeinanderfolgende Schüsse im Darts treffen</t>
-  </si>
-  <si>
-    <t>Colpire * colpi consecutivi a freccette</t>
-  </si>
-  <si>
-    <t>Acierta * tiros consecutivos en dardos</t>
-  </si>
-  <si>
-    <t>task_spin_the_wheel_times</t>
-  </si>
-  <si>
-    <t>Spin the wheel * times</t>
-  </si>
-  <si>
-    <t>Çarkı * kez çevirin</t>
-  </si>
-  <si>
-    <t>Faire tourner la roue * fois</t>
-  </si>
-  <si>
-    <t>Drehen Sie das Rad * Mal</t>
-  </si>
-  <si>
-    <t>Gira la ruota * volte</t>
-  </si>
-  <si>
-    <t>Gira la ruleta * veces</t>
-  </si>
-  <si>
-    <t>task_earn_rewards_from_the_wheel</t>
-  </si>
-  <si>
-    <t>Earn * rewards from the wheel</t>
-  </si>
-  <si>
-    <t>Çarktan * ödül kazanın</t>
-  </si>
-  <si>
-    <t>Obtenez * récompenses grâce à la roue</t>
-  </si>
-  <si>
-    <t>Verdiene * Belohnungen mit dem Rad</t>
-  </si>
-  <si>
-    <t>Guadagnare * premi dalla ruota</t>
-  </si>
-  <si>
-    <t>Gana * premios con la rueda</t>
-  </si>
-  <si>
-    <t>task_complete_mini_games</t>
-  </si>
-  <si>
-    <t>Complete * mini games</t>
-  </si>
-  <si>
-    <t>* mini oyunu tamamlayın</t>
-  </si>
-  <si>
-    <t>Terminez * mini-jeux</t>
-  </si>
-  <si>
-    <t>Schließe * Minispiele ab</t>
-  </si>
-  <si>
-    <t>Completare * mini giochi</t>
-  </si>
-  <si>
-    <t>Completa * minijuegos</t>
-  </si>
-  <si>
-    <t>task_spend_mini_game_tokens</t>
-  </si>
-  <si>
-    <t>Spend * mini game tokens</t>
-  </si>
-  <si>
-    <t>* mini oyun jetonu harcayın</t>
-  </si>
-  <si>
-    <t>Dépenser * jetons de mini-jeu</t>
-  </si>
-  <si>
-    <t>* Minispielmarken ausgeben</t>
-  </si>
-  <si>
-    <t>Spendere * gettoni del mini gioco</t>
-  </si>
-  <si>
-    <t>Gastar * fichas de minijuego</t>
-  </si>
-  <si>
-    <t>task_earn_rewards_from_mini_games</t>
-  </si>
-  <si>
-    <t>Earn * rewards from mini games</t>
-  </si>
-  <si>
-    <t>Mini oyunlardan * ödül kazanın</t>
-  </si>
-  <si>
-    <t>Gagnez * récompenses grâce aux mini-jeux</t>
-  </si>
-  <si>
-    <t>Verdiene * Belohnungen aus Minispielen</t>
-  </si>
-  <si>
-    <t>Guadagnare * premi dai mini giochi</t>
-  </si>
-  <si>
-    <t>Gana * recompensas con los minijuegos</t>
-  </si>
-  <si>
-    <t>task_claim_daily_reward_times</t>
-  </si>
-  <si>
-    <t>Claim daily reward * times</t>
-  </si>
-  <si>
-    <t>Günlük ödülü * kez talep edin</t>
-  </si>
-  <si>
-    <t>Réclamer * fois la récompense quotidienne</t>
-  </si>
-  <si>
-    <t>Tägliche Belohnung * Mal beanspruchen</t>
-  </si>
-  <si>
-    <t>Richiedere il premio giornaliero * volte</t>
-  </si>
-  <si>
-    <t>Reclamar la recompensa diaria * veces</t>
-  </si>
-  <si>
-    <t>task_claim_weekly_reward_times</t>
-  </si>
-  <si>
-    <t>Claim weekly reward * times</t>
-  </si>
-  <si>
-    <t>Haftalık ödülü * kez talep edin</t>
-  </si>
-  <si>
-    <t>Réclamer * fois la récompense hebdomadaire</t>
-  </si>
-  <si>
-    <t>Wöchentliche Belohnung * Mal beanspruchen</t>
-  </si>
-  <si>
-    <t>Richiedere il premio settimanale * volte</t>
-  </si>
-  <si>
-    <t>Reclamar la recompensa semanal * veces</t>
-  </si>
-  <si>
-    <t>task_claim_hourly_reward_times</t>
-  </si>
-  <si>
-    <t>Claim hourly reward * times</t>
-  </si>
-  <si>
-    <t>Saatlik ödülü * kez talep edin</t>
-  </si>
-  <si>
-    <t>Réclamer la récompense horaire * fois</t>
-  </si>
-  <si>
-    <t>* Mal stündliche Belohnung beanspruchen</t>
-  </si>
-  <si>
-    <t>Richiedere la ricompensa oraria * volte</t>
-  </si>
-  <si>
-    <t>Reclamar recompensa horaria * veces</t>
-  </si>
-  <si>
-    <t>task_open_different_types_of_chests</t>
-  </si>
-  <si>
-    <t>Open * different types of chests</t>
-  </si>
-  <si>
-    <t>* farklı türde sandık açın</t>
-  </si>
-  <si>
-    <t>Ouvrez * types de coffres différents</t>
-  </si>
-  <si>
-    <t>Öffne * verschiedene Arten von Truhen</t>
-  </si>
-  <si>
-    <t>Aprire * diversi tipi di forzieri</t>
-  </si>
-  <si>
-    <t>Abrir * diferentes tipos de cofres</t>
-  </si>
-  <si>
-    <t>task_play_different_mini_games</t>
-  </si>
-  <si>
-    <t>Play * different mini games</t>
-  </si>
-  <si>
-    <t>* farklı mini oyun oynayın</t>
-  </si>
-  <si>
-    <t>Jouez à * mini-jeux différents</t>
-  </si>
-  <si>
-    <t>Spiele * verschiedene Minispiele</t>
-  </si>
-  <si>
-    <t>Gioca a * diversi mini giochi</t>
-  </si>
-  <si>
-    <t>Juega a * minijuegos diferentes</t>
-  </si>
-  <si>
-    <t>task_complete_task</t>
-  </si>
-  <si>
-    <t>Complete * tasks</t>
-  </si>
-  <si>
-    <t>* görevi tamamlayın</t>
-  </si>
-  <si>
-    <t>Effectuer * tâches</t>
-  </si>
-  <si>
-    <t>* Aufgaben erledigen</t>
-  </si>
-  <si>
-    <t>Completare i * compiti</t>
-  </si>
-  <si>
-    <t>Completar * tareas</t>
-  </si>
-  <si>
-    <t>task_spend_stars</t>
-  </si>
-  <si>
-    <t>Spend * stars for rooms</t>
-  </si>
-  <si>
-    <t>Odalar için * yıldız harcayın</t>
-  </si>
-  <si>
-    <t>Dépenser * étoiles pour les chambres</t>
-  </si>
-  <si>
-    <t>Geben Sie * Sterne für Zimmer aus</t>
-  </si>
-  <si>
-    <t>Spendere * stelle per le camere</t>
-  </si>
-  <si>
-    <t>Gastar * estrellas para las habitaciones</t>
-  </si>
-  <si>
     <t>throw</t>
   </si>
   <si>
@@ -2275,6 +1456,1317 @@
   </si>
   <si>
     <t>Segundo</t>
+  </si>
+  <si>
+    <t>Word Storm</t>
+  </si>
+  <si>
+    <t>Kelime Fırtınası</t>
+  </si>
+  <si>
+    <t>Tempête de Mots</t>
+  </si>
+  <si>
+    <t>Wortsturm</t>
+  </si>
+  <si>
+    <t>Tempesta di Parole</t>
+  </si>
+  <si>
+    <t>Tormenta de Palabras</t>
+  </si>
+  <si>
+    <t>Saniyelik Şans</t>
+  </si>
+  <si>
+    <t>Second Chance</t>
+  </si>
+  <si>
+    <t>Chance Éclair</t>
+  </si>
+  <si>
+    <t>Sekunden-Glück</t>
+  </si>
+  <si>
+    <t>Fortuna Lampo</t>
+  </si>
+  <si>
+    <t>Suerte Rápida</t>
+  </si>
+  <si>
+    <t>Mini Meydan Okuma</t>
+  </si>
+  <si>
+    <t>Harf Koşusu</t>
+  </si>
+  <si>
+    <t>Kısa Mola Görevi</t>
+  </si>
+  <si>
+    <t>Saatlik Harf Macerası</t>
+  </si>
+  <si>
+    <t>Kelimatik Görevler</t>
+  </si>
+  <si>
+    <t>Zamanın Oyunu</t>
+  </si>
+  <si>
+    <t>Harf Maratonu</t>
+  </si>
+  <si>
+    <t>Kelime Yağmuru</t>
+  </si>
+  <si>
+    <t>Mini Challenge</t>
+  </si>
+  <si>
+    <t>Letter Dash</t>
+  </si>
+  <si>
+    <t>Coffee Break Quest</t>
+  </si>
+  <si>
+    <t>Hourly Letter Adventure</t>
+  </si>
+  <si>
+    <t>Wordmatic Tasks</t>
+  </si>
+  <si>
+    <t>Game of Time</t>
+  </si>
+  <si>
+    <t>Letter Marathon</t>
+  </si>
+  <si>
+    <t>Word Rain</t>
+  </si>
+  <si>
+    <t>Mini Défi</t>
+  </si>
+  <si>
+    <t>Course aux Lettres</t>
+  </si>
+  <si>
+    <t>Pause Café</t>
+  </si>
+  <si>
+    <t>Aventure de Lettres Horaire</t>
+  </si>
+  <si>
+    <t>Missions Mots-matiques</t>
+  </si>
+  <si>
+    <t>Jeu du Temps</t>
+  </si>
+  <si>
+    <t>Marathon de Lettres</t>
+  </si>
+  <si>
+    <t>Pluie de Mots</t>
+  </si>
+  <si>
+    <t>Mini-Herausforderung</t>
+  </si>
+  <si>
+    <t>Buchstabenlauf</t>
+  </si>
+  <si>
+    <t>Kaffeepause-Aufgabe</t>
+  </si>
+  <si>
+    <t>Stündliches Buchstabenabenteuer</t>
+  </si>
+  <si>
+    <t>Wortmatik-Aufgaben</t>
+  </si>
+  <si>
+    <t>Spiel der Zeit</t>
+  </si>
+  <si>
+    <t>Buchstabenmarathon</t>
+  </si>
+  <si>
+    <t>Wortregen</t>
+  </si>
+  <si>
+    <t>Mini Sfida</t>
+  </si>
+  <si>
+    <t>Corsa alle Lettere</t>
+  </si>
+  <si>
+    <t>Missione Caffè</t>
+  </si>
+  <si>
+    <t>Avventura a Lettere Oraria</t>
+  </si>
+  <si>
+    <t>Missioni Parolmatiche</t>
+  </si>
+  <si>
+    <t>Gioco del Tempo</t>
+  </si>
+  <si>
+    <t>Maratona di Lettere</t>
+  </si>
+  <si>
+    <t>Pioggia di Parole</t>
+  </si>
+  <si>
+    <t>Mini Desafío</t>
+  </si>
+  <si>
+    <t>Carrera de Letras</t>
+  </si>
+  <si>
+    <t>Misión de Café</t>
+  </si>
+  <si>
+    <t>Aventura de Letras por Hora</t>
+  </si>
+  <si>
+    <t>Misiones Palabramáticas</t>
+  </si>
+  <si>
+    <t>Juego del Tiempo</t>
+  </si>
+  <si>
+    <t>Maratón de Letras</t>
+  </si>
+  <si>
+    <t>Lluvia de Palabras</t>
+  </si>
+  <si>
+    <t>daily_challenge_title</t>
+  </si>
+  <si>
+    <t>weekly_word_master_title</t>
+  </si>
+  <si>
+    <t>Word Hunt of the Day</t>
+  </si>
+  <si>
+    <t>Morning Words</t>
+  </si>
+  <si>
+    <t>Daily Challenge</t>
+  </si>
+  <si>
+    <t>Routine Tasks</t>
+  </si>
+  <si>
+    <t>Word Ritual</t>
+  </si>
+  <si>
+    <t>Hero of the Week</t>
+  </si>
+  <si>
+    <t>Word Marathon</t>
+  </si>
+  <si>
+    <t>Weeklong Challenge</t>
+  </si>
+  <si>
+    <t>Word Master</t>
+  </si>
+  <si>
+    <t>Collection Week</t>
+  </si>
+  <si>
+    <t>Günün Kelime Avı</t>
+  </si>
+  <si>
+    <t>Sabah Sözcükleri</t>
+  </si>
+  <si>
+    <t>Günlük Meydan Okuma</t>
+  </si>
+  <si>
+    <t>Rutin Görevler</t>
+  </si>
+  <si>
+    <t>Kelime Ritüeli</t>
+  </si>
+  <si>
+    <t>Haftanın Kahramanı</t>
+  </si>
+  <si>
+    <t>Kelime Maratonu</t>
+  </si>
+  <si>
+    <t>Hafta Boyu Meydan Okuma</t>
+  </si>
+  <si>
+    <t>Sözcük Ustası</t>
+  </si>
+  <si>
+    <t>Koleksiyon Haftası</t>
+  </si>
+  <si>
+    <t>Chasse aux Mots du Jour</t>
+  </si>
+  <si>
+    <t>Mots du Matin</t>
+  </si>
+  <si>
+    <t>Défi Quotidien</t>
+  </si>
+  <si>
+    <t>Tâches de Routine</t>
+  </si>
+  <si>
+    <t>Rituel des Mots</t>
+  </si>
+  <si>
+    <t>Héros de la Semaine</t>
+  </si>
+  <si>
+    <t>Marathon de Mots</t>
+  </si>
+  <si>
+    <t>Défi de la Semaine</t>
+  </si>
+  <si>
+    <t>Maître des Mots</t>
+  </si>
+  <si>
+    <t>Semaine de Collection</t>
+  </si>
+  <si>
+    <t>Caccia Parole del Giorno</t>
+  </si>
+  <si>
+    <t>Parole del Mattino</t>
+  </si>
+  <si>
+    <t>Sfida Giornaliera</t>
+  </si>
+  <si>
+    <t>Missioni di Routine</t>
+  </si>
+  <si>
+    <t>Rituale di Parole</t>
+  </si>
+  <si>
+    <t>Eroe della Settimana</t>
+  </si>
+  <si>
+    <t>Maratona di Parole</t>
+  </si>
+  <si>
+    <t>Sfida Settimanale</t>
+  </si>
+  <si>
+    <t>Maestro delle Parole</t>
+  </si>
+  <si>
+    <t>Settimana della Collezione</t>
+  </si>
+  <si>
+    <t>Wortjagd des Tages</t>
+  </si>
+  <si>
+    <t>Morgenwörter</t>
+  </si>
+  <si>
+    <t>Tägliche Herausforderung</t>
+  </si>
+  <si>
+    <t>Routineaufgaben</t>
+  </si>
+  <si>
+    <t>Wortritual</t>
+  </si>
+  <si>
+    <t>Held der Woche</t>
+  </si>
+  <si>
+    <t>Wortmarathon</t>
+  </si>
+  <si>
+    <t>Wöchentliche Herausforderung</t>
+  </si>
+  <si>
+    <t>Wortmeister</t>
+  </si>
+  <si>
+    <t>Sammlungswoche</t>
+  </si>
+  <si>
+    <t>Caza de Palabras del Día</t>
+  </si>
+  <si>
+    <t>Palabras Matutinas</t>
+  </si>
+  <si>
+    <t>Desafío Diario</t>
+  </si>
+  <si>
+    <t>Tareas de Rutina</t>
+  </si>
+  <si>
+    <t>Ritual de Palabras</t>
+  </si>
+  <si>
+    <t>Héroe de la Semana</t>
+  </si>
+  <si>
+    <t>Maratón de Palabras</t>
+  </si>
+  <si>
+    <t>Desafío Semanal</t>
+  </si>
+  <si>
+    <t>Maestro de Palabras</t>
+  </si>
+  <si>
+    <t>Semana de Colección</t>
+  </si>
+  <si>
+    <t>flash_quest</t>
+  </si>
+  <si>
+    <t>Flash Quest</t>
+  </si>
+  <si>
+    <t>Hızlı Görev</t>
+  </si>
+  <si>
+    <t>Quête Éclair</t>
+  </si>
+  <si>
+    <t>Misión Relámpago</t>
+  </si>
+  <si>
+    <t>Missione Lampo</t>
+  </si>
+  <si>
+    <t>hourly_challenge</t>
+  </si>
+  <si>
+    <t>Saatlik Mücadele</t>
+  </si>
+  <si>
+    <t>Hourly Challenge</t>
+  </si>
+  <si>
+    <t>Sfida Oraria</t>
+  </si>
+  <si>
+    <t>Défi Horaire</t>
+  </si>
+  <si>
+    <t>Stündliche Herausforderung</t>
+  </si>
+  <si>
+    <t>Desafío por Hora</t>
+  </si>
+  <si>
+    <t>daily_challenge</t>
+  </si>
+  <si>
+    <t>Günlük Mücadele</t>
+  </si>
+  <si>
+    <t>weekly_challenge</t>
+  </si>
+  <si>
+    <t>Haftalık Mücadele</t>
+  </si>
+  <si>
+    <t>Weekly Challenge</t>
+  </si>
+  <si>
+    <t>Défi Hebdomadaire</t>
+  </si>
+  <si>
+    <t>open_letters</t>
+  </si>
+  <si>
+    <t>find_word</t>
+  </si>
+  <si>
+    <t>find_extra_word</t>
+  </si>
+  <si>
+    <t>complete_level</t>
+  </si>
+  <si>
+    <t>complete_no_mistake</t>
+  </si>
+  <si>
+    <t>use_hint</t>
+  </si>
+  <si>
+    <t>use_hammer</t>
+  </si>
+  <si>
+    <t>use_hint_multi</t>
+  </si>
+  <si>
+    <t>complete_flash_quest</t>
+  </si>
+  <si>
+    <t>complete_hourly_challenge</t>
+  </si>
+  <si>
+    <t>complete_daily_challenge</t>
+  </si>
+  <si>
+    <t>play_minigame</t>
+  </si>
+  <si>
+    <t>win_minigame_reward</t>
+  </si>
+  <si>
+    <t>throw_dart</t>
+  </si>
+  <si>
+    <t>win_dart</t>
+  </si>
+  <si>
+    <t>win_disk</t>
+  </si>
+  <si>
+    <t>use_disk_plinko</t>
+  </si>
+  <si>
+    <t>play_claw_machine</t>
+  </si>
+  <si>
+    <t>earn_token</t>
+  </si>
+  <si>
+    <t>spin_luck_wheel</t>
+  </si>
+  <si>
+    <t>earn_clover</t>
+  </si>
+  <si>
+    <t>play_slot_machine</t>
+  </si>
+  <si>
+    <t>earn_chip</t>
+  </si>
+  <si>
+    <t>play_treasure_hunt</t>
+  </si>
+  <si>
+    <t>earn_key</t>
+  </si>
+  <si>
+    <t>earn_star</t>
+  </si>
+  <si>
+    <t>spend_star</t>
+  </si>
+  <si>
+    <t>complete_room</t>
+  </si>
+  <si>
+    <t>earn_coin</t>
+  </si>
+  <si>
+    <t>open_chest</t>
+  </si>
+  <si>
+    <t>open_bronze_chest</t>
+  </si>
+  <si>
+    <t>open_silver_chest</t>
+  </si>
+  <si>
+    <t>open_gold_chest</t>
+  </si>
+  <si>
+    <t>open_bronze_star_chest</t>
+  </si>
+  <si>
+    <t>open_silver_star_chest</t>
+  </si>
+  <si>
+    <t>open_gold_star_chest</t>
+  </si>
+  <si>
+    <t>throw_dart_in_game</t>
+  </si>
+  <si>
+    <t>drop_disk_in_game</t>
+  </si>
+  <si>
+    <t>spend_clover_in_game</t>
+  </si>
+  <si>
+    <t>spend_chip_in_game</t>
+  </si>
+  <si>
+    <t>* harf aç.</t>
+  </si>
+  <si>
+    <t>* kelime bul.</t>
+  </si>
+  <si>
+    <t>* ekstra kelime bul.</t>
+  </si>
+  <si>
+    <t>* seviye tamamla.</t>
+  </si>
+  <si>
+    <t>Yanlış seçim yapmadan * level tamamla.</t>
+  </si>
+  <si>
+    <t>* ipucu kullan.</t>
+  </si>
+  <si>
+    <t>* hammer kullan.</t>
+  </si>
+  <si>
+    <t>* levelde birden fazla ipucu kullan.</t>
+  </si>
+  <si>
+    <t>* flash quest tamamla.</t>
+  </si>
+  <si>
+    <t>* hourly challenge tamamla.</t>
+  </si>
+  <si>
+    <t>* daily challenge tamamla.</t>
+  </si>
+  <si>
+    <t>* mini oyun oyna.</t>
+  </si>
+  <si>
+    <t>* mini oyunda ödül kazan.</t>
+  </si>
+  <si>
+    <t>* dart fırlat.</t>
+  </si>
+  <si>
+    <t>* dart kazan.</t>
+  </si>
+  <si>
+    <t>* disk kazan.</t>
+  </si>
+  <si>
+    <t>Plinkoda * disk kullan.</t>
+  </si>
+  <si>
+    <t>* kez claw machine oyna.</t>
+  </si>
+  <si>
+    <t>* token kazan.</t>
+  </si>
+  <si>
+    <t>* luck wheel çevir.</t>
+  </si>
+  <si>
+    <t>* clover kazan.</t>
+  </si>
+  <si>
+    <t>* kez slot machine oyna.</t>
+  </si>
+  <si>
+    <t>* chip kazan.</t>
+  </si>
+  <si>
+    <t>* kez treasure hunt oyna.</t>
+  </si>
+  <si>
+    <t>* key kazan.</t>
+  </si>
+  <si>
+    <t>* yıldız kazan.</t>
+  </si>
+  <si>
+    <t>* yıldız harca.</t>
+  </si>
+  <si>
+    <t>* oda tamamla.</t>
+  </si>
+  <si>
+    <t>* coin kazan.</t>
+  </si>
+  <si>
+    <t>* sandık aç.</t>
+  </si>
+  <si>
+    <t>* bronz sandık aç.</t>
+  </si>
+  <si>
+    <t>* gümüş sandık aç.</t>
+  </si>
+  <si>
+    <t>* altın sandık aç.</t>
+  </si>
+  <si>
+    <t>* bronz yıldız sandığı aç.</t>
+  </si>
+  <si>
+    <t>* gümüş yıldız sandığı aç.</t>
+  </si>
+  <si>
+    <t>* altın yıldız sandığı aç.</t>
+  </si>
+  <si>
+    <t>Bir oyunda * dart fırlat.</t>
+  </si>
+  <si>
+    <t>Bir oyunda * disk bırak.</t>
+  </si>
+  <si>
+    <t>Bir oyunda * chip harca.</t>
+  </si>
+  <si>
+    <t>Open * letters.</t>
+  </si>
+  <si>
+    <t>Find * words.</t>
+  </si>
+  <si>
+    <t>Find * extra words.</t>
+  </si>
+  <si>
+    <t>Complete * levels.</t>
+  </si>
+  <si>
+    <t>Complete * levels without mistakes.</t>
+  </si>
+  <si>
+    <t>Use * hints.</t>
+  </si>
+  <si>
+    <t>Use * hammers.</t>
+  </si>
+  <si>
+    <t>Use more than one hint in * levels.</t>
+  </si>
+  <si>
+    <t>Complete * flash quests.</t>
+  </si>
+  <si>
+    <t>Complete * hourly challenges.</t>
+  </si>
+  <si>
+    <t>Complete * daily challenges.</t>
+  </si>
+  <si>
+    <t>Play * mini games.</t>
+  </si>
+  <si>
+    <t>Win rewards in * mini games.</t>
+  </si>
+  <si>
+    <t>Throw * darts.</t>
+  </si>
+  <si>
+    <t>Win * darts.</t>
+  </si>
+  <si>
+    <t>Win * disks.</t>
+  </si>
+  <si>
+    <t>Use * disks in Plinko.</t>
+  </si>
+  <si>
+    <t>Play the claw machine * times.</t>
+  </si>
+  <si>
+    <t>Earn * tokens.</t>
+  </si>
+  <si>
+    <t>Spin the luck wheel * times.</t>
+  </si>
+  <si>
+    <t>Earn * clovers.</t>
+  </si>
+  <si>
+    <t>Play the slot machine * times.</t>
+  </si>
+  <si>
+    <t>Earn * chips.</t>
+  </si>
+  <si>
+    <t>Play treasure hunt * times.</t>
+  </si>
+  <si>
+    <t>Earn * keys.</t>
+  </si>
+  <si>
+    <t>Earn * stars.</t>
+  </si>
+  <si>
+    <t>Spend * stars.</t>
+  </si>
+  <si>
+    <t>Complete * rooms.</t>
+  </si>
+  <si>
+    <t>Earn * coins.</t>
+  </si>
+  <si>
+    <t>Open * chests.</t>
+  </si>
+  <si>
+    <t>Open * bronze chests.</t>
+  </si>
+  <si>
+    <t>Open * silver chests.</t>
+  </si>
+  <si>
+    <t>Open * gold chests.</t>
+  </si>
+  <si>
+    <t>Open * bronze star chests.</t>
+  </si>
+  <si>
+    <t>Open * silver star chests.</t>
+  </si>
+  <si>
+    <t>Open * gold star chests.</t>
+  </si>
+  <si>
+    <t>Throw * darts in one game.</t>
+  </si>
+  <si>
+    <t>Drop * disks in one game.</t>
+  </si>
+  <si>
+    <t>Spend * clovers in one game.</t>
+  </si>
+  <si>
+    <t>Spend * chips in one game.</t>
+  </si>
+  <si>
+    <t>Ouvre * lettres.</t>
+  </si>
+  <si>
+    <t>Trouve * mots.</t>
+  </si>
+  <si>
+    <t>Trouve * mots supplémentaires.</t>
+  </si>
+  <si>
+    <t>Termine * niveaux.</t>
+  </si>
+  <si>
+    <t>Termine * niveaux sans erreur.</t>
+  </si>
+  <si>
+    <t>Utilise * indices.</t>
+  </si>
+  <si>
+    <t>Utilise * marteaux.</t>
+  </si>
+  <si>
+    <t>Utilise plus d’un indice dans * niveaux.</t>
+  </si>
+  <si>
+    <t>Termine * quêtes flash.</t>
+  </si>
+  <si>
+    <t>Termine * défis horaires.</t>
+  </si>
+  <si>
+    <t>Termine * défis quotidiens.</t>
+  </si>
+  <si>
+    <t>Joue à * mini-jeux.</t>
+  </si>
+  <si>
+    <t>Gagne des récompenses dans * mini-jeux.</t>
+  </si>
+  <si>
+    <t>Lance * fléchettes.</t>
+  </si>
+  <si>
+    <t>Gagne * fléchettes.</t>
+  </si>
+  <si>
+    <t>Gagne * disques.</t>
+  </si>
+  <si>
+    <t>Utilise * disques dans Plinko.</t>
+  </si>
+  <si>
+    <t>Joue à la machine à pince * fois.</t>
+  </si>
+  <si>
+    <t>Gagne * jetons.</t>
+  </si>
+  <si>
+    <t>Fais tourner la roue de la chance * fois.</t>
+  </si>
+  <si>
+    <t>Gagne * trèfles.</t>
+  </si>
+  <si>
+    <t>Joue à la machine à sous * fois.</t>
+  </si>
+  <si>
+    <t>Joue à la chasse au trésor * fois.</t>
+  </si>
+  <si>
+    <t>Gagne * clés.</t>
+  </si>
+  <si>
+    <t>Gagne * étoiles.</t>
+  </si>
+  <si>
+    <t>Dépense * étoiles.</t>
+  </si>
+  <si>
+    <t>Termine * pièces.</t>
+  </si>
+  <si>
+    <t>Gagne * pièces.</t>
+  </si>
+  <si>
+    <t>Ouvre * coffres.</t>
+  </si>
+  <si>
+    <t>Ouvre * coffres en bronze.</t>
+  </si>
+  <si>
+    <t>Ouvre * coffres en argent.</t>
+  </si>
+  <si>
+    <t>Ouvre * coffres en or.</t>
+  </si>
+  <si>
+    <t>Ouvre * coffres étoilés en bronze.</t>
+  </si>
+  <si>
+    <t>Ouvre * coffres étoilés en argent.</t>
+  </si>
+  <si>
+    <t>Ouvre * coffres étoilés en or.</t>
+  </si>
+  <si>
+    <t>Lance * fléchettes dans une partie.</t>
+  </si>
+  <si>
+    <t>Laisse tomber * disques dans une partie.</t>
+  </si>
+  <si>
+    <t>Dépense * trèfles dans une partie.</t>
+  </si>
+  <si>
+    <t>Dépense * jetons dans une partie.</t>
+  </si>
+  <si>
+    <t>Öffne * Buchstaben.</t>
+  </si>
+  <si>
+    <t>Finde * Wörter.</t>
+  </si>
+  <si>
+    <t>Finde * zusätzliche Wörter.</t>
+  </si>
+  <si>
+    <t>Schließe * Level ab.</t>
+  </si>
+  <si>
+    <t>Schließe * Level ohne Fehler ab.</t>
+  </si>
+  <si>
+    <t>Verwende * Hinweise.</t>
+  </si>
+  <si>
+    <t>Verwende * Hämmer.</t>
+  </si>
+  <si>
+    <t>Verwende mehr als einen Hinweis in * Leveln.</t>
+  </si>
+  <si>
+    <t>Schließe * Blitzquests ab.</t>
+  </si>
+  <si>
+    <t>Schließe * stündliche Herausforderungen ab.</t>
+  </si>
+  <si>
+    <t>Schließe * tägliche Herausforderungen ab.</t>
+  </si>
+  <si>
+    <t>Spiele * Minispiele.</t>
+  </si>
+  <si>
+    <t>Gewinne Belohnungen in * Minispielen.</t>
+  </si>
+  <si>
+    <t>Wirf * Pfeile.</t>
+  </si>
+  <si>
+    <t>Gewinne * Pfeile.</t>
+  </si>
+  <si>
+    <t>Gewinne * Scheiben.</t>
+  </si>
+  <si>
+    <t>Verwende * Scheiben in Plinko.</t>
+  </si>
+  <si>
+    <t>Spiele die Greifmaschine * Mal.</t>
+  </si>
+  <si>
+    <t>Verdiene * Token.</t>
+  </si>
+  <si>
+    <t>Drehe das Glücksrad * Mal.</t>
+  </si>
+  <si>
+    <t>Verdiene * Kleeblätter.</t>
+  </si>
+  <si>
+    <t>Spiele den Spielautomaten * Mal.</t>
+  </si>
+  <si>
+    <t>Verdiene * Chips.</t>
+  </si>
+  <si>
+    <t>Spiele die Schatzsuche * Mal.</t>
+  </si>
+  <si>
+    <t>Verdiene * Schlüssel.</t>
+  </si>
+  <si>
+    <t>Verdiene * Sterne.</t>
+  </si>
+  <si>
+    <t>Gib * Sterne aus.</t>
+  </si>
+  <si>
+    <t>Schließe * Räume ab.</t>
+  </si>
+  <si>
+    <t>Verdiene * Münzen.</t>
+  </si>
+  <si>
+    <t>Öffne * Truhen.</t>
+  </si>
+  <si>
+    <t>Öffne * Bronze-Truhen.</t>
+  </si>
+  <si>
+    <t>Öffne * Silber-Truhen.</t>
+  </si>
+  <si>
+    <t>Öffne * Gold-Truhen.</t>
+  </si>
+  <si>
+    <t>Öffne * Bronze-Stern-Truhen.</t>
+  </si>
+  <si>
+    <t>Öffne * Silber-Stern-Truhen.</t>
+  </si>
+  <si>
+    <t>Öffne * Gold-Stern-Truhen.</t>
+  </si>
+  <si>
+    <t>Wirf * Pfeile in einem Spiel.</t>
+  </si>
+  <si>
+    <t>Lass * Scheiben in einem Spiel fallen.</t>
+  </si>
+  <si>
+    <t>Gib * Kleeblätter in einem Spiel aus.</t>
+  </si>
+  <si>
+    <t>Gib * Chips in einem Spiel aus.</t>
+  </si>
+  <si>
+    <t>Apri * lettere.</t>
+  </si>
+  <si>
+    <t>Trova * parole.</t>
+  </si>
+  <si>
+    <t>Trova * parole extra.</t>
+  </si>
+  <si>
+    <t>Completa * livelli.</t>
+  </si>
+  <si>
+    <t>Completa * livelli senza errori.</t>
+  </si>
+  <si>
+    <t>Usa * suggerimenti.</t>
+  </si>
+  <si>
+    <t>Usa * martelli.</t>
+  </si>
+  <si>
+    <t>Usa più di un suggerimento in * livelli.</t>
+  </si>
+  <si>
+    <t>Completa * missioni flash.</t>
+  </si>
+  <si>
+    <t>Completa * sfide orarie.</t>
+  </si>
+  <si>
+    <t>Completa * sfide giornaliere.</t>
+  </si>
+  <si>
+    <t>Gioca a * minigiochi.</t>
+  </si>
+  <si>
+    <t>Vinci ricompense in * minigiochi.</t>
+  </si>
+  <si>
+    <t>Lancia * freccette.</t>
+  </si>
+  <si>
+    <t>Vinci * freccette.</t>
+  </si>
+  <si>
+    <t>Vinci * dischi.</t>
+  </si>
+  <si>
+    <t>Usa * dischi in Plinko.</t>
+  </si>
+  <si>
+    <t>Gioca alla macchina ad artiglio * volte.</t>
+  </si>
+  <si>
+    <t>Guadagna * gettoni.</t>
+  </si>
+  <si>
+    <t>Gira la ruota della fortuna * volte.</t>
+  </si>
+  <si>
+    <t>Guadagna * trifogli.</t>
+  </si>
+  <si>
+    <t>Gioca alla slot machine * volte.</t>
+  </si>
+  <si>
+    <t>Guadagna * chip.</t>
+  </si>
+  <si>
+    <t>Gioca alla caccia al tesoro * volte.</t>
+  </si>
+  <si>
+    <t>Guadagna * chiavi.</t>
+  </si>
+  <si>
+    <t>Guadagna * stelle.</t>
+  </si>
+  <si>
+    <t>Spendi * stelle.</t>
+  </si>
+  <si>
+    <t>Completa * stanze.</t>
+  </si>
+  <si>
+    <t>Guadagna * monete.</t>
+  </si>
+  <si>
+    <t>Apri * scrigni.</t>
+  </si>
+  <si>
+    <t>Apri * scrigni di bronzo.</t>
+  </si>
+  <si>
+    <t>Apri * scrigni d’argento.</t>
+  </si>
+  <si>
+    <t>Apri * scrigni d’oro.</t>
+  </si>
+  <si>
+    <t>Apri * scrigni stellati di bronzo.</t>
+  </si>
+  <si>
+    <t>Apri * scrigni stellati d’argento.</t>
+  </si>
+  <si>
+    <t>Apri * scrigni stellati d’oro.</t>
+  </si>
+  <si>
+    <t>Lancia * freccette in una partita.</t>
+  </si>
+  <si>
+    <t>Lascia cadere * dischi in una partita.</t>
+  </si>
+  <si>
+    <t>Spendi * trifogli in una partita.</t>
+  </si>
+  <si>
+    <t>Spendi * chip in una partita.</t>
+  </si>
+  <si>
+    <t>Abre * letras.</t>
+  </si>
+  <si>
+    <t>Encuentra * palabras.</t>
+  </si>
+  <si>
+    <t>Encuentra * palabras extra.</t>
+  </si>
+  <si>
+    <t>Completa * niveles.</t>
+  </si>
+  <si>
+    <t>Completa * niveles sin errores.</t>
+  </si>
+  <si>
+    <t>Usa * pistas.</t>
+  </si>
+  <si>
+    <t>Usa * martillos.</t>
+  </si>
+  <si>
+    <t>Usa más de una pista en * niveles.</t>
+  </si>
+  <si>
+    <t>Completa * misiones flash.</t>
+  </si>
+  <si>
+    <t>Completa * desafíos por hora.</t>
+  </si>
+  <si>
+    <t>Completa * desafíos diarios.</t>
+  </si>
+  <si>
+    <t>Juega * minijuegos.</t>
+  </si>
+  <si>
+    <t>Gana recompensas en * minijuegos.</t>
+  </si>
+  <si>
+    <t>Lanza * dardos.</t>
+  </si>
+  <si>
+    <t>Gana * dardos.</t>
+  </si>
+  <si>
+    <t>Gana * discos.</t>
+  </si>
+  <si>
+    <t>Usa * discos en Plinko.</t>
+  </si>
+  <si>
+    <t>Juega a la máquina de garra * veces.</t>
+  </si>
+  <si>
+    <t>Gana * fichas.</t>
+  </si>
+  <si>
+    <t>Gira la rueda de la suerte * veces.</t>
+  </si>
+  <si>
+    <t>Gana * tréboles.</t>
+  </si>
+  <si>
+    <t>Juega a la tragamonedas * veces.</t>
+  </si>
+  <si>
+    <t>Juega a la búsqueda del tesoro * veces.</t>
+  </si>
+  <si>
+    <t>Gana * llaves.</t>
+  </si>
+  <si>
+    <t>Gana * estrellas.</t>
+  </si>
+  <si>
+    <t>Gasta * estrellas.</t>
+  </si>
+  <si>
+    <t>Completa * habitaciones.</t>
+  </si>
+  <si>
+    <t>Gana * monedas.</t>
+  </si>
+  <si>
+    <t>Abre * cofres.</t>
+  </si>
+  <si>
+    <t>Abre * cofres de bronce.</t>
+  </si>
+  <si>
+    <t>Abre * cofres de plata.</t>
+  </si>
+  <si>
+    <t>Abre * cofres de oro.</t>
+  </si>
+  <si>
+    <t>Abre * cofres estrellados de bronce.</t>
+  </si>
+  <si>
+    <t>Abre * cofres estrellados de plata.</t>
+  </si>
+  <si>
+    <t>Abre * cofres estrellados de oro.</t>
+  </si>
+  <si>
+    <t>Lanza * dardos en una partida.</t>
+  </si>
+  <si>
+    <t>Deja caer * discos en una partida.</t>
+  </si>
+  <si>
+    <t>Gasta * tréboles en una partida.</t>
+  </si>
+  <si>
+    <t>Gasta * fichas en una partida.</t>
+  </si>
+  <si>
+    <t>jetquest_word_storm</t>
+  </si>
+  <si>
+    <t>jetquest_second_chance</t>
+  </si>
+  <si>
+    <t>jetquest_mini_challenge</t>
+  </si>
+  <si>
+    <t>jetquest_letter_dash</t>
+  </si>
+  <si>
+    <t>jetquest_coffee_break</t>
+  </si>
+  <si>
+    <t>hourly_letter_adventure</t>
+  </si>
+  <si>
+    <t>hourly_wordmatic</t>
+  </si>
+  <si>
+    <t>hourly_game_of_time</t>
+  </si>
+  <si>
+    <t>weekly_collection_week</t>
+  </si>
+  <si>
+    <t>weekly_weeklong_challenge</t>
+  </si>
+  <si>
+    <t>weekly_word_marathon</t>
+  </si>
+  <si>
+    <t>weekly_hero_of_week</t>
+  </si>
+  <si>
+    <t>daily_word_ritual</t>
+  </si>
+  <si>
+    <t>daily_routine_tasks</t>
+  </si>
+  <si>
+    <t>daily_morning_words</t>
+  </si>
+  <si>
+    <t>daily_word_hunt</t>
+  </si>
+  <si>
+    <t>hourly_word_rain</t>
+  </si>
+  <si>
+    <t>hourly_letter_marathon</t>
+  </si>
+  <si>
+    <t>Bir oyunda * yonca harca.</t>
   </si>
 </sst>
 </file>
@@ -2595,15 +3087,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G111"/>
+  <dimension ref="A1:G136"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="A77" sqref="A77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="53" customWidth="1"/>
+    <col min="1" max="1" width="38.85546875" customWidth="1"/>
     <col min="2" max="2" width="44.140625" customWidth="1"/>
     <col min="3" max="3" width="37.28515625" customWidth="1"/>
     <col min="4" max="4" width="41.42578125" customWidth="1"/>
@@ -4063,91 +4555,91 @@
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>423</v>
+        <v>429</v>
       </c>
       <c r="B64" t="s">
-        <v>424</v>
+        <v>430</v>
       </c>
       <c r="C64" t="s">
-        <v>425</v>
+        <v>431</v>
       </c>
       <c r="D64" t="s">
-        <v>426</v>
+        <v>432</v>
       </c>
       <c r="E64" t="s">
-        <v>424</v>
+        <v>433</v>
       </c>
       <c r="F64" t="s">
-        <v>427</v>
+        <v>434</v>
       </c>
       <c r="G64" t="s">
-        <v>428</v>
+        <v>435</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>429</v>
+        <v>436</v>
       </c>
       <c r="B65" t="s">
-        <v>430</v>
+        <v>437</v>
       </c>
       <c r="C65" t="s">
-        <v>431</v>
+        <v>438</v>
       </c>
       <c r="D65" t="s">
-        <v>432</v>
+        <v>439</v>
       </c>
       <c r="E65" t="s">
-        <v>433</v>
+        <v>440</v>
       </c>
       <c r="F65" t="s">
-        <v>434</v>
+        <v>441</v>
       </c>
       <c r="G65" t="s">
-        <v>435</v>
+        <v>442</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>436</v>
+        <v>443</v>
       </c>
       <c r="B66" t="s">
-        <v>437</v>
+        <v>444</v>
       </c>
       <c r="C66" t="s">
-        <v>438</v>
+        <v>444</v>
       </c>
       <c r="D66" t="s">
-        <v>439</v>
+        <v>445</v>
       </c>
       <c r="E66" t="s">
-        <v>440</v>
+        <v>444</v>
       </c>
       <c r="F66" t="s">
-        <v>441</v>
+        <v>446</v>
       </c>
       <c r="G66" t="s">
-        <v>442</v>
+        <v>447</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>443</v>
+        <v>448</v>
       </c>
       <c r="B67" t="s">
-        <v>444</v>
+        <v>449</v>
       </c>
       <c r="C67" t="s">
-        <v>445</v>
+        <v>450</v>
       </c>
       <c r="D67" t="s">
-        <v>446</v>
+        <v>451</v>
       </c>
       <c r="E67" t="s">
-        <v>447</v>
+        <v>452</v>
       </c>
       <c r="F67" t="s">
-        <v>448</v>
+        <v>453</v>
       </c>
       <c r="G67" t="s">
         <v>449</v>
@@ -4155,482 +4647,482 @@
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="B68" t="s">
-        <v>451</v>
+        <v>455</v>
       </c>
       <c r="C68" t="s">
-        <v>452</v>
+        <v>456</v>
       </c>
       <c r="D68" t="s">
-        <v>453</v>
+        <v>457</v>
       </c>
       <c r="E68" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="F68" t="s">
-        <v>455</v>
+        <v>459</v>
       </c>
       <c r="G68" t="s">
-        <v>456</v>
+        <v>460</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>457</v>
+        <v>461</v>
       </c>
       <c r="B69" t="s">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="C69" t="s">
-        <v>459</v>
+        <v>463</v>
       </c>
       <c r="D69" t="s">
-        <v>460</v>
+        <v>464</v>
       </c>
       <c r="E69" t="s">
-        <v>461</v>
+        <v>465</v>
       </c>
       <c r="F69" t="s">
-        <v>462</v>
+        <v>466</v>
       </c>
       <c r="G69" t="s">
-        <v>463</v>
+        <v>467</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>464</v>
+        <v>468</v>
       </c>
       <c r="B70" t="s">
-        <v>465</v>
+        <v>469</v>
       </c>
       <c r="C70" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="D70" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="E70" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="F70" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="G70" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="B71" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="C71" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="D71" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="E71" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="F71" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="G71" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>478</v>
+        <v>423</v>
       </c>
       <c r="B72" t="s">
-        <v>479</v>
+        <v>424</v>
       </c>
       <c r="C72" t="s">
-        <v>480</v>
+        <v>425</v>
       </c>
       <c r="D72" t="s">
-        <v>481</v>
+        <v>426</v>
       </c>
       <c r="E72" t="s">
-        <v>482</v>
+        <v>424</v>
       </c>
       <c r="F72" t="s">
-        <v>483</v>
+        <v>427</v>
       </c>
       <c r="G72" t="s">
-        <v>484</v>
+        <v>428</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>485</v>
+        <v>897</v>
       </c>
       <c r="B73" t="s">
-        <v>486</v>
+        <v>479</v>
       </c>
       <c r="C73" t="s">
-        <v>487</v>
+        <v>480</v>
       </c>
       <c r="D73" t="s">
-        <v>488</v>
+        <v>481</v>
       </c>
       <c r="E73" t="s">
-        <v>489</v>
+        <v>482</v>
       </c>
       <c r="F73" t="s">
-        <v>490</v>
+        <v>483</v>
       </c>
       <c r="G73" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>492</v>
+        <v>898</v>
       </c>
       <c r="B74" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="C74" t="s">
-        <v>494</v>
+        <v>485</v>
       </c>
       <c r="D74" t="s">
-        <v>495</v>
+        <v>487</v>
       </c>
       <c r="E74" t="s">
-        <v>496</v>
+        <v>488</v>
       </c>
       <c r="F74" t="s">
-        <v>497</v>
+        <v>489</v>
       </c>
       <c r="G74" t="s">
-        <v>498</v>
+        <v>490</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
+        <v>899</v>
+      </c>
+      <c r="B75" t="s">
         <v>499</v>
       </c>
-      <c r="B75" t="s">
-        <v>500</v>
-      </c>
       <c r="C75" t="s">
-        <v>501</v>
+        <v>491</v>
       </c>
       <c r="D75" t="s">
-        <v>502</v>
+        <v>507</v>
       </c>
       <c r="E75" t="s">
-        <v>503</v>
+        <v>515</v>
       </c>
       <c r="F75" t="s">
-        <v>504</v>
+        <v>523</v>
       </c>
       <c r="G75" t="s">
-        <v>505</v>
+        <v>531</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>506</v>
+        <v>900</v>
       </c>
       <c r="B76" t="s">
-        <v>507</v>
+        <v>500</v>
       </c>
       <c r="C76" t="s">
+        <v>492</v>
+      </c>
+      <c r="D76" t="s">
         <v>508</v>
       </c>
-      <c r="D76" t="s">
-        <v>509</v>
-      </c>
       <c r="E76" t="s">
-        <v>510</v>
+        <v>516</v>
       </c>
       <c r="F76" t="s">
-        <v>511</v>
+        <v>524</v>
       </c>
       <c r="G76" t="s">
-        <v>512</v>
+        <v>532</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>513</v>
+        <v>901</v>
       </c>
       <c r="B77" t="s">
-        <v>514</v>
+        <v>501</v>
       </c>
       <c r="C77" t="s">
-        <v>515</v>
+        <v>493</v>
       </c>
       <c r="D77" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="E77" t="s">
         <v>517</v>
       </c>
       <c r="F77" t="s">
-        <v>518</v>
+        <v>525</v>
       </c>
       <c r="G77" t="s">
-        <v>519</v>
+        <v>533</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>520</v>
+        <v>902</v>
       </c>
       <c r="B78" t="s">
-        <v>521</v>
+        <v>502</v>
       </c>
       <c r="C78" t="s">
-        <v>522</v>
+        <v>494</v>
       </c>
       <c r="D78" t="s">
-        <v>523</v>
+        <v>510</v>
       </c>
       <c r="E78" t="s">
-        <v>524</v>
+        <v>518</v>
       </c>
       <c r="F78" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="G78" t="s">
-        <v>526</v>
+        <v>534</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
+        <v>903</v>
+      </c>
+      <c r="B79" t="s">
+        <v>503</v>
+      </c>
+      <c r="C79" t="s">
+        <v>495</v>
+      </c>
+      <c r="D79" t="s">
+        <v>511</v>
+      </c>
+      <c r="E79" t="s">
+        <v>519</v>
+      </c>
+      <c r="F79" t="s">
         <v>527</v>
       </c>
-      <c r="B79" t="s">
-        <v>528</v>
-      </c>
-      <c r="C79" t="s">
-        <v>529</v>
-      </c>
-      <c r="D79" t="s">
-        <v>530</v>
-      </c>
-      <c r="E79" t="s">
-        <v>531</v>
-      </c>
-      <c r="F79" t="s">
-        <v>532</v>
-      </c>
       <c r="G79" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>534</v>
+        <v>904</v>
       </c>
       <c r="B80" t="s">
-        <v>535</v>
+        <v>504</v>
       </c>
       <c r="C80" t="s">
+        <v>496</v>
+      </c>
+      <c r="D80" t="s">
+        <v>512</v>
+      </c>
+      <c r="E80" t="s">
+        <v>520</v>
+      </c>
+      <c r="F80" t="s">
+        <v>528</v>
+      </c>
+      <c r="G80" t="s">
         <v>536</v>
-      </c>
-      <c r="D80" t="s">
-        <v>537</v>
-      </c>
-      <c r="E80" t="s">
-        <v>538</v>
-      </c>
-      <c r="F80" t="s">
-        <v>539</v>
-      </c>
-      <c r="G80" t="s">
-        <v>540</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>541</v>
+        <v>914</v>
       </c>
       <c r="B81" t="s">
-        <v>542</v>
+        <v>505</v>
       </c>
       <c r="C81" t="s">
-        <v>543</v>
+        <v>497</v>
       </c>
       <c r="D81" t="s">
-        <v>544</v>
+        <v>513</v>
       </c>
       <c r="E81" t="s">
-        <v>545</v>
+        <v>521</v>
       </c>
       <c r="F81" t="s">
-        <v>546</v>
+        <v>529</v>
       </c>
       <c r="G81" t="s">
-        <v>547</v>
+        <v>537</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>548</v>
+        <v>913</v>
       </c>
       <c r="B82" t="s">
-        <v>549</v>
+        <v>506</v>
       </c>
       <c r="C82" t="s">
-        <v>550</v>
+        <v>498</v>
       </c>
       <c r="D82" t="s">
-        <v>551</v>
+        <v>514</v>
       </c>
       <c r="E82" t="s">
-        <v>552</v>
+        <v>522</v>
       </c>
       <c r="F82" t="s">
-        <v>553</v>
+        <v>530</v>
       </c>
       <c r="G82" t="s">
-        <v>554</v>
+        <v>538</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>555</v>
+        <v>912</v>
       </c>
       <c r="B83" t="s">
-        <v>556</v>
+        <v>541</v>
       </c>
       <c r="C83" t="s">
-        <v>557</v>
+        <v>551</v>
       </c>
       <c r="D83" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
       <c r="E83" t="s">
-        <v>559</v>
+        <v>581</v>
       </c>
       <c r="F83" t="s">
-        <v>560</v>
+        <v>571</v>
       </c>
       <c r="G83" t="s">
-        <v>561</v>
+        <v>591</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
+        <v>911</v>
+      </c>
+      <c r="B84" t="s">
+        <v>542</v>
+      </c>
+      <c r="C84" t="s">
+        <v>552</v>
+      </c>
+      <c r="D84" t="s">
         <v>562</v>
       </c>
-      <c r="B84" t="s">
-        <v>563</v>
-      </c>
-      <c r="C84" t="s">
-        <v>564</v>
-      </c>
-      <c r="D84" t="s">
-        <v>565</v>
-      </c>
       <c r="E84" t="s">
-        <v>566</v>
+        <v>582</v>
       </c>
       <c r="F84" t="s">
-        <v>567</v>
+        <v>572</v>
       </c>
       <c r="G84" t="s">
-        <v>568</v>
+        <v>592</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>569</v>
+        <v>539</v>
       </c>
       <c r="B85" t="s">
-        <v>570</v>
+        <v>543</v>
       </c>
       <c r="C85" t="s">
-        <v>571</v>
+        <v>553</v>
       </c>
       <c r="D85" t="s">
-        <v>572</v>
+        <v>563</v>
       </c>
       <c r="E85" t="s">
+        <v>583</v>
+      </c>
+      <c r="F85" t="s">
         <v>573</v>
       </c>
-      <c r="F85" t="s">
-        <v>574</v>
-      </c>
       <c r="G85" t="s">
-        <v>575</v>
+        <v>593</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>576</v>
+        <v>910</v>
       </c>
       <c r="B86" t="s">
-        <v>577</v>
+        <v>544</v>
       </c>
       <c r="C86" t="s">
-        <v>578</v>
+        <v>554</v>
       </c>
       <c r="D86" t="s">
-        <v>579</v>
+        <v>564</v>
       </c>
       <c r="E86" t="s">
-        <v>580</v>
+        <v>584</v>
       </c>
       <c r="F86" t="s">
-        <v>581</v>
+        <v>574</v>
       </c>
       <c r="G86" t="s">
-        <v>582</v>
+        <v>594</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>583</v>
+        <v>909</v>
       </c>
       <c r="B87" t="s">
-        <v>584</v>
+        <v>545</v>
       </c>
       <c r="C87" t="s">
+        <v>555</v>
+      </c>
+      <c r="D87" t="s">
+        <v>565</v>
+      </c>
+      <c r="E87" t="s">
         <v>585</v>
       </c>
-      <c r="D87" t="s">
-        <v>586</v>
-      </c>
-      <c r="E87" t="s">
-        <v>587</v>
-      </c>
       <c r="F87" t="s">
-        <v>588</v>
+        <v>575</v>
       </c>
       <c r="G87" t="s">
-        <v>589</v>
+        <v>595</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>590</v>
+        <v>908</v>
       </c>
       <c r="B88" t="s">
-        <v>591</v>
+        <v>546</v>
       </c>
       <c r="C88" t="s">
-        <v>592</v>
+        <v>556</v>
       </c>
       <c r="D88" t="s">
-        <v>593</v>
+        <v>566</v>
       </c>
       <c r="E88" t="s">
-        <v>594</v>
+        <v>586</v>
       </c>
       <c r="F88" t="s">
-        <v>595</v>
+        <v>576</v>
       </c>
       <c r="G88" t="s">
         <v>596</v>
@@ -4638,534 +5130,1110 @@
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
+        <v>907</v>
+      </c>
+      <c r="B89" t="s">
+        <v>547</v>
+      </c>
+      <c r="C89" t="s">
+        <v>557</v>
+      </c>
+      <c r="D89" t="s">
+        <v>567</v>
+      </c>
+      <c r="E89" t="s">
+        <v>587</v>
+      </c>
+      <c r="F89" t="s">
+        <v>577</v>
+      </c>
+      <c r="G89" t="s">
         <v>597</v>
-      </c>
-      <c r="B89" t="s">
-        <v>598</v>
-      </c>
-      <c r="C89" t="s">
-        <v>599</v>
-      </c>
-      <c r="D89" t="s">
-        <v>600</v>
-      </c>
-      <c r="E89" t="s">
-        <v>601</v>
-      </c>
-      <c r="F89" t="s">
-        <v>602</v>
-      </c>
-      <c r="G89" t="s">
-        <v>603</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>604</v>
+        <v>906</v>
       </c>
       <c r="B90" t="s">
-        <v>605</v>
+        <v>548</v>
       </c>
       <c r="C90" t="s">
-        <v>606</v>
+        <v>558</v>
       </c>
       <c r="D90" t="s">
-        <v>607</v>
+        <v>568</v>
       </c>
       <c r="E90" t="s">
-        <v>608</v>
+        <v>588</v>
       </c>
       <c r="F90" t="s">
-        <v>609</v>
+        <v>578</v>
       </c>
       <c r="G90" t="s">
-        <v>610</v>
+        <v>598</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>611</v>
+        <v>540</v>
       </c>
       <c r="B91" t="s">
-        <v>612</v>
+        <v>549</v>
       </c>
       <c r="C91" t="s">
-        <v>613</v>
+        <v>559</v>
       </c>
       <c r="D91" t="s">
-        <v>614</v>
+        <v>569</v>
       </c>
       <c r="E91" t="s">
-        <v>615</v>
+        <v>589</v>
       </c>
       <c r="F91" t="s">
-        <v>616</v>
+        <v>579</v>
       </c>
       <c r="G91" t="s">
-        <v>617</v>
+        <v>599</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>618</v>
+        <v>905</v>
       </c>
       <c r="B92" t="s">
-        <v>619</v>
+        <v>550</v>
       </c>
       <c r="C92" t="s">
-        <v>620</v>
+        <v>560</v>
       </c>
       <c r="D92" t="s">
-        <v>621</v>
+        <v>570</v>
       </c>
       <c r="E92" t="s">
-        <v>622</v>
+        <v>590</v>
       </c>
       <c r="F92" t="s">
-        <v>623</v>
+        <v>580</v>
       </c>
       <c r="G92" t="s">
-        <v>624</v>
+        <v>600</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>625</v>
+        <v>601</v>
       </c>
       <c r="B93" t="s">
-        <v>626</v>
+        <v>602</v>
       </c>
       <c r="C93" t="s">
-        <v>627</v>
+        <v>603</v>
       </c>
       <c r="D93" t="s">
-        <v>628</v>
+        <v>604</v>
       </c>
       <c r="E93" t="s">
-        <v>629</v>
+        <v>605</v>
       </c>
       <c r="F93" t="s">
-        <v>630</v>
+        <v>606</v>
       </c>
       <c r="G93" t="s">
-        <v>631</v>
+        <v>605</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>632</v>
+        <v>607</v>
       </c>
       <c r="B94" t="s">
-        <v>633</v>
+        <v>609</v>
       </c>
       <c r="C94" t="s">
-        <v>634</v>
+        <v>608</v>
       </c>
       <c r="D94" t="s">
-        <v>635</v>
+        <v>611</v>
       </c>
       <c r="E94" t="s">
-        <v>636</v>
-      </c>
-      <c r="F94" t="s">
-        <v>637</v>
+        <v>612</v>
+      </c>
+      <c r="F94" s="1" t="s">
+        <v>610</v>
       </c>
       <c r="G94" t="s">
-        <v>638</v>
+        <v>613</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>639</v>
+        <v>614</v>
       </c>
       <c r="B95" t="s">
-        <v>640</v>
+        <v>543</v>
       </c>
       <c r="C95" t="s">
-        <v>641</v>
+        <v>615</v>
       </c>
       <c r="D95" t="s">
-        <v>642</v>
+        <v>563</v>
       </c>
       <c r="E95" t="s">
-        <v>643</v>
+        <v>583</v>
       </c>
       <c r="F95" t="s">
-        <v>644</v>
+        <v>573</v>
       </c>
       <c r="G95" t="s">
-        <v>645</v>
+        <v>593</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
+        <v>616</v>
+      </c>
+      <c r="B96" t="s">
+        <v>618</v>
+      </c>
+      <c r="C96" t="s">
+        <v>617</v>
+      </c>
+      <c r="D96" t="s">
+        <v>619</v>
+      </c>
+      <c r="E96" t="s">
+        <v>588</v>
+      </c>
+      <c r="F96" t="s">
+        <v>578</v>
+      </c>
+      <c r="G96" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A97" s="1" t="s">
+        <v>620</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>699</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="D97" s="1" t="s">
+        <v>739</v>
+      </c>
+      <c r="E97" s="1" t="s">
+        <v>778</v>
+      </c>
+      <c r="F97" s="1" t="s">
+        <v>818</v>
+      </c>
+      <c r="G97" s="1" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A98" s="1" t="s">
+        <v>621</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>700</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>661</v>
+      </c>
+      <c r="D98" s="1" t="s">
+        <v>740</v>
+      </c>
+      <c r="E98" s="1" t="s">
+        <v>779</v>
+      </c>
+      <c r="F98" s="1" t="s">
+        <v>819</v>
+      </c>
+      <c r="G98" s="1" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A99" s="1" t="s">
+        <v>622</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>701</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>662</v>
+      </c>
+      <c r="D99" s="1" t="s">
+        <v>741</v>
+      </c>
+      <c r="E99" s="1" t="s">
+        <v>780</v>
+      </c>
+      <c r="F99" s="1" t="s">
+        <v>820</v>
+      </c>
+      <c r="G99" s="1" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A100" s="1" t="s">
+        <v>623</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>702</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>663</v>
+      </c>
+      <c r="D100" s="1" t="s">
+        <v>742</v>
+      </c>
+      <c r="E100" s="1" t="s">
+        <v>781</v>
+      </c>
+      <c r="F100" s="1" t="s">
+        <v>821</v>
+      </c>
+      <c r="G100" s="1" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A101" s="1" t="s">
+        <v>624</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>703</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>664</v>
+      </c>
+      <c r="D101" s="1" t="s">
+        <v>743</v>
+      </c>
+      <c r="E101" s="1" t="s">
+        <v>782</v>
+      </c>
+      <c r="F101" s="1" t="s">
+        <v>822</v>
+      </c>
+      <c r="G101" s="1" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A102" s="1" t="s">
+        <v>625</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>704</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>665</v>
+      </c>
+      <c r="D102" s="1" t="s">
+        <v>744</v>
+      </c>
+      <c r="E102" s="1" t="s">
+        <v>783</v>
+      </c>
+      <c r="F102" s="1" t="s">
+        <v>823</v>
+      </c>
+      <c r="G102" s="1" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A103" s="1" t="s">
+        <v>626</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>705</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>666</v>
+      </c>
+      <c r="D103" s="1" t="s">
+        <v>745</v>
+      </c>
+      <c r="E103" s="1" t="s">
+        <v>784</v>
+      </c>
+      <c r="F103" s="1" t="s">
+        <v>824</v>
+      </c>
+      <c r="G103" s="1" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A104" s="1" t="s">
+        <v>627</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>706</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>667</v>
+      </c>
+      <c r="D104" s="1" t="s">
+        <v>746</v>
+      </c>
+      <c r="E104" s="1" t="s">
+        <v>785</v>
+      </c>
+      <c r="F104" s="1" t="s">
+        <v>825</v>
+      </c>
+      <c r="G104" s="1" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A105" s="1" t="s">
+        <v>628</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>707</v>
+      </c>
+      <c r="C105" s="1" t="s">
+        <v>668</v>
+      </c>
+      <c r="D105" s="1" t="s">
+        <v>747</v>
+      </c>
+      <c r="E105" s="1" t="s">
+        <v>786</v>
+      </c>
+      <c r="F105" s="1" t="s">
+        <v>826</v>
+      </c>
+      <c r="G105" s="1" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A106" s="1" t="s">
+        <v>629</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>708</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>669</v>
+      </c>
+      <c r="D106" s="1" t="s">
+        <v>748</v>
+      </c>
+      <c r="E106" s="1" t="s">
+        <v>787</v>
+      </c>
+      <c r="F106" s="1" t="s">
+        <v>827</v>
+      </c>
+      <c r="G106" s="1" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A107" s="1" t="s">
+        <v>630</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>709</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>670</v>
+      </c>
+      <c r="D107" s="1" t="s">
+        <v>749</v>
+      </c>
+      <c r="E107" s="1" t="s">
+        <v>788</v>
+      </c>
+      <c r="F107" s="1" t="s">
+        <v>828</v>
+      </c>
+      <c r="G107" s="1" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A108" s="1" t="s">
+        <v>631</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>710</v>
+      </c>
+      <c r="C108" s="1" t="s">
+        <v>671</v>
+      </c>
+      <c r="D108" s="1" t="s">
+        <v>750</v>
+      </c>
+      <c r="E108" s="1" t="s">
+        <v>789</v>
+      </c>
+      <c r="F108" s="1" t="s">
+        <v>829</v>
+      </c>
+      <c r="G108" s="1" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A109" s="1" t="s">
+        <v>632</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>711</v>
+      </c>
+      <c r="C109" s="1" t="s">
+        <v>672</v>
+      </c>
+      <c r="D109" s="1" t="s">
+        <v>751</v>
+      </c>
+      <c r="E109" s="1" t="s">
+        <v>790</v>
+      </c>
+      <c r="F109" s="1" t="s">
+        <v>830</v>
+      </c>
+      <c r="G109" s="1" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A110" s="1" t="s">
+        <v>633</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>712</v>
+      </c>
+      <c r="C110" s="1" t="s">
+        <v>673</v>
+      </c>
+      <c r="D110" s="1" t="s">
+        <v>752</v>
+      </c>
+      <c r="E110" s="1" t="s">
+        <v>791</v>
+      </c>
+      <c r="F110" s="1" t="s">
+        <v>831</v>
+      </c>
+      <c r="G110" s="1" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A111" s="1" t="s">
+        <v>634</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>713</v>
+      </c>
+      <c r="C111" s="1" t="s">
+        <v>674</v>
+      </c>
+      <c r="D111" s="1" t="s">
+        <v>753</v>
+      </c>
+      <c r="E111" s="1" t="s">
+        <v>792</v>
+      </c>
+      <c r="F111" s="1" t="s">
+        <v>832</v>
+      </c>
+      <c r="G111" s="1" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A112" s="1" t="s">
+        <v>635</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>714</v>
+      </c>
+      <c r="C112" s="1" t="s">
+        <v>675</v>
+      </c>
+      <c r="D112" s="1" t="s">
+        <v>754</v>
+      </c>
+      <c r="E112" s="1" t="s">
+        <v>793</v>
+      </c>
+      <c r="F112" s="1" t="s">
+        <v>833</v>
+      </c>
+      <c r="G112" s="1" t="s">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A113" s="1" t="s">
+        <v>636</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>715</v>
+      </c>
+      <c r="C113" s="1" t="s">
+        <v>676</v>
+      </c>
+      <c r="D113" s="1" t="s">
+        <v>755</v>
+      </c>
+      <c r="E113" s="1" t="s">
+        <v>794</v>
+      </c>
+      <c r="F113" s="1" t="s">
+        <v>834</v>
+      </c>
+      <c r="G113" s="1" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A114" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>716</v>
+      </c>
+      <c r="C114" s="1" t="s">
+        <v>677</v>
+      </c>
+      <c r="D114" s="1" t="s">
+        <v>756</v>
+      </c>
+      <c r="E114" s="1" t="s">
+        <v>795</v>
+      </c>
+      <c r="F114" s="1" t="s">
+        <v>835</v>
+      </c>
+      <c r="G114" s="1" t="s">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A115" s="1" t="s">
+        <v>638</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>717</v>
+      </c>
+      <c r="C115" s="1" t="s">
+        <v>678</v>
+      </c>
+      <c r="D115" s="1" t="s">
+        <v>757</v>
+      </c>
+      <c r="E115" s="1" t="s">
+        <v>796</v>
+      </c>
+      <c r="F115" s="1" t="s">
+        <v>836</v>
+      </c>
+      <c r="G115" s="1" t="s">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A116" s="1" t="s">
+        <v>639</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>718</v>
+      </c>
+      <c r="C116" s="1" t="s">
+        <v>679</v>
+      </c>
+      <c r="D116" s="1" t="s">
+        <v>758</v>
+      </c>
+      <c r="E116" s="1" t="s">
+        <v>797</v>
+      </c>
+      <c r="F116" s="1" t="s">
+        <v>837</v>
+      </c>
+      <c r="G116" s="1" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A117" s="1" t="s">
+        <v>640</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>719</v>
+      </c>
+      <c r="C117" s="1" t="s">
+        <v>680</v>
+      </c>
+      <c r="D117" s="1" t="s">
+        <v>759</v>
+      </c>
+      <c r="E117" s="1" t="s">
+        <v>798</v>
+      </c>
+      <c r="F117" s="1" t="s">
+        <v>838</v>
+      </c>
+      <c r="G117" s="1" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A118" s="1" t="s">
+        <v>641</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>720</v>
+      </c>
+      <c r="C118" s="1" t="s">
+        <v>681</v>
+      </c>
+      <c r="D118" s="1" t="s">
+        <v>760</v>
+      </c>
+      <c r="E118" s="1" t="s">
+        <v>799</v>
+      </c>
+      <c r="F118" s="1" t="s">
+        <v>839</v>
+      </c>
+      <c r="G118" s="1" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A119" s="1" t="s">
+        <v>642</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>721</v>
+      </c>
+      <c r="C119" s="1" t="s">
+        <v>682</v>
+      </c>
+      <c r="D119" s="1" t="s">
+        <v>757</v>
+      </c>
+      <c r="E119" s="1" t="s">
+        <v>800</v>
+      </c>
+      <c r="F119" s="1" t="s">
+        <v>840</v>
+      </c>
+      <c r="G119" s="1" t="s">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A120" s="1" t="s">
+        <v>643</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>722</v>
+      </c>
+      <c r="C120" s="1" t="s">
+        <v>683</v>
+      </c>
+      <c r="D120" s="1" t="s">
+        <v>761</v>
+      </c>
+      <c r="E120" s="1" t="s">
+        <v>801</v>
+      </c>
+      <c r="F120" s="1" t="s">
+        <v>841</v>
+      </c>
+      <c r="G120" s="1" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A121" s="1" t="s">
+        <v>644</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>723</v>
+      </c>
+      <c r="C121" s="1" t="s">
+        <v>684</v>
+      </c>
+      <c r="D121" s="1" t="s">
+        <v>762</v>
+      </c>
+      <c r="E121" s="1" t="s">
+        <v>802</v>
+      </c>
+      <c r="F121" s="1" t="s">
+        <v>842</v>
+      </c>
+      <c r="G121" s="1" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A122" s="1" t="s">
+        <v>645</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>724</v>
+      </c>
+      <c r="C122" s="1" t="s">
+        <v>685</v>
+      </c>
+      <c r="D122" s="1" t="s">
+        <v>763</v>
+      </c>
+      <c r="E122" s="1" t="s">
+        <v>803</v>
+      </c>
+      <c r="F122" s="1" t="s">
+        <v>843</v>
+      </c>
+      <c r="G122" s="1" t="s">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A123" s="1" t="s">
         <v>646</v>
       </c>
-      <c r="B96" t="s">
+      <c r="B123" s="1" t="s">
+        <v>725</v>
+      </c>
+      <c r="C123" s="1" t="s">
+        <v>686</v>
+      </c>
+      <c r="D123" s="1" t="s">
+        <v>764</v>
+      </c>
+      <c r="E123" s="1" t="s">
+        <v>804</v>
+      </c>
+      <c r="F123" s="1" t="s">
+        <v>844</v>
+      </c>
+      <c r="G123" s="1" t="s">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A124" s="1" t="s">
         <v>647</v>
       </c>
-      <c r="C96" t="s">
+      <c r="B124" s="1" t="s">
+        <v>726</v>
+      </c>
+      <c r="C124" s="1" t="s">
+        <v>687</v>
+      </c>
+      <c r="D124" s="1" t="s">
+        <v>765</v>
+      </c>
+      <c r="E124" s="1" t="s">
+        <v>805</v>
+      </c>
+      <c r="F124" s="1" t="s">
+        <v>845</v>
+      </c>
+      <c r="G124" s="1" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A125" s="1" t="s">
         <v>648</v>
       </c>
-      <c r="D96" t="s">
+      <c r="B125" s="1" t="s">
+        <v>727</v>
+      </c>
+      <c r="C125" s="1" t="s">
+        <v>688</v>
+      </c>
+      <c r="D125" s="1" t="s">
+        <v>766</v>
+      </c>
+      <c r="E125" s="1" t="s">
+        <v>806</v>
+      </c>
+      <c r="F125" s="1" t="s">
+        <v>846</v>
+      </c>
+      <c r="G125" s="1" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A126" s="1" t="s">
         <v>649</v>
       </c>
-      <c r="E96" t="s">
+      <c r="B126" s="1" t="s">
+        <v>728</v>
+      </c>
+      <c r="C126" s="1" t="s">
+        <v>689</v>
+      </c>
+      <c r="D126" s="1" t="s">
+        <v>767</v>
+      </c>
+      <c r="E126" s="1" t="s">
+        <v>807</v>
+      </c>
+      <c r="F126" s="1" t="s">
+        <v>847</v>
+      </c>
+      <c r="G126" s="1" t="s">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A127" s="1" t="s">
         <v>650</v>
       </c>
-      <c r="F96" t="s">
+      <c r="B127" s="1" t="s">
+        <v>729</v>
+      </c>
+      <c r="C127" s="1" t="s">
+        <v>690</v>
+      </c>
+      <c r="D127" s="1" t="s">
+        <v>768</v>
+      </c>
+      <c r="E127" s="1" t="s">
+        <v>808</v>
+      </c>
+      <c r="F127" s="1" t="s">
+        <v>848</v>
+      </c>
+      <c r="G127" s="1" t="s">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A128" s="1" t="s">
         <v>651</v>
       </c>
-      <c r="G96" t="s">
+      <c r="B128" s="1" t="s">
+        <v>730</v>
+      </c>
+      <c r="C128" s="1" t="s">
+        <v>691</v>
+      </c>
+      <c r="D128" s="1" t="s">
+        <v>769</v>
+      </c>
+      <c r="E128" s="1" t="s">
+        <v>809</v>
+      </c>
+      <c r="F128" s="1" t="s">
+        <v>849</v>
+      </c>
+      <c r="G128" s="1" t="s">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A129" s="1" t="s">
         <v>652</v>
       </c>
-    </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A97" t="s">
+      <c r="B129" s="1" t="s">
+        <v>731</v>
+      </c>
+      <c r="C129" s="1" t="s">
+        <v>692</v>
+      </c>
+      <c r="D129" s="1" t="s">
+        <v>770</v>
+      </c>
+      <c r="E129" s="1" t="s">
+        <v>810</v>
+      </c>
+      <c r="F129" s="1" t="s">
+        <v>850</v>
+      </c>
+      <c r="G129" s="1" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A130" s="1" t="s">
         <v>653</v>
       </c>
-      <c r="B97" t="s">
+      <c r="B130" s="1" t="s">
+        <v>732</v>
+      </c>
+      <c r="C130" s="1" t="s">
+        <v>693</v>
+      </c>
+      <c r="D130" s="1" t="s">
+        <v>771</v>
+      </c>
+      <c r="E130" s="1" t="s">
+        <v>811</v>
+      </c>
+      <c r="F130" s="1" t="s">
+        <v>851</v>
+      </c>
+      <c r="G130" s="1" t="s">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A131" s="1" t="s">
         <v>654</v>
       </c>
-      <c r="C97" t="s">
+      <c r="B131" s="1" t="s">
+        <v>733</v>
+      </c>
+      <c r="C131" s="1" t="s">
+        <v>694</v>
+      </c>
+      <c r="D131" s="1" t="s">
+        <v>772</v>
+      </c>
+      <c r="E131" s="1" t="s">
+        <v>812</v>
+      </c>
+      <c r="F131" s="1" t="s">
+        <v>852</v>
+      </c>
+      <c r="G131" s="1" t="s">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A132" s="1" t="s">
         <v>655</v>
       </c>
-      <c r="D97" t="s">
+      <c r="B132" s="1" t="s">
+        <v>734</v>
+      </c>
+      <c r="C132" s="1" t="s">
+        <v>695</v>
+      </c>
+      <c r="D132" s="1" t="s">
+        <v>773</v>
+      </c>
+      <c r="E132" s="1" t="s">
+        <v>813</v>
+      </c>
+      <c r="F132" s="1" t="s">
+        <v>853</v>
+      </c>
+      <c r="G132" s="1" t="s">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A133" s="1" t="s">
         <v>656</v>
       </c>
-      <c r="E97" t="s">
+      <c r="B133" s="1" t="s">
+        <v>735</v>
+      </c>
+      <c r="C133" s="1" t="s">
+        <v>696</v>
+      </c>
+      <c r="D133" s="1" t="s">
+        <v>774</v>
+      </c>
+      <c r="E133" s="1" t="s">
+        <v>814</v>
+      </c>
+      <c r="F133" s="1" t="s">
+        <v>854</v>
+      </c>
+      <c r="G133" s="1" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A134" s="1" t="s">
         <v>657</v>
       </c>
-      <c r="F97" t="s">
+      <c r="B134" s="1" t="s">
+        <v>736</v>
+      </c>
+      <c r="C134" s="1" t="s">
+        <v>697</v>
+      </c>
+      <c r="D134" s="1" t="s">
+        <v>775</v>
+      </c>
+      <c r="E134" s="1" t="s">
+        <v>815</v>
+      </c>
+      <c r="F134" s="1" t="s">
+        <v>855</v>
+      </c>
+      <c r="G134" s="1" t="s">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A135" s="1" t="s">
         <v>658</v>
       </c>
-      <c r="G97" t="s">
+      <c r="B135" s="1" t="s">
+        <v>737</v>
+      </c>
+      <c r="C135" s="1" t="s">
+        <v>915</v>
+      </c>
+      <c r="D135" s="1" t="s">
+        <v>776</v>
+      </c>
+      <c r="E135" s="1" t="s">
+        <v>816</v>
+      </c>
+      <c r="F135" s="1" t="s">
+        <v>856</v>
+      </c>
+      <c r="G135" s="1" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A136" s="1" t="s">
         <v>659</v>
       </c>
-    </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A98" t="s">
-        <v>660</v>
-      </c>
-      <c r="B98" t="s">
-        <v>661</v>
-      </c>
-      <c r="C98" t="s">
-        <v>662</v>
-      </c>
-      <c r="D98" t="s">
-        <v>663</v>
-      </c>
-      <c r="E98" t="s">
-        <v>664</v>
-      </c>
-      <c r="F98" t="s">
-        <v>665</v>
-      </c>
-      <c r="G98" t="s">
-        <v>666</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A99" t="s">
-        <v>667</v>
-      </c>
-      <c r="B99" t="s">
-        <v>668</v>
-      </c>
-      <c r="C99" t="s">
-        <v>669</v>
-      </c>
-      <c r="D99" t="s">
-        <v>670</v>
-      </c>
-      <c r="E99" t="s">
-        <v>671</v>
-      </c>
-      <c r="F99" t="s">
-        <v>672</v>
-      </c>
-      <c r="G99" t="s">
-        <v>673</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A100" t="s">
-        <v>674</v>
-      </c>
-      <c r="B100" t="s">
-        <v>675</v>
-      </c>
-      <c r="C100" t="s">
-        <v>676</v>
-      </c>
-      <c r="D100" t="s">
-        <v>677</v>
-      </c>
-      <c r="E100" t="s">
-        <v>678</v>
-      </c>
-      <c r="F100" t="s">
-        <v>679</v>
-      </c>
-      <c r="G100" t="s">
-        <v>680</v>
-      </c>
-    </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A101" t="s">
-        <v>681</v>
-      </c>
-      <c r="B101" t="s">
-        <v>682</v>
-      </c>
-      <c r="C101" t="s">
-        <v>683</v>
-      </c>
-      <c r="D101" t="s">
-        <v>684</v>
-      </c>
-      <c r="E101" t="s">
-        <v>685</v>
-      </c>
-      <c r="F101" t="s">
-        <v>686</v>
-      </c>
-      <c r="G101" t="s">
-        <v>687</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A102" t="s">
-        <v>688</v>
-      </c>
-      <c r="B102" t="s">
-        <v>689</v>
-      </c>
-      <c r="C102" t="s">
-        <v>690</v>
-      </c>
-      <c r="D102" t="s">
-        <v>691</v>
-      </c>
-      <c r="E102" t="s">
-        <v>692</v>
-      </c>
-      <c r="F102" t="s">
-        <v>693</v>
-      </c>
-      <c r="G102" t="s">
-        <v>694</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A103" t="s">
-        <v>695</v>
-      </c>
-      <c r="B103" t="s">
-        <v>696</v>
-      </c>
-      <c r="C103" t="s">
-        <v>697</v>
-      </c>
-      <c r="D103" t="s">
+      <c r="B136" s="1" t="s">
+        <v>738</v>
+      </c>
+      <c r="C136" s="1" t="s">
         <v>698</v>
       </c>
-      <c r="E103" t="s">
-        <v>699</v>
-      </c>
-      <c r="F103" t="s">
-        <v>700</v>
-      </c>
-      <c r="G103" t="s">
-        <v>701</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A104" t="s">
-        <v>702</v>
-      </c>
-      <c r="B104" t="s">
-        <v>703</v>
-      </c>
-      <c r="C104" t="s">
-        <v>704</v>
-      </c>
-      <c r="D104" t="s">
-        <v>705</v>
-      </c>
-      <c r="E104" t="s">
-        <v>706</v>
-      </c>
-      <c r="F104" t="s">
-        <v>707</v>
-      </c>
-      <c r="G104" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A105" t="s">
-        <v>709</v>
-      </c>
-      <c r="B105" t="s">
-        <v>710</v>
-      </c>
-      <c r="C105" t="s">
-        <v>711</v>
-      </c>
-      <c r="D105" t="s">
-        <v>712</v>
-      </c>
-      <c r="E105" t="s">
-        <v>713</v>
-      </c>
-      <c r="F105" t="s">
-        <v>714</v>
-      </c>
-      <c r="G105" t="s">
-        <v>715</v>
-      </c>
-    </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A106" t="s">
-        <v>716</v>
-      </c>
-      <c r="B106" t="s">
-        <v>717</v>
-      </c>
-      <c r="C106" t="s">
-        <v>717</v>
-      </c>
-      <c r="D106" t="s">
-        <v>718</v>
-      </c>
-      <c r="E106" t="s">
-        <v>717</v>
-      </c>
-      <c r="F106" t="s">
-        <v>719</v>
-      </c>
-      <c r="G106" t="s">
-        <v>720</v>
-      </c>
-    </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A107" t="s">
-        <v>721</v>
-      </c>
-      <c r="B107" t="s">
-        <v>722</v>
-      </c>
-      <c r="C107" t="s">
-        <v>723</v>
-      </c>
-      <c r="D107" t="s">
-        <v>724</v>
-      </c>
-      <c r="E107" t="s">
-        <v>725</v>
-      </c>
-      <c r="F107" t="s">
-        <v>726</v>
-      </c>
-      <c r="G107" t="s">
-        <v>722</v>
-      </c>
-    </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A108" t="s">
-        <v>727</v>
-      </c>
-      <c r="B108" t="s">
-        <v>728</v>
-      </c>
-      <c r="C108" t="s">
-        <v>729</v>
-      </c>
-      <c r="D108" t="s">
-        <v>730</v>
-      </c>
-      <c r="E108" t="s">
-        <v>731</v>
-      </c>
-      <c r="F108" t="s">
-        <v>732</v>
-      </c>
-      <c r="G108" t="s">
-        <v>733</v>
-      </c>
-    </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A109" t="s">
-        <v>734</v>
-      </c>
-      <c r="B109" t="s">
-        <v>735</v>
-      </c>
-      <c r="C109" t="s">
-        <v>736</v>
-      </c>
-      <c r="D109" t="s">
-        <v>737</v>
-      </c>
-      <c r="E109" t="s">
-        <v>738</v>
-      </c>
-      <c r="F109" t="s">
-        <v>739</v>
-      </c>
-      <c r="G109" t="s">
-        <v>740</v>
-      </c>
-    </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A110" t="s">
-        <v>741</v>
-      </c>
-      <c r="B110" t="s">
-        <v>742</v>
-      </c>
-      <c r="C110" t="s">
-        <v>743</v>
-      </c>
-      <c r="D110" t="s">
-        <v>742</v>
-      </c>
-      <c r="E110" t="s">
-        <v>742</v>
-      </c>
-      <c r="F110" t="s">
-        <v>744</v>
-      </c>
-      <c r="G110" t="s">
-        <v>744</v>
-      </c>
-    </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A111" t="s">
-        <v>745</v>
-      </c>
-      <c r="B111" t="s">
-        <v>746</v>
-      </c>
-      <c r="C111" t="s">
-        <v>747</v>
-      </c>
-      <c r="D111" t="s">
-        <v>748</v>
-      </c>
-      <c r="E111" t="s">
-        <v>749</v>
-      </c>
-      <c r="F111" t="s">
-        <v>750</v>
-      </c>
-      <c r="G111" t="s">
-        <v>751</v>
+      <c r="D136" s="1" t="s">
+        <v>777</v>
+      </c>
+      <c r="E136" s="1" t="s">
+        <v>817</v>
+      </c>
+      <c r="F136" s="1" t="s">
+        <v>857</v>
+      </c>
+      <c r="G136" s="1" t="s">
+        <v>896</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/localization/Localization.xlsx
+++ b/localization/Localization.xlsx
@@ -1923,12 +1923,6 @@
     <t>throw_dart</t>
   </si>
   <si>
-    <t>win_dart</t>
-  </si>
-  <si>
-    <t>win_disk</t>
-  </si>
-  <si>
     <t>use_disk_plinko</t>
   </si>
   <si>
@@ -2160,12 +2154,6 @@
     <t>Throw * darts.</t>
   </si>
   <si>
-    <t>Win * darts.</t>
-  </si>
-  <si>
-    <t>Win * disks.</t>
-  </si>
-  <si>
     <t>Use * disks in Plinko.</t>
   </si>
   <si>
@@ -2397,12 +2385,6 @@
     <t>Wirf * Pfeile.</t>
   </si>
   <si>
-    <t>Gewinne * Pfeile.</t>
-  </si>
-  <si>
-    <t>Gewinne * Scheiben.</t>
-  </si>
-  <si>
     <t>Verwende * Scheiben in Plinko.</t>
   </si>
   <si>
@@ -2517,12 +2499,6 @@
     <t>Lancia * freccette.</t>
   </si>
   <si>
-    <t>Vinci * freccette.</t>
-  </si>
-  <si>
-    <t>Vinci * dischi.</t>
-  </si>
-  <si>
     <t>Usa * dischi in Plinko.</t>
   </si>
   <si>
@@ -2767,6 +2743,30 @@
   </si>
   <si>
     <t>Bir oyunda * yonca harca.</t>
+  </si>
+  <si>
+    <t>earn_dart</t>
+  </si>
+  <si>
+    <t>earn_disk</t>
+  </si>
+  <si>
+    <t>Earn * darts.</t>
+  </si>
+  <si>
+    <t>Earn * disks.</t>
+  </si>
+  <si>
+    <t>Verdiene * Pfeile.</t>
+  </si>
+  <si>
+    <t>Verdiene * Scheiben.</t>
+  </si>
+  <si>
+    <t>Guadagna * freccette.</t>
+  </si>
+  <si>
+    <t>Guadagna * dischi.</t>
   </si>
 </sst>
 </file>
@@ -3089,8 +3089,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G136"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="A77" sqref="A77"/>
+    <sheetView tabSelected="1" topLeftCell="B102" workbookViewId="0">
+      <selection activeCell="G119" sqref="G119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4762,7 +4762,7 @@
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>897</v>
+        <v>889</v>
       </c>
       <c r="B73" t="s">
         <v>479</v>
@@ -4785,7 +4785,7 @@
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>898</v>
+        <v>890</v>
       </c>
       <c r="B74" t="s">
         <v>486</v>
@@ -4808,7 +4808,7 @@
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>899</v>
+        <v>891</v>
       </c>
       <c r="B75" t="s">
         <v>499</v>
@@ -4831,7 +4831,7 @@
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>900</v>
+        <v>892</v>
       </c>
       <c r="B76" t="s">
         <v>500</v>
@@ -4854,7 +4854,7 @@
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>901</v>
+        <v>893</v>
       </c>
       <c r="B77" t="s">
         <v>501</v>
@@ -4877,7 +4877,7 @@
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>902</v>
+        <v>894</v>
       </c>
       <c r="B78" t="s">
         <v>502</v>
@@ -4900,7 +4900,7 @@
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>903</v>
+        <v>895</v>
       </c>
       <c r="B79" t="s">
         <v>503</v>
@@ -4923,7 +4923,7 @@
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>904</v>
+        <v>896</v>
       </c>
       <c r="B80" t="s">
         <v>504</v>
@@ -4946,7 +4946,7 @@
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>914</v>
+        <v>906</v>
       </c>
       <c r="B81" t="s">
         <v>505</v>
@@ -4969,7 +4969,7 @@
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>913</v>
+        <v>905</v>
       </c>
       <c r="B82" t="s">
         <v>506</v>
@@ -4992,7 +4992,7 @@
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>912</v>
+        <v>904</v>
       </c>
       <c r="B83" t="s">
         <v>541</v>
@@ -5015,7 +5015,7 @@
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>911</v>
+        <v>903</v>
       </c>
       <c r="B84" t="s">
         <v>542</v>
@@ -5061,7 +5061,7 @@
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>910</v>
+        <v>902</v>
       </c>
       <c r="B86" t="s">
         <v>544</v>
@@ -5084,7 +5084,7 @@
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>909</v>
+        <v>901</v>
       </c>
       <c r="B87" t="s">
         <v>545</v>
@@ -5107,7 +5107,7 @@
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>908</v>
+        <v>900</v>
       </c>
       <c r="B88" t="s">
         <v>546</v>
@@ -5130,7 +5130,7 @@
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>907</v>
+        <v>899</v>
       </c>
       <c r="B89" t="s">
         <v>547</v>
@@ -5153,7 +5153,7 @@
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>906</v>
+        <v>898</v>
       </c>
       <c r="B90" t="s">
         <v>548</v>
@@ -5199,7 +5199,7 @@
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>905</v>
+        <v>897</v>
       </c>
       <c r="B92" t="s">
         <v>550</v>
@@ -5317,22 +5317,22 @@
         <v>620</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>739</v>
+        <v>735</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>778</v>
+        <v>774</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>818</v>
+        <v>812</v>
       </c>
       <c r="G97" s="1" t="s">
-        <v>858</v>
+        <v>850</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
@@ -5340,22 +5340,22 @@
         <v>621</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>740</v>
+        <v>736</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>779</v>
+        <v>775</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>819</v>
+        <v>813</v>
       </c>
       <c r="G98" s="1" t="s">
-        <v>859</v>
+        <v>851</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
@@ -5363,22 +5363,22 @@
         <v>622</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>741</v>
+        <v>737</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>780</v>
+        <v>776</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>820</v>
+        <v>814</v>
       </c>
       <c r="G99" s="1" t="s">
-        <v>860</v>
+        <v>852</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
@@ -5386,22 +5386,22 @@
         <v>623</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>742</v>
+        <v>738</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>781</v>
+        <v>777</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>821</v>
+        <v>815</v>
       </c>
       <c r="G100" s="1" t="s">
-        <v>861</v>
+        <v>853</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
@@ -5409,22 +5409,22 @@
         <v>624</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>782</v>
+        <v>778</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>822</v>
+        <v>816</v>
       </c>
       <c r="G101" s="1" t="s">
-        <v>862</v>
+        <v>854</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
@@ -5432,22 +5432,22 @@
         <v>625</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>744</v>
+        <v>740</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>783</v>
+        <v>779</v>
       </c>
       <c r="F102" s="1" t="s">
-        <v>823</v>
+        <v>817</v>
       </c>
       <c r="G102" s="1" t="s">
-        <v>863</v>
+        <v>855</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
@@ -5455,22 +5455,22 @@
         <v>626</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>745</v>
+        <v>741</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>784</v>
+        <v>780</v>
       </c>
       <c r="F103" s="1" t="s">
-        <v>824</v>
+        <v>818</v>
       </c>
       <c r="G103" s="1" t="s">
-        <v>864</v>
+        <v>856</v>
       </c>
     </row>
     <row r="104" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -5478,22 +5478,22 @@
         <v>627</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>746</v>
+        <v>742</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>785</v>
+        <v>781</v>
       </c>
       <c r="F104" s="1" t="s">
-        <v>825</v>
+        <v>819</v>
       </c>
       <c r="G104" s="1" t="s">
-        <v>865</v>
+        <v>857</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
@@ -5501,22 +5501,22 @@
         <v>628</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>747</v>
+        <v>743</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>786</v>
+        <v>782</v>
       </c>
       <c r="F105" s="1" t="s">
-        <v>826</v>
+        <v>820</v>
       </c>
       <c r="G105" s="1" t="s">
-        <v>866</v>
+        <v>858</v>
       </c>
     </row>
     <row r="106" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -5524,22 +5524,22 @@
         <v>629</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>748</v>
+        <v>744</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>787</v>
+        <v>783</v>
       </c>
       <c r="F106" s="1" t="s">
-        <v>827</v>
+        <v>821</v>
       </c>
       <c r="G106" s="1" t="s">
-        <v>867</v>
+        <v>859</v>
       </c>
     </row>
     <row r="107" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -5547,22 +5547,22 @@
         <v>630</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>749</v>
+        <v>745</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>788</v>
+        <v>784</v>
       </c>
       <c r="F107" s="1" t="s">
-        <v>828</v>
+        <v>822</v>
       </c>
       <c r="G107" s="1" t="s">
-        <v>868</v>
+        <v>860</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.25">
@@ -5570,22 +5570,22 @@
         <v>631</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>750</v>
+        <v>746</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>789</v>
+        <v>785</v>
       </c>
       <c r="F108" s="1" t="s">
-        <v>829</v>
+        <v>823</v>
       </c>
       <c r="G108" s="1" t="s">
-        <v>869</v>
+        <v>861</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
@@ -5593,22 +5593,22 @@
         <v>632</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>751</v>
+        <v>747</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>790</v>
+        <v>786</v>
       </c>
       <c r="F109" s="1" t="s">
-        <v>830</v>
+        <v>824</v>
       </c>
       <c r="G109" s="1" t="s">
-        <v>870</v>
+        <v>862</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
@@ -5616,620 +5616,620 @@
         <v>633</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>752</v>
+        <v>748</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>791</v>
+        <v>787</v>
       </c>
       <c r="F110" s="1" t="s">
-        <v>831</v>
+        <v>825</v>
       </c>
       <c r="G110" s="1" t="s">
-        <v>871</v>
+        <v>863</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
-        <v>634</v>
+        <v>908</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>713</v>
+        <v>910</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>753</v>
+        <v>749</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>792</v>
+        <v>912</v>
       </c>
       <c r="F111" s="1" t="s">
-        <v>832</v>
+        <v>914</v>
       </c>
       <c r="G111" s="1" t="s">
-        <v>872</v>
+        <v>864</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
-        <v>635</v>
+        <v>909</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>714</v>
+        <v>911</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>754</v>
+        <v>750</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>793</v>
+        <v>913</v>
       </c>
       <c r="F112" s="1" t="s">
-        <v>833</v>
+        <v>915</v>
       </c>
       <c r="G112" s="1" t="s">
-        <v>873</v>
+        <v>865</v>
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>715</v>
+        <v>711</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>755</v>
+        <v>751</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>794</v>
+        <v>788</v>
       </c>
       <c r="F113" s="1" t="s">
-        <v>834</v>
+        <v>826</v>
       </c>
       <c r="G113" s="1" t="s">
-        <v>874</v>
+        <v>866</v>
       </c>
     </row>
     <row r="114" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>716</v>
+        <v>712</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>756</v>
+        <v>752</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>795</v>
+        <v>789</v>
       </c>
       <c r="F114" s="1" t="s">
-        <v>835</v>
+        <v>827</v>
       </c>
       <c r="G114" s="1" t="s">
-        <v>875</v>
+        <v>867</v>
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>717</v>
+        <v>713</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>757</v>
+        <v>753</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>796</v>
+        <v>790</v>
       </c>
       <c r="F115" s="1" t="s">
-        <v>836</v>
+        <v>828</v>
       </c>
       <c r="G115" s="1" t="s">
-        <v>876</v>
+        <v>868</v>
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>718</v>
+        <v>714</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>758</v>
+        <v>754</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>797</v>
+        <v>791</v>
       </c>
       <c r="F116" s="1" t="s">
-        <v>837</v>
+        <v>829</v>
       </c>
       <c r="G116" s="1" t="s">
-        <v>877</v>
+        <v>869</v>
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>719</v>
+        <v>715</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>759</v>
+        <v>755</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>798</v>
+        <v>792</v>
       </c>
       <c r="F117" s="1" t="s">
-        <v>838</v>
+        <v>830</v>
       </c>
       <c r="G117" s="1" t="s">
-        <v>878</v>
+        <v>870</v>
       </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>720</v>
+        <v>716</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>760</v>
+        <v>756</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>799</v>
+        <v>793</v>
       </c>
       <c r="F118" s="1" t="s">
-        <v>839</v>
+        <v>831</v>
       </c>
       <c r="G118" s="1" t="s">
-        <v>879</v>
+        <v>871</v>
       </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>721</v>
+        <v>717</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>757</v>
+        <v>753</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>800</v>
+        <v>794</v>
       </c>
       <c r="F119" s="1" t="s">
-        <v>840</v>
+        <v>832</v>
       </c>
       <c r="G119" s="1" t="s">
-        <v>876</v>
+        <v>868</v>
       </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>722</v>
+        <v>718</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>761</v>
+        <v>757</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>801</v>
+        <v>795</v>
       </c>
       <c r="F120" s="1" t="s">
-        <v>841</v>
+        <v>833</v>
       </c>
       <c r="G120" s="1" t="s">
-        <v>880</v>
+        <v>872</v>
       </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>723</v>
+        <v>719</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>762</v>
+        <v>758</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>802</v>
+        <v>796</v>
       </c>
       <c r="F121" s="1" t="s">
-        <v>842</v>
+        <v>834</v>
       </c>
       <c r="G121" s="1" t="s">
-        <v>881</v>
+        <v>873</v>
       </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>724</v>
+        <v>720</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>763</v>
+        <v>759</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>803</v>
+        <v>797</v>
       </c>
       <c r="F122" s="1" t="s">
-        <v>843</v>
+        <v>835</v>
       </c>
       <c r="G122" s="1" t="s">
-        <v>882</v>
+        <v>874</v>
       </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>725</v>
+        <v>721</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>764</v>
+        <v>760</v>
       </c>
       <c r="E123" s="1" t="s">
-        <v>804</v>
+        <v>798</v>
       </c>
       <c r="F123" s="1" t="s">
-        <v>844</v>
+        <v>836</v>
       </c>
       <c r="G123" s="1" t="s">
-        <v>883</v>
+        <v>875</v>
       </c>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>726</v>
+        <v>722</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>765</v>
+        <v>761</v>
       </c>
       <c r="E124" s="1" t="s">
-        <v>805</v>
+        <v>799</v>
       </c>
       <c r="F124" s="1" t="s">
-        <v>845</v>
+        <v>837</v>
       </c>
       <c r="G124" s="1" t="s">
-        <v>884</v>
+        <v>876</v>
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>727</v>
+        <v>723</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>766</v>
+        <v>762</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>806</v>
+        <v>800</v>
       </c>
       <c r="F125" s="1" t="s">
-        <v>846</v>
+        <v>838</v>
       </c>
       <c r="G125" s="1" t="s">
-        <v>885</v>
+        <v>877</v>
       </c>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>728</v>
+        <v>724</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>767</v>
+        <v>763</v>
       </c>
       <c r="E126" s="1" t="s">
-        <v>807</v>
+        <v>801</v>
       </c>
       <c r="F126" s="1" t="s">
-        <v>847</v>
+        <v>839</v>
       </c>
       <c r="G126" s="1" t="s">
-        <v>886</v>
+        <v>878</v>
       </c>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>729</v>
+        <v>725</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>768</v>
+        <v>764</v>
       </c>
       <c r="E127" s="1" t="s">
-        <v>808</v>
+        <v>802</v>
       </c>
       <c r="F127" s="1" t="s">
-        <v>848</v>
+        <v>840</v>
       </c>
       <c r="G127" s="1" t="s">
-        <v>887</v>
+        <v>879</v>
       </c>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>730</v>
+        <v>726</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>769</v>
+        <v>765</v>
       </c>
       <c r="E128" s="1" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
       <c r="F128" s="1" t="s">
-        <v>849</v>
+        <v>841</v>
       </c>
       <c r="G128" s="1" t="s">
-        <v>888</v>
+        <v>880</v>
       </c>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>731</v>
+        <v>727</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>770</v>
+        <v>766</v>
       </c>
       <c r="E129" s="1" t="s">
-        <v>810</v>
+        <v>804</v>
       </c>
       <c r="F129" s="1" t="s">
-        <v>850</v>
+        <v>842</v>
       </c>
       <c r="G129" s="1" t="s">
-        <v>889</v>
+        <v>881</v>
       </c>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>771</v>
+        <v>767</v>
       </c>
       <c r="E130" s="1" t="s">
-        <v>811</v>
+        <v>805</v>
       </c>
       <c r="F130" s="1" t="s">
-        <v>851</v>
+        <v>843</v>
       </c>
       <c r="G130" s="1" t="s">
-        <v>890</v>
+        <v>882</v>
       </c>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>772</v>
+        <v>768</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>812</v>
+        <v>806</v>
       </c>
       <c r="F131" s="1" t="s">
-        <v>852</v>
+        <v>844</v>
       </c>
       <c r="G131" s="1" t="s">
-        <v>891</v>
+        <v>883</v>
       </c>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="D132" s="1" t="s">
-        <v>773</v>
+        <v>769</v>
       </c>
       <c r="E132" s="1" t="s">
-        <v>813</v>
+        <v>807</v>
       </c>
       <c r="F132" s="1" t="s">
-        <v>853</v>
+        <v>845</v>
       </c>
       <c r="G132" s="1" t="s">
-        <v>892</v>
+        <v>884</v>
       </c>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>735</v>
+        <v>731</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>774</v>
+        <v>770</v>
       </c>
       <c r="E133" s="1" t="s">
-        <v>814</v>
+        <v>808</v>
       </c>
       <c r="F133" s="1" t="s">
-        <v>854</v>
+        <v>846</v>
       </c>
       <c r="G133" s="1" t="s">
-        <v>893</v>
+        <v>885</v>
       </c>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>736</v>
+        <v>732</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="D134" s="1" t="s">
-        <v>775</v>
+        <v>771</v>
       </c>
       <c r="E134" s="1" t="s">
-        <v>815</v>
+        <v>809</v>
       </c>
       <c r="F134" s="1" t="s">
-        <v>855</v>
+        <v>847</v>
       </c>
       <c r="G134" s="1" t="s">
-        <v>894</v>
+        <v>886</v>
       </c>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>737</v>
+        <v>733</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>915</v>
+        <v>907</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>776</v>
+        <v>772</v>
       </c>
       <c r="E135" s="1" t="s">
-        <v>816</v>
+        <v>810</v>
       </c>
       <c r="F135" s="1" t="s">
-        <v>856</v>
+        <v>848</v>
       </c>
       <c r="G135" s="1" t="s">
-        <v>895</v>
+        <v>887</v>
       </c>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>738</v>
+        <v>734</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="D136" s="1" t="s">
-        <v>777</v>
+        <v>773</v>
       </c>
       <c r="E136" s="1" t="s">
-        <v>817</v>
+        <v>811</v>
       </c>
       <c r="F136" s="1" t="s">
-        <v>857</v>
+        <v>849</v>
       </c>
       <c r="G136" s="1" t="s">
-        <v>896</v>
+        <v>888</v>
       </c>
     </row>
   </sheetData>

--- a/localization/Localization.xlsx
+++ b/localization/Localization.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="952" uniqueCount="916">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="959" uniqueCount="923">
   <si>
     <t>Key</t>
   </si>
@@ -2767,6 +2767,27 @@
   </si>
   <si>
     <t>Guadagna * dischi.</t>
+  </si>
+  <si>
+    <t>leaderboard</t>
+  </si>
+  <si>
+    <t>Liderlik Tablosu</t>
+  </si>
+  <si>
+    <t>Leaderboard</t>
+  </si>
+  <si>
+    <t>Classement</t>
+  </si>
+  <si>
+    <t>Bestenliste</t>
+  </si>
+  <si>
+    <t>Clasificación</t>
+  </si>
+  <si>
+    <t>Classifica</t>
   </si>
 </sst>
 </file>
@@ -3087,10 +3108,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G136"/>
+  <dimension ref="A1:G137"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B102" workbookViewId="0">
-      <selection activeCell="G119" sqref="G119"/>
+    <sheetView tabSelected="1" topLeftCell="D123" workbookViewId="0">
+      <selection activeCell="G141" sqref="G141"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6232,6 +6253,29 @@
         <v>888</v>
       </c>
     </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A137" s="1" t="s">
+        <v>916</v>
+      </c>
+      <c r="B137" t="s">
+        <v>918</v>
+      </c>
+      <c r="C137" t="s">
+        <v>917</v>
+      </c>
+      <c r="D137" t="s">
+        <v>919</v>
+      </c>
+      <c r="E137" t="s">
+        <v>920</v>
+      </c>
+      <c r="F137" t="s">
+        <v>922</v>
+      </c>
+      <c r="G137" t="s">
+        <v>921</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>

--- a/localization/Localization.xlsx
+++ b/localization/Localization.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="959" uniqueCount="923">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="966" uniqueCount="929">
   <si>
     <t>Key</t>
   </si>
@@ -2788,6 +2788,24 @@
   </si>
   <si>
     <t>Classifica</t>
+  </si>
+  <si>
+    <t>score</t>
+  </si>
+  <si>
+    <t>Score</t>
+  </si>
+  <si>
+    <t>Puan</t>
+  </si>
+  <si>
+    <t>Punktzahl</t>
+  </si>
+  <si>
+    <t>Punteggio</t>
+  </si>
+  <si>
+    <t>Puntuación</t>
   </si>
 </sst>
 </file>
@@ -3108,10 +3126,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G137"/>
+  <dimension ref="A1:G138"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D123" workbookViewId="0">
-      <selection activeCell="G141" sqref="G141"/>
+      <selection activeCell="G144" sqref="G144"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6276,6 +6294,29 @@
         <v>921</v>
       </c>
     </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A138" s="1" t="s">
+        <v>923</v>
+      </c>
+      <c r="B138" s="1" t="s">
+        <v>924</v>
+      </c>
+      <c r="C138" s="1" t="s">
+        <v>925</v>
+      </c>
+      <c r="D138" t="s">
+        <v>924</v>
+      </c>
+      <c r="E138" s="1" t="s">
+        <v>926</v>
+      </c>
+      <c r="F138" t="s">
+        <v>927</v>
+      </c>
+      <c r="G138" t="s">
+        <v>928</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>

--- a/localization/Localization.xlsx
+++ b/localization/Localization.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="966" uniqueCount="929">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="987" uniqueCount="950">
   <si>
     <t>Key</t>
   </si>
@@ -2049,15 +2049,9 @@
     <t>* kez claw machine oyna.</t>
   </si>
   <si>
-    <t>* token kazan.</t>
-  </si>
-  <si>
     <t>* luck wheel çevir.</t>
   </si>
   <si>
-    <t>* clover kazan.</t>
-  </si>
-  <si>
     <t>* kez slot machine oyna.</t>
   </si>
   <si>
@@ -2806,18 +2800,96 @@
   </si>
   <si>
     <t>Puntuación</t>
+  </si>
+  <si>
+    <t>leaderboard_hidden_title</t>
+  </si>
+  <si>
+    <t>Hidden Profile</t>
+  </si>
+  <si>
+    <t>Gizli Profil</t>
+  </si>
+  <si>
+    <t>Profil Caché</t>
+  </si>
+  <si>
+    <t>Verstecktes Profil</t>
+  </si>
+  <si>
+    <t>Perfil Oculto</t>
+  </si>
+  <si>
+    <t>Profilo Nascosto</t>
+  </si>
+  <si>
+    <t>leaderboard_hidden_desc</t>
+  </si>
+  <si>
+    <t>* yonca kazan.</t>
+  </si>
+  <si>
+    <t>* jeton kazan.</t>
+  </si>
+  <si>
+    <t>Ce joueur joue en mode privé. Son score est enregistré mais n’apparaît pas dans le classement.</t>
+  </si>
+  <si>
+    <t>Bu oyuncu gizlilik modunda yarışıyor. Puanı geçerli ama sıralamada görünmüyor.</t>
+  </si>
+  <si>
+    <t>This player is competing in privacy mode. Their score counts but doesn’t appear on the leaderboard.</t>
+  </si>
+  <si>
+    <t>Dieser Spieler spielt im Datenschutzmodus. Sein Punktestand wird gezählt, erscheint jedoch nicht in der Rangliste.</t>
+  </si>
+  <si>
+    <t>Questo giocatore partecipa in modalità privata. Il suo punteggio è valido ma non appare nella classifica.</t>
+  </si>
+  <si>
+    <t>Este jugador compite en modo privado. 
+Su puntuación cuenta, pero no aparece en la clasificación.</t>
+  </si>
+  <si>
+    <t>leaderboard_hidden_hint</t>
+  </si>
+  <si>
+    <t>Tip: Turn off privacy mode from your device settings to appear on the leaderboard.</t>
+  </si>
+  <si>
+    <t>İpucu: Cihaz ayarlarından gizli modu kapatarak sıralamada yer alabilirsin.</t>
+  </si>
+  <si>
+    <t>Astuce : Désactive le mode privé depuis les paramètres de ton appareil pour apparaître dans le classement.</t>
+  </si>
+  <si>
+    <t>Tipp: Deaktiviere den Datenschutzmodus in den Geräteeinstellungen, um in der Rangliste zu erscheinen.</t>
+  </si>
+  <si>
+    <t>Suggerimento: Disattiva la modalità privata dalle impostazioni del dispositivo per apparire nella classifica.</t>
+  </si>
+  <si>
+    <t>Consejo: Desactiva el modo privado desde los ajustes del dispositivo para aparecer en la clasificación.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="162"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -2841,9 +2913,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3126,10 +3204,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G138"/>
+  <dimension ref="A1:G143"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D123" workbookViewId="0">
-      <selection activeCell="G144" sqref="G144"/>
+    <sheetView tabSelected="1" topLeftCell="B123" workbookViewId="0">
+      <selection activeCell="G145" sqref="G145"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4801,7 +4879,7 @@
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="B73" t="s">
         <v>479</v>
@@ -4824,7 +4902,7 @@
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
       <c r="B74" t="s">
         <v>486</v>
@@ -4847,7 +4925,7 @@
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="B75" t="s">
         <v>499</v>
@@ -4870,7 +4948,7 @@
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="B76" t="s">
         <v>500</v>
@@ -4893,7 +4971,7 @@
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="B77" t="s">
         <v>501</v>
@@ -4916,7 +4994,7 @@
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
       <c r="B78" t="s">
         <v>502</v>
@@ -4939,7 +5017,7 @@
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
       <c r="B79" t="s">
         <v>503</v>
@@ -4962,7 +5040,7 @@
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
       <c r="B80" t="s">
         <v>504</v>
@@ -4985,7 +5063,7 @@
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
       <c r="B81" t="s">
         <v>505</v>
@@ -5008,7 +5086,7 @@
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
       <c r="B82" t="s">
         <v>506</v>
@@ -5031,7 +5109,7 @@
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
       <c r="B83" t="s">
         <v>541</v>
@@ -5054,7 +5132,7 @@
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="B84" t="s">
         <v>542</v>
@@ -5100,7 +5178,7 @@
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
       <c r="B86" t="s">
         <v>544</v>
@@ -5123,7 +5201,7 @@
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
       <c r="B87" t="s">
         <v>545</v>
@@ -5146,7 +5224,7 @@
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="B88" t="s">
         <v>546</v>
@@ -5169,7 +5247,7 @@
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
       <c r="B89" t="s">
         <v>547</v>
@@ -5192,7 +5270,7 @@
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="B90" t="s">
         <v>548</v>
@@ -5238,7 +5316,7 @@
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
       <c r="B92" t="s">
         <v>550</v>
@@ -5356,22 +5434,22 @@
         <v>620</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="C97" s="1" t="s">
         <v>658</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="G97" s="1" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
@@ -5379,22 +5457,22 @@
         <v>621</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="C98" s="1" t="s">
         <v>659</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="G98" s="1" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
@@ -5402,22 +5480,22 @@
         <v>622</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="C99" s="1" t="s">
         <v>660</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="G99" s="1" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
@@ -5425,22 +5503,22 @@
         <v>623</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="C100" s="1" t="s">
         <v>661</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="G100" s="1" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
@@ -5448,22 +5526,22 @@
         <v>624</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="C101" s="1" t="s">
         <v>662</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="G101" s="1" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
@@ -5471,22 +5549,22 @@
         <v>625</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="C102" s="1" t="s">
         <v>663</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="F102" s="1" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="G102" s="1" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
@@ -5494,22 +5572,22 @@
         <v>626</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="C103" s="1" t="s">
         <v>664</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="F103" s="1" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="G103" s="1" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
     </row>
     <row r="104" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -5517,22 +5595,22 @@
         <v>627</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="C104" s="1" t="s">
         <v>665</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="F104" s="1" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="G104" s="1" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
@@ -5540,22 +5618,22 @@
         <v>628</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="C105" s="1" t="s">
         <v>666</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="F105" s="1" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="G105" s="1" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
     </row>
     <row r="106" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -5563,22 +5641,22 @@
         <v>629</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="C106" s="1" t="s">
         <v>667</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="F106" s="1" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="G106" s="1" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
     </row>
     <row r="107" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -5586,22 +5664,22 @@
         <v>630</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="C107" s="1" t="s">
         <v>668</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="F107" s="1" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="G107" s="1" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.25">
@@ -5609,22 +5687,22 @@
         <v>631</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="C108" s="1" t="s">
         <v>669</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="F108" s="1" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="G108" s="1" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
@@ -5632,22 +5710,22 @@
         <v>632</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="C109" s="1" t="s">
         <v>670</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="F109" s="1" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="G109" s="1" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
@@ -5655,68 +5733,68 @@
         <v>633</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="C110" s="1" t="s">
         <v>671</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="F110" s="1" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="G110" s="1" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
+        <v>906</v>
+      </c>
+      <c r="B111" s="1" t="s">
         <v>908</v>
-      </c>
-      <c r="B111" s="1" t="s">
-        <v>910</v>
       </c>
       <c r="C111" s="1" t="s">
         <v>672</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="E111" s="1" t="s">
+        <v>910</v>
+      </c>
+      <c r="F111" s="1" t="s">
         <v>912</v>
       </c>
-      <c r="F111" s="1" t="s">
-        <v>914</v>
-      </c>
       <c r="G111" s="1" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
+        <v>907</v>
+      </c>
+      <c r="B112" s="1" t="s">
         <v>909</v>
-      </c>
-      <c r="B112" s="1" t="s">
-        <v>911</v>
       </c>
       <c r="C112" s="1" t="s">
         <v>673</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="E112" s="1" t="s">
+        <v>911</v>
+      </c>
+      <c r="F112" s="1" t="s">
         <v>913</v>
       </c>
-      <c r="F112" s="1" t="s">
-        <v>915</v>
-      </c>
       <c r="G112" s="1" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.25">
@@ -5724,22 +5802,22 @@
         <v>634</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="C113" s="1" t="s">
         <v>674</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="F113" s="1" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="G113" s="1" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
     </row>
     <row r="114" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -5747,22 +5825,22 @@
         <v>635</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="C114" s="1" t="s">
         <v>675</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="F114" s="1" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="G114" s="1" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.25">
@@ -5770,22 +5848,22 @@
         <v>636</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>676</v>
+        <v>936</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="F115" s="1" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="G115" s="1" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.25">
@@ -5793,22 +5871,22 @@
         <v>637</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="F116" s="1" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="G116" s="1" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.25">
@@ -5816,22 +5894,22 @@
         <v>638</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>678</v>
+        <v>935</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="F117" s="1" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="G117" s="1" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.25">
@@ -5839,22 +5917,22 @@
         <v>639</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="F118" s="1" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="G118" s="1" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.25">
@@ -5862,22 +5940,22 @@
         <v>640</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="F119" s="1" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="G119" s="1" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.25">
@@ -5885,22 +5963,22 @@
         <v>641</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="F120" s="1" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="G120" s="1" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.25">
@@ -5908,22 +5986,22 @@
         <v>642</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="F121" s="1" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="G121" s="1" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.25">
@@ -5931,22 +6009,22 @@
         <v>643</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="F122" s="1" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="G122" s="1" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.25">
@@ -5954,22 +6032,22 @@
         <v>644</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="E123" s="1" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="F123" s="1" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="G123" s="1" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.25">
@@ -5977,22 +6055,22 @@
         <v>645</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="E124" s="1" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="F124" s="1" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="G124" s="1" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.25">
@@ -6000,22 +6078,22 @@
         <v>646</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="F125" s="1" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="G125" s="1" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.25">
@@ -6023,22 +6101,22 @@
         <v>647</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="E126" s="1" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="F126" s="1" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
       <c r="G126" s="1" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.25">
@@ -6046,22 +6124,22 @@
         <v>648</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="E127" s="1" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="F127" s="1" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="G127" s="1" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.25">
@@ -6069,22 +6147,22 @@
         <v>649</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="E128" s="1" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="F128" s="1" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="G128" s="1" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.25">
@@ -6092,22 +6170,22 @@
         <v>650</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="E129" s="1" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="F129" s="1" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="G129" s="1" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.25">
@@ -6115,22 +6193,22 @@
         <v>651</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="E130" s="1" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="F130" s="1" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="G130" s="1" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.25">
@@ -6138,22 +6216,22 @@
         <v>652</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="F131" s="1" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="G131" s="1" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.25">
@@ -6161,22 +6239,22 @@
         <v>653</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="D132" s="1" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="E132" s="1" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="F132" s="1" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="G132" s="1" t="s">
-        <v>884</v>
+        <v>882</v>
       </c>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.25">
@@ -6184,22 +6262,22 @@
         <v>654</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="E133" s="1" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="F133" s="1" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="G133" s="1" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.25">
@@ -6207,22 +6285,22 @@
         <v>655</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="D134" s="1" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="E134" s="1" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="F134" s="1" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="G134" s="1" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.25">
@@ -6230,22 +6308,22 @@
         <v>656</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="E135" s="1" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="F135" s="1" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="G135" s="1" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.25">
@@ -6253,69 +6331,145 @@
         <v>657</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="D136" s="1" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="E136" s="1" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="F136" s="1" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="G136" s="1" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
+        <v>914</v>
+      </c>
+      <c r="B137" t="s">
         <v>916</v>
       </c>
-      <c r="B137" t="s">
+      <c r="C137" t="s">
+        <v>915</v>
+      </c>
+      <c r="D137" t="s">
+        <v>917</v>
+      </c>
+      <c r="E137" t="s">
         <v>918</v>
       </c>
-      <c r="C137" t="s">
-        <v>917</v>
-      </c>
-      <c r="D137" t="s">
+      <c r="F137" t="s">
+        <v>920</v>
+      </c>
+      <c r="G137" t="s">
         <v>919</v>
-      </c>
-      <c r="E137" t="s">
-        <v>920</v>
-      </c>
-      <c r="F137" t="s">
-        <v>922</v>
-      </c>
-      <c r="G137" t="s">
-        <v>921</v>
       </c>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
+        <v>921</v>
+      </c>
+      <c r="B138" s="1" t="s">
+        <v>922</v>
+      </c>
+      <c r="C138" s="1" t="s">
         <v>923</v>
       </c>
-      <c r="B138" s="1" t="s">
+      <c r="D138" t="s">
+        <v>922</v>
+      </c>
+      <c r="E138" s="1" t="s">
         <v>924</v>
       </c>
-      <c r="C138" s="1" t="s">
+      <c r="F138" t="s">
         <v>925</v>
       </c>
-      <c r="D138" t="s">
-        <v>924</v>
-      </c>
-      <c r="E138" s="1" t="s">
+      <c r="G138" t="s">
         <v>926</v>
       </c>
-      <c r="F138" t="s">
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
         <v>927</v>
       </c>
-      <c r="G138" t="s">
+      <c r="B139" t="s">
         <v>928</v>
       </c>
+      <c r="C139" t="s">
+        <v>929</v>
+      </c>
+      <c r="D139" t="s">
+        <v>930</v>
+      </c>
+      <c r="E139" t="s">
+        <v>931</v>
+      </c>
+      <c r="F139" t="s">
+        <v>933</v>
+      </c>
+      <c r="G139" s="1" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>934</v>
+      </c>
+      <c r="B140" t="s">
+        <v>939</v>
+      </c>
+      <c r="C140" t="s">
+        <v>938</v>
+      </c>
+      <c r="D140" t="s">
+        <v>937</v>
+      </c>
+      <c r="E140" t="s">
+        <v>940</v>
+      </c>
+      <c r="F140" t="s">
+        <v>941</v>
+      </c>
+      <c r="G140" s="2" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>943</v>
+      </c>
+      <c r="B141" t="s">
+        <v>944</v>
+      </c>
+      <c r="C141" s="3" t="s">
+        <v>945</v>
+      </c>
+      <c r="D141" t="s">
+        <v>946</v>
+      </c>
+      <c r="E141" t="s">
+        <v>947</v>
+      </c>
+      <c r="F141" t="s">
+        <v>948</v>
+      </c>
+      <c r="G141" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C142" s="1"/>
+      <c r="D142" s="1"/>
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D143" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/localization/Localization.xlsx
+++ b/localization/Localization.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="987" uniqueCount="950">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="994" uniqueCount="957">
   <si>
     <t>Key</t>
   </si>
@@ -2870,6 +2870,27 @@
   </si>
   <si>
     <t>Consejo: Desactiva el modo privado desde los ajustes del dispositivo para aparecer en la clasificación.</t>
+  </si>
+  <si>
+    <t>mini_games</t>
+  </si>
+  <si>
+    <t>Mini Oyunlar</t>
+  </si>
+  <si>
+    <t>Mini Games</t>
+  </si>
+  <si>
+    <t>Mini-jeux</t>
+  </si>
+  <si>
+    <t>Minispiele</t>
+  </si>
+  <si>
+    <t>Mini Giochi</t>
+  </si>
+  <si>
+    <t>Mini Juegos</t>
   </si>
 </sst>
 </file>
@@ -3206,8 +3227,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G143"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B123" workbookViewId="0">
-      <selection activeCell="G145" sqref="G145"/>
+    <sheetView tabSelected="1" topLeftCell="B122" workbookViewId="0">
+      <selection activeCell="G143" sqref="G143"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6465,8 +6486,27 @@
       </c>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C142" s="1"/>
-      <c r="D142" s="1"/>
+      <c r="A142" t="s">
+        <v>950</v>
+      </c>
+      <c r="B142" t="s">
+        <v>952</v>
+      </c>
+      <c r="C142" s="1" t="s">
+        <v>951</v>
+      </c>
+      <c r="D142" t="s">
+        <v>953</v>
+      </c>
+      <c r="E142" t="s">
+        <v>954</v>
+      </c>
+      <c r="F142" t="s">
+        <v>955</v>
+      </c>
+      <c r="G142" t="s">
+        <v>956</v>
+      </c>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D143" s="1"/>

--- a/localization/Localization.xlsx
+++ b/localization/Localization.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="994" uniqueCount="957">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1001" uniqueCount="964">
   <si>
     <t>Key</t>
   </si>
@@ -2891,6 +2891,27 @@
   </si>
   <si>
     <t>Mini Juegos</t>
+  </si>
+  <si>
+    <t>Kötü Şans</t>
+  </si>
+  <si>
+    <t>Bad Luck</t>
+  </si>
+  <si>
+    <t>bad_luck</t>
+  </si>
+  <si>
+    <t>Pech gehabt!</t>
+  </si>
+  <si>
+    <t>Pas de chance !</t>
+  </si>
+  <si>
+    <t>Sfortuna</t>
+  </si>
+  <si>
+    <t>Mala suerte</t>
   </si>
 </sst>
 </file>
@@ -3227,8 +3248,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G143"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B122" workbookViewId="0">
-      <selection activeCell="G143" sqref="G143"/>
+    <sheetView tabSelected="1" topLeftCell="D122" workbookViewId="0">
+      <selection activeCell="G147" sqref="G147"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6509,7 +6530,27 @@
       </c>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D143" s="1"/>
+      <c r="A143" t="s">
+        <v>959</v>
+      </c>
+      <c r="B143" t="s">
+        <v>958</v>
+      </c>
+      <c r="C143" t="s">
+        <v>957</v>
+      </c>
+      <c r="D143" s="1" t="s">
+        <v>961</v>
+      </c>
+      <c r="E143" s="1" t="s">
+        <v>960</v>
+      </c>
+      <c r="F143" t="s">
+        <v>962</v>
+      </c>
+      <c r="G143" t="s">
+        <v>963</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/localization/Localization.xlsx
+++ b/localization/Localization.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1001" uniqueCount="964">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1085" uniqueCount="1048">
   <si>
     <t>Key</t>
   </si>
@@ -2912,6 +2912,258 @@
   </si>
   <si>
     <t>Mala suerte</t>
+  </si>
+  <si>
+    <t>no_ads</t>
+  </si>
+  <si>
+    <t>No Ads Experience</t>
+  </si>
+  <si>
+    <t>Reklamsız Oyun</t>
+  </si>
+  <si>
+    <t>Expérience Sans Publicité</t>
+  </si>
+  <si>
+    <t>Werbefreies Spielen</t>
+  </si>
+  <si>
+    <t>Gioco Senza Pubblicità</t>
+  </si>
+  <si>
+    <t>Juego Sin Anuncios</t>
+  </si>
+  <si>
+    <t>no_ads_promo</t>
+  </si>
+  <si>
+    <t>Enjoy uninterrupted gameplay with no ads.</t>
+  </si>
+  <si>
+    <t>Reklamsız, kesintisiz ve rahat bir oyun deneyimi yaşa.</t>
+  </si>
+  <si>
+    <t>Profitez d’un jeu fluide sans aucune interruption.</t>
+  </si>
+  <si>
+    <t>Spiele ohne Unterbrechungen durch Werbung.</t>
+  </si>
+  <si>
+    <t>Gioca senza interruzioni pubblicitarie.</t>
+  </si>
+  <si>
+    <t>Disfruta del juego sin interrupciones.</t>
+  </si>
+  <si>
+    <t>starter_pack</t>
+  </si>
+  <si>
+    <t>Başlangıç Paketi</t>
+  </si>
+  <si>
+    <t>Starter Pack</t>
+  </si>
+  <si>
+    <t>Pack de Démarrage</t>
+  </si>
+  <si>
+    <t>Starter-Paket</t>
+  </si>
+  <si>
+    <t>Pacchetto Iniziale</t>
+  </si>
+  <si>
+    <t>Paquete Inicial</t>
+  </si>
+  <si>
+    <t>starter_pack_promo</t>
+  </si>
+  <si>
+    <t>Get a smooth and fast start to your journey.</t>
+  </si>
+  <si>
+    <t>Oyuna hızlı ve rahat bir başlangıç yap.</t>
+  </si>
+  <si>
+    <t>Commencez votre aventure en toute sérénité.</t>
+  </si>
+  <si>
+    <t>Starte entspannt und gut vorbereitet.</t>
+  </si>
+  <si>
+    <t>Inizia la tua avventura senza difficoltà.</t>
+  </si>
+  <si>
+    <t>Comienza tu aventura con facilidad.</t>
+  </si>
+  <si>
+    <t>progress_pack</t>
+  </si>
+  <si>
+    <t>Progress Pack</t>
+  </si>
+  <si>
+    <t>İlerleme Paketi</t>
+  </si>
+  <si>
+    <t>Pack de Progression</t>
+  </si>
+  <si>
+    <t>Fortschritts-Paket</t>
+  </si>
+  <si>
+    <t>Pacchetto Avanzamento</t>
+  </si>
+  <si>
+    <t>Paquete de Progreso</t>
+  </si>
+  <si>
+    <t>progress_pack_promo</t>
+  </si>
+  <si>
+    <t>Move forward faster and enjoy more.</t>
+  </si>
+  <si>
+    <t>Daha hızlı ilerle, daha çok keyif al.</t>
+  </si>
+  <si>
+    <t>Avance plus vite et profite davantage.</t>
+  </si>
+  <si>
+    <t>Komme schneller voran und genieße das Spiel mehr.</t>
+  </si>
+  <si>
+    <t>Avanza più velocemente e divertiti di più.</t>
+  </si>
+  <si>
+    <t>Avanza más rápido y disfruta más.</t>
+  </si>
+  <si>
+    <t>mini_game_pass</t>
+  </si>
+  <si>
+    <t>Mini Oyun Bileti</t>
+  </si>
+  <si>
+    <t>Mini Game Pass</t>
+  </si>
+  <si>
+    <t>Pass Mini-Jeux</t>
+  </si>
+  <si>
+    <t>Mini-Spiel-Pass</t>
+  </si>
+  <si>
+    <t>Pass Mini Giochi</t>
+  </si>
+  <si>
+    <t>Pase de Mini Juegos</t>
+  </si>
+  <si>
+    <t>Tüm mini oyunların keyfini çıkar.</t>
+  </si>
+  <si>
+    <t>mini_game_pass_promo</t>
+  </si>
+  <si>
+    <t>Enjoy all mini games with ease.</t>
+  </si>
+  <si>
+    <t>Profitez pleinement de tous les mini-jeux.</t>
+  </si>
+  <si>
+    <t>Spiele alle Mini-Spiele ganz entspannt.</t>
+  </si>
+  <si>
+    <t>Divertiti con tutti i mini giochi.</t>
+  </si>
+  <si>
+    <t>Disfruta de todos los mini juegos.</t>
+  </si>
+  <si>
+    <t>builder_pack</t>
+  </si>
+  <si>
+    <t>Builder Pack</t>
+  </si>
+  <si>
+    <t>İnşa Paketi</t>
+  </si>
+  <si>
+    <t>Pack Constructeur</t>
+  </si>
+  <si>
+    <t>Bau-Paket</t>
+  </si>
+  <si>
+    <t>Pacchetto Costruttore</t>
+  </si>
+  <si>
+    <t>Paquete Constructor</t>
+  </si>
+  <si>
+    <t>builder_pack_promo</t>
+  </si>
+  <si>
+    <t>Evin için daha hızlı ilerleme.</t>
+  </si>
+  <si>
+    <t>Build and upgrade faster.</t>
+  </si>
+  <si>
+    <t>Construisez et améliorez plus rapidement.</t>
+  </si>
+  <si>
+    <t>Baue und verbessere schneller.</t>
+  </si>
+  <si>
+    <t>Costruisci e migliora più velocemente.</t>
+  </si>
+  <si>
+    <t>Construye y mejora más rápido.</t>
+  </si>
+  <si>
+    <t>Sıralama Desteği</t>
+  </si>
+  <si>
+    <t>Leaderboard Boost</t>
+  </si>
+  <si>
+    <t>Boost de Classement</t>
+  </si>
+  <si>
+    <t>Ranglisten-Boost</t>
+  </si>
+  <si>
+    <t>Boost Classifica</t>
+  </si>
+  <si>
+    <t>Impulso de Clasificación</t>
+  </si>
+  <si>
+    <t>Climb the leaderboard faster.</t>
+  </si>
+  <si>
+    <t>Daha hızlı yüksel ve öne çık.</t>
+  </si>
+  <si>
+    <t>Grimpez plus rapidement dans le classement.</t>
+  </si>
+  <si>
+    <t>Steige schneller in der Rangliste auf.</t>
+  </si>
+  <si>
+    <t>Sali più velocemente in classifica.</t>
+  </si>
+  <si>
+    <t>Sube más rápido en la clasificación.</t>
+  </si>
+  <si>
+    <t>leaderboard_boost</t>
+  </si>
+  <si>
+    <t>leaderboard_boost_promo</t>
   </si>
 </sst>
 </file>
@@ -3246,10 +3498,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G143"/>
+  <dimension ref="A1:G155"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D122" workbookViewId="0">
-      <selection activeCell="G147" sqref="G147"/>
+    <sheetView tabSelected="1" topLeftCell="A134" workbookViewId="0">
+      <selection activeCell="A144" sqref="A144"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6552,6 +6804,282 @@
         <v>963</v>
       </c>
     </row>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>964</v>
+      </c>
+      <c r="B144" t="s">
+        <v>965</v>
+      </c>
+      <c r="C144" t="s">
+        <v>966</v>
+      </c>
+      <c r="D144" t="s">
+        <v>967</v>
+      </c>
+      <c r="E144" t="s">
+        <v>968</v>
+      </c>
+      <c r="F144" t="s">
+        <v>969</v>
+      </c>
+      <c r="G144" t="s">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>971</v>
+      </c>
+      <c r="B145" t="s">
+        <v>972</v>
+      </c>
+      <c r="C145" t="s">
+        <v>973</v>
+      </c>
+      <c r="D145" t="s">
+        <v>974</v>
+      </c>
+      <c r="E145" t="s">
+        <v>975</v>
+      </c>
+      <c r="F145" t="s">
+        <v>976</v>
+      </c>
+      <c r="G145" t="s">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>978</v>
+      </c>
+      <c r="B146" t="s">
+        <v>980</v>
+      </c>
+      <c r="C146" t="s">
+        <v>979</v>
+      </c>
+      <c r="D146" t="s">
+        <v>981</v>
+      </c>
+      <c r="E146" t="s">
+        <v>982</v>
+      </c>
+      <c r="F146" t="s">
+        <v>983</v>
+      </c>
+      <c r="G146" t="s">
+        <v>984</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>985</v>
+      </c>
+      <c r="B147" t="s">
+        <v>986</v>
+      </c>
+      <c r="C147" t="s">
+        <v>987</v>
+      </c>
+      <c r="D147" t="s">
+        <v>988</v>
+      </c>
+      <c r="E147" t="s">
+        <v>989</v>
+      </c>
+      <c r="F147" t="s">
+        <v>990</v>
+      </c>
+      <c r="G147" t="s">
+        <v>991</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>992</v>
+      </c>
+      <c r="B148" t="s">
+        <v>993</v>
+      </c>
+      <c r="C148" t="s">
+        <v>994</v>
+      </c>
+      <c r="D148" t="s">
+        <v>995</v>
+      </c>
+      <c r="E148" t="s">
+        <v>996</v>
+      </c>
+      <c r="F148" t="s">
+        <v>997</v>
+      </c>
+      <c r="G148" t="s">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>999</v>
+      </c>
+      <c r="B149" t="s">
+        <v>1000</v>
+      </c>
+      <c r="C149" t="s">
+        <v>1001</v>
+      </c>
+      <c r="D149" t="s">
+        <v>1002</v>
+      </c>
+      <c r="E149" t="s">
+        <v>1003</v>
+      </c>
+      <c r="F149" t="s">
+        <v>1004</v>
+      </c>
+      <c r="G149" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>1006</v>
+      </c>
+      <c r="B150" t="s">
+        <v>1008</v>
+      </c>
+      <c r="C150" t="s">
+        <v>1007</v>
+      </c>
+      <c r="D150" t="s">
+        <v>1009</v>
+      </c>
+      <c r="E150" t="s">
+        <v>1010</v>
+      </c>
+      <c r="F150" t="s">
+        <v>1011</v>
+      </c>
+      <c r="G150" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>1014</v>
+      </c>
+      <c r="B151" t="s">
+        <v>1015</v>
+      </c>
+      <c r="C151" t="s">
+        <v>1013</v>
+      </c>
+      <c r="D151" t="s">
+        <v>1016</v>
+      </c>
+      <c r="E151" t="s">
+        <v>1017</v>
+      </c>
+      <c r="F151" t="s">
+        <v>1018</v>
+      </c>
+      <c r="G151" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>1020</v>
+      </c>
+      <c r="B152" t="s">
+        <v>1021</v>
+      </c>
+      <c r="C152" t="s">
+        <v>1022</v>
+      </c>
+      <c r="D152" t="s">
+        <v>1023</v>
+      </c>
+      <c r="E152" t="s">
+        <v>1024</v>
+      </c>
+      <c r="F152" t="s">
+        <v>1025</v>
+      </c>
+      <c r="G152" t="s">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>1027</v>
+      </c>
+      <c r="B153" t="s">
+        <v>1029</v>
+      </c>
+      <c r="C153" t="s">
+        <v>1028</v>
+      </c>
+      <c r="D153" t="s">
+        <v>1030</v>
+      </c>
+      <c r="E153" t="s">
+        <v>1031</v>
+      </c>
+      <c r="F153" t="s">
+        <v>1032</v>
+      </c>
+      <c r="G153" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>1046</v>
+      </c>
+      <c r="B154" t="s">
+        <v>1035</v>
+      </c>
+      <c r="C154" t="s">
+        <v>1034</v>
+      </c>
+      <c r="D154" t="s">
+        <v>1036</v>
+      </c>
+      <c r="E154" t="s">
+        <v>1037</v>
+      </c>
+      <c r="F154" t="s">
+        <v>1038</v>
+      </c>
+      <c r="G154" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>1047</v>
+      </c>
+      <c r="B155" t="s">
+        <v>1040</v>
+      </c>
+      <c r="C155" t="s">
+        <v>1041</v>
+      </c>
+      <c r="D155" t="s">
+        <v>1042</v>
+      </c>
+      <c r="E155" t="s">
+        <v>1043</v>
+      </c>
+      <c r="F155" t="s">
+        <v>1044</v>
+      </c>
+      <c r="G155" t="s">
+        <v>1045</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>

--- a/localization/Localization.xlsx
+++ b/localization/Localization.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1085" uniqueCount="1048">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1092" uniqueCount="1055">
   <si>
     <t>Key</t>
   </si>
@@ -3164,6 +3164,27 @@
   </si>
   <si>
     <t>leaderboard_boost_promo</t>
+  </si>
+  <si>
+    <t>play_random_mini_game</t>
+  </si>
+  <si>
+    <t>Play Random Mini Game</t>
+  </si>
+  <si>
+    <t>Rastgele Mini Oyun Oyna</t>
+  </si>
+  <si>
+    <t>Jouer à un mini-jeu aléatoire</t>
+  </si>
+  <si>
+    <t>Zufälliges Minispiel spielen</t>
+  </si>
+  <si>
+    <t>Gioca a un mini-gioco casuale</t>
+  </si>
+  <si>
+    <t>Jugar a un minijuego aleatorio</t>
   </si>
 </sst>
 </file>
@@ -3498,10 +3519,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G155"/>
+  <dimension ref="A1:G156"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A134" workbookViewId="0">
-      <selection activeCell="A144" sqref="A144"/>
+    <sheetView tabSelected="1" topLeftCell="D134" workbookViewId="0">
+      <selection activeCell="H164" sqref="H164"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7080,6 +7101,29 @@
         <v>1045</v>
       </c>
     </row>
+    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>1048</v>
+      </c>
+      <c r="B156" t="s">
+        <v>1049</v>
+      </c>
+      <c r="C156" t="s">
+        <v>1050</v>
+      </c>
+      <c r="D156" t="s">
+        <v>1051</v>
+      </c>
+      <c r="E156" t="s">
+        <v>1052</v>
+      </c>
+      <c r="F156" t="s">
+        <v>1053</v>
+      </c>
+      <c r="G156" t="s">
+        <v>1054</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>

--- a/localization/Localization.xlsx
+++ b/localization/Localization.xlsx
@@ -4483,7 +4483,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G210"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E164" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A164" workbookViewId="0">
       <selection activeCell="G211" sqref="G211"/>
     </sheetView>
   </sheetViews>

--- a/localization/Localization.xlsx
+++ b/localization/Localization.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1463" uniqueCount="1372">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1470" uniqueCount="1379">
   <si>
     <t>Key</t>
   </si>
@@ -4136,6 +4136,27 @@
   </si>
   <si>
     <t>Reclamar todo</t>
+  </si>
+  <si>
+    <t>select_cards</t>
+  </si>
+  <si>
+    <t>Select * Cards</t>
+  </si>
+  <si>
+    <t>* Kart Seç</t>
+  </si>
+  <si>
+    <t>Sélectionnez * cartes</t>
+  </si>
+  <si>
+    <t>Wähle * Karten</t>
+  </si>
+  <si>
+    <t>Seleziona * carte</t>
+  </si>
+  <si>
+    <t>Selecciona * cartas</t>
   </si>
 </sst>
 </file>
@@ -4159,11 +4180,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="162"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -4195,10 +4216,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -4483,8 +4504,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G210"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A164" workbookViewId="0">
-      <selection activeCell="G211" sqref="G211"/>
+    <sheetView tabSelected="1" topLeftCell="D182" workbookViewId="0">
+      <selection activeCell="G210" sqref="G210"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9306,10 +9327,30 @@
       </c>
     </row>
     <row r="210" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B210" s="4"/>
+      <c r="A210" t="s">
+        <v>1372</v>
+      </c>
+      <c r="B210" s="4" t="s">
+        <v>1373</v>
+      </c>
+      <c r="C210" t="s">
+        <v>1374</v>
+      </c>
+      <c r="D210" t="s">
+        <v>1375</v>
+      </c>
+      <c r="E210" t="s">
+        <v>1376</v>
+      </c>
+      <c r="F210" t="s">
+        <v>1377</v>
+      </c>
+      <c r="G210" t="s">
+        <v>1378</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/localization/Localization.xlsx
+++ b/localization/Localization.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1470" uniqueCount="1379">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1477" uniqueCount="1385">
   <si>
     <t>Key</t>
   </si>
@@ -4157,6 +4157,24 @@
   </si>
   <si>
     <t>Selecciona * cartas</t>
+  </si>
+  <si>
+    <t>collection</t>
+  </si>
+  <si>
+    <t>Koleksiyon</t>
+  </si>
+  <si>
+    <t>Collection</t>
+  </si>
+  <si>
+    <t>Sammlung</t>
+  </si>
+  <si>
+    <t>Collezione</t>
+  </si>
+  <si>
+    <t>Colección</t>
   </si>
 </sst>
 </file>
@@ -4502,10 +4520,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G210"/>
+  <dimension ref="A1:G211"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D182" workbookViewId="0">
-      <selection activeCell="G210" sqref="G210"/>
+    <sheetView tabSelected="1" topLeftCell="D192" workbookViewId="0">
+      <selection activeCell="I210" sqref="I210"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9349,6 +9367,29 @@
         <v>1378</v>
       </c>
     </row>
+    <row r="211" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A211" t="s">
+        <v>1379</v>
+      </c>
+      <c r="B211" t="s">
+        <v>1381</v>
+      </c>
+      <c r="C211" t="s">
+        <v>1380</v>
+      </c>
+      <c r="D211" t="s">
+        <v>1381</v>
+      </c>
+      <c r="E211" t="s">
+        <v>1382</v>
+      </c>
+      <c r="F211" t="s">
+        <v>1383</v>
+      </c>
+      <c r="G211" t="s">
+        <v>1384</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/localization/Localization.xlsx
+++ b/localization/Localization.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1477" uniqueCount="1385">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1484" uniqueCount="1392">
   <si>
     <t>Key</t>
   </si>
@@ -4175,6 +4175,27 @@
   </si>
   <si>
     <t>Colección</t>
+  </si>
+  <si>
+    <t>loading_localization</t>
+  </si>
+  <si>
+    <t>Setting language...</t>
+  </si>
+  <si>
+    <t>Dil ayarlanıyor...</t>
+  </si>
+  <si>
+    <t>Configuration de la langue...</t>
+  </si>
+  <si>
+    <t>Sprache wird eingestellt...</t>
+  </si>
+  <si>
+    <t>Impostazione della lingua...</t>
+  </si>
+  <si>
+    <t>Configurando el idioma...</t>
   </si>
 </sst>
 </file>
@@ -4520,10 +4541,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G211"/>
+  <dimension ref="A1:G212"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D192" workbookViewId="0">
-      <selection activeCell="I210" sqref="I210"/>
+    <sheetView tabSelected="1" topLeftCell="D207" workbookViewId="0">
+      <selection activeCell="H215" sqref="H215"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9390,6 +9411,29 @@
         <v>1384</v>
       </c>
     </row>
+    <row r="212" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A212" t="s">
+        <v>1385</v>
+      </c>
+      <c r="B212" t="s">
+        <v>1386</v>
+      </c>
+      <c r="C212" t="s">
+        <v>1387</v>
+      </c>
+      <c r="D212" t="s">
+        <v>1388</v>
+      </c>
+      <c r="E212" t="s">
+        <v>1389</v>
+      </c>
+      <c r="F212" t="s">
+        <v>1390</v>
+      </c>
+      <c r="G212" t="s">
+        <v>1391</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
